--- a/Shablon/34460A.xlsx
+++ b/Shablon/34460A.xlsx
@@ -14,27 +14,12 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Лист1!$A$1:$H$138</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="165">
-  <si>
-    <t>АО "Гос МКБ "Вымпел" им. И.И. Торопова"</t>
-  </si>
-  <si>
-    <t>СГМетр, лаборатория средств электрорадиотехнических измерений</t>
-  </si>
-  <si>
-    <t>125424, г.Москва, Волоколамское шоссе, дом 90, стр. 23</t>
-  </si>
-  <si>
-    <t>Аттестат аккредитации № РОСС СОБ 3.00231.2014</t>
-  </si>
-  <si>
-    <t>Тел.+7 (495) 491-05-31, 22-68, e-mail: ogmetr@vympelmkb.com</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="161">
   <si>
     <t>Условия проведения калибровки:</t>
   </si>
@@ -577,11 +562,14 @@
   <si>
     <t>+</t>
   </si>
+  <si>
+    <t>TITLE</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="8">
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* &quot;-&quot;??\ &quot;₽&quot;_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="0.000"/>
@@ -998,63 +986,108 @@
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1062,65 +1095,20 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1429,8 +1417,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P132"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A103" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="G123" sqref="G123"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1443,68 +1431,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="97" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="97"/>
-      <c r="C1" s="97"/>
-      <c r="D1" s="97"/>
-      <c r="E1" s="97"/>
-      <c r="F1" s="97"/>
-      <c r="G1" s="97"/>
-      <c r="H1" s="97"/>
+      <c r="A1" s="80"/>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
       <c r="I1" s="1"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="97" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="97"/>
-      <c r="C2" s="97"/>
-      <c r="D2" s="97"/>
-      <c r="E2" s="97"/>
-      <c r="F2" s="97"/>
-      <c r="G2" s="97"/>
-      <c r="H2" s="97"/>
+      <c r="A2" s="80"/>
+      <c r="B2" s="80"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="80"/>
+      <c r="F2" s="80"/>
+      <c r="G2" s="80"/>
+      <c r="H2" s="80"/>
       <c r="I2" s="1"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="97" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="97"/>
-      <c r="C3" s="97"/>
-      <c r="D3" s="97"/>
-      <c r="E3" s="97"/>
-      <c r="F3" s="97"/>
-      <c r="G3" s="97"/>
-      <c r="H3" s="97"/>
+      <c r="A3" s="80" t="s">
+        <v>160</v>
+      </c>
+      <c r="B3" s="80"/>
+      <c r="C3" s="80"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="80"/>
+      <c r="F3" s="80"/>
+      <c r="G3" s="80"/>
+      <c r="H3" s="80"/>
       <c r="I3" s="1"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="100" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="100"/>
-      <c r="C4" s="100"/>
-      <c r="D4" s="100"/>
-      <c r="E4" s="100"/>
-      <c r="F4" s="100"/>
-      <c r="G4" s="100"/>
-      <c r="H4" s="100"/>
+      <c r="A4" s="83"/>
+      <c r="B4" s="83"/>
+      <c r="C4" s="83"/>
+      <c r="D4" s="83"/>
+      <c r="E4" s="83"/>
+      <c r="F4" s="83"/>
+      <c r="G4" s="83"/>
+      <c r="H4" s="83"/>
       <c r="I4" s="3"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="100" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="100"/>
-      <c r="C5" s="100"/>
-      <c r="D5" s="100"/>
-      <c r="E5" s="100"/>
-      <c r="F5" s="100"/>
-      <c r="G5" s="100"/>
-      <c r="H5" s="100"/>
+      <c r="A5" s="83"/>
+      <c r="B5" s="83"/>
+      <c r="C5" s="83"/>
+      <c r="D5" s="83"/>
+      <c r="E5" s="83"/>
+      <c r="F5" s="83"/>
+      <c r="G5" s="83"/>
+      <c r="H5" s="83"/>
       <c r="I5" s="3"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -1519,16 +1499,16 @@
       <c r="I6" s="3"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="103" t="s">
-        <v>127</v>
-      </c>
-      <c r="B7" s="103"/>
-      <c r="C7" s="103"/>
-      <c r="D7" s="103"/>
-      <c r="E7" s="103"/>
-      <c r="F7" s="103"/>
-      <c r="G7" s="103"/>
-      <c r="H7" s="103"/>
+      <c r="A7" s="94" t="s">
+        <v>122</v>
+      </c>
+      <c r="B7" s="94"/>
+      <c r="C7" s="94"/>
+      <c r="D7" s="94"/>
+      <c r="E7" s="94"/>
+      <c r="F7" s="94"/>
+      <c r="G7" s="94"/>
+      <c r="H7" s="94"/>
       <c r="I7" s="4"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -1543,29 +1523,29 @@
       <c r="I8" s="4"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="83" t="s">
-        <v>113</v>
-      </c>
-      <c r="B9" s="83"/>
-      <c r="C9" s="83"/>
+      <c r="A9" s="87" t="s">
+        <v>108</v>
+      </c>
+      <c r="B9" s="87"/>
+      <c r="C9" s="87"/>
       <c r="D9" s="45" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="E9" s="46"/>
       <c r="F9" s="47" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G9" s="47"/>
       <c r="H9" s="48"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="83" t="s">
-        <v>115</v>
-      </c>
-      <c r="B10" s="83"/>
-      <c r="C10" s="83"/>
+      <c r="A10" s="87" t="s">
+        <v>110</v>
+      </c>
+      <c r="B10" s="87"/>
+      <c r="C10" s="87"/>
       <c r="D10" s="49" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E10" s="46"/>
       <c r="F10" s="46"/>
@@ -1573,11 +1553,11 @@
       <c r="H10" s="48"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="83" t="s">
-        <v>116</v>
-      </c>
-      <c r="B11" s="83"/>
-      <c r="C11" s="83"/>
+      <c r="A11" s="87" t="s">
+        <v>111</v>
+      </c>
+      <c r="B11" s="87"/>
+      <c r="C11" s="87"/>
       <c r="D11" s="45"/>
       <c r="E11" s="46"/>
       <c r="F11" s="46"/>
@@ -1585,11 +1565,11 @@
       <c r="H11" s="48"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="83" t="s">
-        <v>117</v>
-      </c>
-      <c r="B12" s="83"/>
-      <c r="C12" s="83"/>
+      <c r="A12" s="87" t="s">
+        <v>112</v>
+      </c>
+      <c r="B12" s="87"/>
+      <c r="C12" s="87"/>
       <c r="D12" s="50"/>
       <c r="E12" s="46"/>
       <c r="F12" s="46"/>
@@ -1597,13 +1577,13 @@
       <c r="H12" s="48"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="83" t="s">
-        <v>118</v>
-      </c>
-      <c r="B13" s="83"/>
-      <c r="C13" s="83"/>
+      <c r="A13" s="87" t="s">
+        <v>113</v>
+      </c>
+      <c r="B13" s="87"/>
+      <c r="C13" s="87"/>
       <c r="D13" s="49" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="E13" s="46"/>
       <c r="F13" s="46"/>
@@ -1611,13 +1591,13 @@
       <c r="H13" s="48"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="83" t="s">
-        <v>119</v>
-      </c>
-      <c r="B14" s="83"/>
-      <c r="C14" s="83"/>
+      <c r="A14" s="87" t="s">
+        <v>114</v>
+      </c>
+      <c r="B14" s="87"/>
+      <c r="C14" s="87"/>
       <c r="D14" s="51" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="E14" s="46"/>
       <c r="F14" s="46"/>
@@ -1625,13 +1605,13 @@
       <c r="H14" s="48"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="83" t="s">
-        <v>121</v>
-      </c>
-      <c r="B15" s="83"/>
-      <c r="C15" s="83"/>
+      <c r="A15" s="87" t="s">
+        <v>116</v>
+      </c>
+      <c r="B15" s="87"/>
+      <c r="C15" s="87"/>
       <c r="D15" s="45" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E15" s="46"/>
       <c r="F15" s="46"/>
@@ -1644,99 +1624,99 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="73" t="s">
+      <c r="A18" s="84" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" s="85"/>
+      <c r="C18" s="86"/>
+      <c r="D18" s="81" t="s">
+        <v>26</v>
+      </c>
+      <c r="E18" s="81"/>
+      <c r="F18" s="81" t="s">
+        <v>27</v>
+      </c>
+      <c r="G18" s="81"/>
+      <c r="H18" s="13"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="88" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" s="89"/>
+      <c r="C19" s="90"/>
+      <c r="D19" s="82" t="s">
+        <v>42</v>
+      </c>
+      <c r="E19" s="82"/>
+      <c r="F19" s="84" t="s">
+        <v>29</v>
+      </c>
+      <c r="G19" s="86"/>
+      <c r="H19" s="10"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="91" t="s">
         <v>30</v>
       </c>
-      <c r="B18" s="101"/>
-      <c r="C18" s="74"/>
-      <c r="D18" s="98" t="s">
+      <c r="B20" s="91"/>
+      <c r="C20" s="91"/>
+      <c r="D20" s="82" t="s">
+        <v>43</v>
+      </c>
+      <c r="E20" s="82"/>
+      <c r="F20" s="84" t="s">
         <v>31</v>
       </c>
-      <c r="E18" s="98"/>
-      <c r="F18" s="98" t="s">
+      <c r="G20" s="86"/>
+      <c r="H20" s="10"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="88" t="s">
         <v>32</v>
       </c>
-      <c r="G18" s="98"/>
-      <c r="H18" s="13"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="75" t="s">
+      <c r="B21" s="89"/>
+      <c r="C21" s="90"/>
+      <c r="D21" s="101" t="s">
+        <v>44</v>
+      </c>
+      <c r="E21" s="102"/>
+      <c r="F21" s="84" t="s">
         <v>33</v>
       </c>
-      <c r="B19" s="76"/>
-      <c r="C19" s="77"/>
-      <c r="D19" s="99" t="s">
-        <v>47</v>
-      </c>
-      <c r="E19" s="99"/>
-      <c r="F19" s="73" t="s">
+      <c r="G21" s="86"/>
+      <c r="H21" s="10"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="88" t="s">
         <v>34</v>
       </c>
-      <c r="G19" s="74"/>
-      <c r="H19" s="10"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="102" t="s">
+      <c r="B22" s="89"/>
+      <c r="C22" s="90"/>
+      <c r="D22" s="92"/>
+      <c r="E22" s="93"/>
+      <c r="F22" s="84" t="s">
         <v>35</v>
       </c>
-      <c r="B20" s="102"/>
-      <c r="C20" s="102"/>
-      <c r="D20" s="99" t="s">
-        <v>48</v>
-      </c>
-      <c r="E20" s="99"/>
-      <c r="F20" s="73" t="s">
+      <c r="G22" s="86"/>
+      <c r="H22" s="10"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="88" t="s">
+        <v>2</v>
+      </c>
+      <c r="B23" s="89"/>
+      <c r="C23" s="90"/>
+      <c r="D23" s="92"/>
+      <c r="E23" s="93"/>
+      <c r="F23" s="84" t="s">
         <v>36</v>
       </c>
-      <c r="G20" s="74"/>
-      <c r="H20" s="10"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="75" t="s">
-        <v>37</v>
-      </c>
-      <c r="B21" s="76"/>
-      <c r="C21" s="77"/>
-      <c r="D21" s="86" t="s">
-        <v>49</v>
-      </c>
-      <c r="E21" s="87"/>
-      <c r="F21" s="73" t="s">
-        <v>38</v>
-      </c>
-      <c r="G21" s="74"/>
-      <c r="H21" s="10"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="75" t="s">
-        <v>39</v>
-      </c>
-      <c r="B22" s="76"/>
-      <c r="C22" s="77"/>
-      <c r="D22" s="93"/>
-      <c r="E22" s="94"/>
-      <c r="F22" s="73" t="s">
-        <v>40</v>
-      </c>
-      <c r="G22" s="74"/>
-      <c r="H22" s="10"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="75" t="s">
-        <v>7</v>
-      </c>
-      <c r="B23" s="76"/>
-      <c r="C23" s="77"/>
-      <c r="D23" s="93"/>
-      <c r="E23" s="94"/>
-      <c r="F23" s="73" t="s">
-        <v>41</v>
-      </c>
-      <c r="G23" s="74"/>
+      <c r="G23" s="86"/>
       <c r="H23" s="10"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
@@ -1751,7 +1731,7 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B25" s="43"/>
       <c r="C25" s="43"/>
@@ -1773,17 +1753,17 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="11" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B31" s="11"/>
       <c r="C31" s="11"/>
@@ -1807,7 +1787,7 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B33" s="12"/>
       <c r="C33" s="12"/>
@@ -1819,52 +1799,52 @@
       <c r="I33" s="12"/>
     </row>
     <row r="34" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="68" t="s">
-        <v>130</v>
-      </c>
-      <c r="B34" s="68" t="s">
-        <v>136</v>
-      </c>
-      <c r="C34" s="68"/>
-      <c r="D34" s="68" t="s">
-        <v>6</v>
-      </c>
-      <c r="E34" s="68"/>
-      <c r="F34" s="68" t="s">
-        <v>162</v>
-      </c>
-      <c r="G34" s="68"/>
+      <c r="A34" s="73" t="s">
+        <v>125</v>
+      </c>
+      <c r="B34" s="73" t="s">
+        <v>131</v>
+      </c>
+      <c r="C34" s="73"/>
+      <c r="D34" s="73" t="s">
+        <v>1</v>
+      </c>
+      <c r="E34" s="73"/>
+      <c r="F34" s="73" t="s">
+        <v>157</v>
+      </c>
+      <c r="G34" s="73"/>
       <c r="I34" s="13"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="68"/>
-      <c r="B35" s="68"/>
-      <c r="C35" s="68"/>
-      <c r="D35" s="68"/>
-      <c r="E35" s="68"/>
+      <c r="A35" s="73"/>
+      <c r="B35" s="73"/>
+      <c r="C35" s="73"/>
+      <c r="D35" s="73"/>
+      <c r="E35" s="73"/>
       <c r="F35" s="61" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="G35" s="61" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="I35" s="13"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="68" t="s">
-        <v>131</v>
+      <c r="A36" s="73" t="s">
+        <v>126</v>
       </c>
       <c r="B36" s="62">
         <v>100</v>
       </c>
-      <c r="C36" s="84" t="s">
-        <v>128</v>
+      <c r="C36" s="79" t="s">
+        <v>123</v>
       </c>
       <c r="D36" s="64" t="s">
-        <v>52</v>
-      </c>
-      <c r="E36" s="84" t="s">
-        <v>128</v>
+        <v>47</v>
+      </c>
+      <c r="E36" s="79" t="s">
+        <v>123</v>
       </c>
       <c r="F36" s="15">
         <f>100-0.0155</f>
@@ -1877,15 +1857,15 @@
       <c r="I36" s="10"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="68"/>
+      <c r="A37" s="73"/>
       <c r="B37" s="62">
         <v>-100</v>
       </c>
-      <c r="C37" s="84"/>
+      <c r="C37" s="79"/>
       <c r="D37" s="64" t="s">
-        <v>53</v>
-      </c>
-      <c r="E37" s="84"/>
+        <v>48</v>
+      </c>
+      <c r="E37" s="79"/>
       <c r="F37" s="15">
         <f>-100-0.0155</f>
         <v>-100.0155</v>
@@ -1897,20 +1877,20 @@
       <c r="I37" s="10"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="68" t="s">
-        <v>132</v>
+      <c r="A38" s="73" t="s">
+        <v>127</v>
       </c>
       <c r="B38" s="62">
         <v>1</v>
       </c>
-      <c r="C38" s="84" t="s">
-        <v>129</v>
+      <c r="C38" s="79" t="s">
+        <v>124</v>
       </c>
       <c r="D38" s="64" t="s">
-        <v>54</v>
-      </c>
-      <c r="E38" s="85" t="s">
-        <v>129</v>
+        <v>49</v>
+      </c>
+      <c r="E38" s="71" t="s">
+        <v>124</v>
       </c>
       <c r="F38" s="58">
         <f>1-0.00009</f>
@@ -1923,15 +1903,15 @@
       <c r="I38" s="10"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="68"/>
+      <c r="A39" s="73"/>
       <c r="B39" s="62">
         <v>-1</v>
       </c>
-      <c r="C39" s="84"/>
+      <c r="C39" s="79"/>
       <c r="D39" s="64" t="s">
-        <v>55</v>
-      </c>
-      <c r="E39" s="85"/>
+        <v>50</v>
+      </c>
+      <c r="E39" s="71"/>
       <c r="F39" s="58">
         <f>-1-0.00009</f>
         <v>-1.0000899999999999</v>
@@ -1943,17 +1923,17 @@
       <c r="I39" s="10"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="68" t="s">
-        <v>133</v>
+      <c r="A40" s="73" t="s">
+        <v>128</v>
       </c>
       <c r="B40" s="62">
         <v>4</v>
       </c>
-      <c r="C40" s="84"/>
+      <c r="C40" s="79"/>
       <c r="D40" s="64" t="s">
-        <v>56</v>
-      </c>
-      <c r="E40" s="85"/>
+        <v>51</v>
+      </c>
+      <c r="E40" s="71"/>
       <c r="F40" s="58">
         <f>4-0.00035</f>
         <v>3.9996499999999999</v>
@@ -1965,15 +1945,15 @@
       <c r="I40" s="16"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" s="68"/>
+      <c r="A41" s="73"/>
       <c r="B41" s="62">
         <v>10</v>
       </c>
-      <c r="C41" s="84"/>
+      <c r="C41" s="79"/>
       <c r="D41" s="64" t="s">
-        <v>57</v>
-      </c>
-      <c r="E41" s="85"/>
+        <v>52</v>
+      </c>
+      <c r="E41" s="71"/>
       <c r="F41" s="15">
         <f>10-0.0008</f>
         <v>9.9992000000000001</v>
@@ -1985,15 +1965,15 @@
       <c r="I41" s="16"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="68"/>
+      <c r="A42" s="73"/>
       <c r="B42" s="62">
         <v>-10</v>
       </c>
-      <c r="C42" s="84"/>
+      <c r="C42" s="79"/>
       <c r="D42" s="64" t="s">
-        <v>58</v>
-      </c>
-      <c r="E42" s="85"/>
+        <v>53</v>
+      </c>
+      <c r="E42" s="71"/>
       <c r="F42" s="15">
         <f>-10-0.0008</f>
         <v>-10.0008</v>
@@ -2005,17 +1985,17 @@
       <c r="I42" s="16"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43" s="68" t="s">
-        <v>134</v>
+      <c r="A43" s="73" t="s">
+        <v>129</v>
       </c>
       <c r="B43" s="62">
         <v>100</v>
       </c>
-      <c r="C43" s="84"/>
+      <c r="C43" s="79"/>
       <c r="D43" s="64" t="s">
-        <v>59</v>
-      </c>
-      <c r="E43" s="85"/>
+        <v>54</v>
+      </c>
+      <c r="E43" s="71"/>
       <c r="F43" s="15">
         <f>100-0.0091</f>
         <v>99.990899999999996</v>
@@ -2027,15 +2007,15 @@
       <c r="I43" s="16"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="68"/>
+      <c r="A44" s="73"/>
       <c r="B44" s="62">
         <v>-100</v>
       </c>
-      <c r="C44" s="84"/>
+      <c r="C44" s="79"/>
       <c r="D44" s="64" t="s">
-        <v>60</v>
-      </c>
-      <c r="E44" s="85"/>
+        <v>55</v>
+      </c>
+      <c r="E44" s="71"/>
       <c r="F44" s="15">
         <f>-100-0.0091</f>
         <v>-100.0091</v>
@@ -2047,17 +2027,17 @@
       <c r="I44" s="16"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A45" s="78" t="s">
-        <v>135</v>
+      <c r="A45" s="103" t="s">
+        <v>130</v>
       </c>
       <c r="B45" s="62">
         <v>1000</v>
       </c>
-      <c r="C45" s="84"/>
+      <c r="C45" s="79"/>
       <c r="D45" s="64" t="s">
-        <v>61</v>
-      </c>
-      <c r="E45" s="85"/>
+        <v>56</v>
+      </c>
+      <c r="E45" s="71"/>
       <c r="F45" s="17">
         <f>1000-0.095</f>
         <v>999.90499999999997</v>
@@ -2069,15 +2049,15 @@
       <c r="I45" s="16"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A46" s="78"/>
+      <c r="A46" s="103"/>
       <c r="B46" s="62">
         <v>-500</v>
       </c>
-      <c r="C46" s="84"/>
+      <c r="C46" s="79"/>
       <c r="D46" s="64" t="s">
-        <v>62</v>
-      </c>
-      <c r="E46" s="85"/>
+        <v>57</v>
+      </c>
+      <c r="E46" s="71"/>
       <c r="F46" s="15">
         <f>-500-0.0525</f>
         <v>-500.05250000000001</v>
@@ -2090,7 +2070,7 @@
     </row>
     <row r="48" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B48" s="12"/>
       <c r="C48" s="12"/>
@@ -2101,73 +2081,73 @@
       <c r="H48" s="12"/>
     </row>
     <row r="49" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="68" t="s">
-        <v>130</v>
-      </c>
-      <c r="B49" s="68" t="s">
-        <v>138</v>
-      </c>
-      <c r="C49" s="68"/>
-      <c r="D49" s="68" t="s">
-        <v>7</v>
-      </c>
-      <c r="E49" s="68" t="s">
-        <v>6</v>
-      </c>
-      <c r="F49" s="68"/>
-      <c r="G49" s="68" t="s">
-        <v>162</v>
-      </c>
-      <c r="H49" s="68"/>
-      <c r="I49" s="80"/>
-      <c r="J49" s="80"/>
-      <c r="K49" s="80"/>
-      <c r="L49" s="80"/>
-      <c r="M49" s="80"/>
-      <c r="N49" s="80"/>
-      <c r="O49" s="80"/>
-      <c r="P49" s="80"/>
+      <c r="A49" s="73" t="s">
+        <v>125</v>
+      </c>
+      <c r="B49" s="73" t="s">
+        <v>133</v>
+      </c>
+      <c r="C49" s="73"/>
+      <c r="D49" s="73" t="s">
+        <v>2</v>
+      </c>
+      <c r="E49" s="73" t="s">
+        <v>1</v>
+      </c>
+      <c r="F49" s="73"/>
+      <c r="G49" s="73" t="s">
+        <v>157</v>
+      </c>
+      <c r="H49" s="73"/>
+      <c r="I49" s="67"/>
+      <c r="J49" s="67"/>
+      <c r="K49" s="67"/>
+      <c r="L49" s="67"/>
+      <c r="M49" s="67"/>
+      <c r="N49" s="67"/>
+      <c r="O49" s="67"/>
+      <c r="P49" s="67"/>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A50" s="68"/>
-      <c r="B50" s="68"/>
-      <c r="C50" s="68"/>
-      <c r="D50" s="68"/>
-      <c r="E50" s="68"/>
-      <c r="F50" s="68"/>
+      <c r="A50" s="73"/>
+      <c r="B50" s="73"/>
+      <c r="C50" s="73"/>
+      <c r="D50" s="73"/>
+      <c r="E50" s="73"/>
+      <c r="F50" s="73"/>
       <c r="G50" s="61" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="H50" s="61" t="s">
-        <v>164</v>
-      </c>
-      <c r="I50" s="80"/>
-      <c r="J50" s="80"/>
-      <c r="K50" s="80"/>
-      <c r="L50" s="80"/>
-      <c r="M50" s="80"/>
-      <c r="N50" s="80"/>
-      <c r="O50" s="80"/>
-      <c r="P50" s="80"/>
+        <v>159</v>
+      </c>
+      <c r="I50" s="67"/>
+      <c r="J50" s="67"/>
+      <c r="K50" s="67"/>
+      <c r="L50" s="67"/>
+      <c r="M50" s="67"/>
+      <c r="N50" s="67"/>
+      <c r="O50" s="67"/>
+      <c r="P50" s="67"/>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A51" s="82" t="s">
-        <v>131</v>
-      </c>
-      <c r="B51" s="81">
+      <c r="A51" s="107" t="s">
+        <v>126</v>
+      </c>
+      <c r="B51" s="105">
         <v>100</v>
       </c>
-      <c r="C51" s="67" t="s">
-        <v>128</v>
+      <c r="C51" s="106" t="s">
+        <v>123</v>
       </c>
       <c r="D51" s="60" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E51" s="65" t="s">
-        <v>63</v>
-      </c>
-      <c r="F51" s="67" t="s">
-        <v>128</v>
+        <v>58</v>
+      </c>
+      <c r="F51" s="106" t="s">
+        <v>123</v>
       </c>
       <c r="G51" s="58">
         <f>100-0.12</f>
@@ -2177,26 +2157,26 @@
         <f>100+0.12</f>
         <v>100.12</v>
       </c>
-      <c r="I51" s="104"/>
-      <c r="J51" s="105"/>
-      <c r="K51" s="95"/>
+      <c r="I51" s="74"/>
+      <c r="J51" s="75"/>
+      <c r="K51" s="76"/>
       <c r="L51" s="55"/>
       <c r="M51" s="52"/>
-      <c r="N51" s="95"/>
+      <c r="N51" s="76"/>
       <c r="O51" s="52"/>
       <c r="P51" s="56"/>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A52" s="82"/>
-      <c r="B52" s="81"/>
-      <c r="C52" s="67"/>
+      <c r="A52" s="107"/>
+      <c r="B52" s="105"/>
+      <c r="C52" s="106"/>
       <c r="D52" s="60" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E52" s="65" t="s">
-        <v>64</v>
-      </c>
-      <c r="F52" s="67"/>
+        <v>59</v>
+      </c>
+      <c r="F52" s="106"/>
       <c r="G52" s="15">
         <f>100-0.2</f>
         <v>99.8</v>
@@ -2205,26 +2185,26 @@
         <f>100+0.2</f>
         <v>100.2</v>
       </c>
-      <c r="I52" s="104"/>
-      <c r="J52" s="105"/>
-      <c r="K52" s="95"/>
+      <c r="I52" s="74"/>
+      <c r="J52" s="75"/>
+      <c r="K52" s="76"/>
       <c r="L52" s="55"/>
       <c r="M52" s="52"/>
-      <c r="N52" s="95"/>
+      <c r="N52" s="76"/>
       <c r="O52" s="52"/>
       <c r="P52" s="55"/>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A53" s="82"/>
-      <c r="B53" s="81"/>
-      <c r="C53" s="67"/>
+      <c r="A53" s="107"/>
+      <c r="B53" s="105"/>
+      <c r="C53" s="106"/>
       <c r="D53" s="60" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="E53" s="65" t="s">
-        <v>65</v>
-      </c>
-      <c r="F53" s="67"/>
+        <v>60</v>
+      </c>
+      <c r="F53" s="106"/>
       <c r="G53" s="15">
         <f>100-4.5</f>
         <v>95.5</v>
@@ -2233,33 +2213,33 @@
         <f>100+4.5</f>
         <v>104.5</v>
       </c>
-      <c r="I53" s="104"/>
-      <c r="J53" s="105"/>
-      <c r="K53" s="95"/>
+      <c r="I53" s="74"/>
+      <c r="J53" s="75"/>
+      <c r="K53" s="76"/>
       <c r="L53" s="55"/>
       <c r="M53" s="52"/>
-      <c r="N53" s="95"/>
+      <c r="N53" s="76"/>
       <c r="O53" s="52"/>
       <c r="P53" s="55"/>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A54" s="69" t="s">
-        <v>132</v>
-      </c>
-      <c r="B54" s="81">
+      <c r="A54" s="70" t="s">
+        <v>127</v>
+      </c>
+      <c r="B54" s="105">
         <v>1</v>
       </c>
-      <c r="C54" s="67" t="s">
-        <v>129</v>
+      <c r="C54" s="106" t="s">
+        <v>124</v>
       </c>
       <c r="D54" s="60" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E54" s="65" t="s">
-        <v>66</v>
-      </c>
-      <c r="F54" s="67" t="s">
-        <v>129</v>
+        <v>61</v>
+      </c>
+      <c r="F54" s="106" t="s">
+        <v>124</v>
       </c>
       <c r="G54" s="15">
         <f>1-0.0012</f>
@@ -2269,26 +2249,26 @@
         <f>1+0.0012</f>
         <v>1.0012000000000001</v>
       </c>
-      <c r="I54" s="71"/>
-      <c r="J54" s="105"/>
-      <c r="K54" s="95"/>
+      <c r="I54" s="77"/>
+      <c r="J54" s="75"/>
+      <c r="K54" s="76"/>
       <c r="L54" s="55"/>
       <c r="M54" s="52"/>
-      <c r="N54" s="95"/>
+      <c r="N54" s="76"/>
       <c r="O54" s="52"/>
       <c r="P54" s="55"/>
     </row>
     <row r="55" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="69"/>
-      <c r="B55" s="81"/>
-      <c r="C55" s="67"/>
+      <c r="A55" s="70"/>
+      <c r="B55" s="105"/>
+      <c r="C55" s="106"/>
       <c r="D55" s="60" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E55" s="65" t="s">
-        <v>67</v>
-      </c>
-      <c r="F55" s="67"/>
+        <v>62</v>
+      </c>
+      <c r="F55" s="106"/>
       <c r="G55" s="17">
         <f>1-0.002</f>
         <v>0.998</v>
@@ -2297,26 +2277,26 @@
         <f>1+0.002</f>
         <v>1.002</v>
       </c>
-      <c r="I55" s="71"/>
-      <c r="J55" s="105"/>
-      <c r="K55" s="95"/>
+      <c r="I55" s="77"/>
+      <c r="J55" s="75"/>
+      <c r="K55" s="76"/>
       <c r="L55" s="55"/>
       <c r="M55" s="52"/>
-      <c r="N55" s="95"/>
+      <c r="N55" s="76"/>
       <c r="O55" s="52"/>
       <c r="P55" s="55"/>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A56" s="69"/>
-      <c r="B56" s="81"/>
-      <c r="C56" s="67"/>
+      <c r="A56" s="70"/>
+      <c r="B56" s="105"/>
+      <c r="C56" s="106"/>
       <c r="D56" s="60" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="E56" s="65" t="s">
-        <v>68</v>
-      </c>
-      <c r="F56" s="67"/>
+        <v>63</v>
+      </c>
+      <c r="F56" s="106"/>
       <c r="G56" s="17">
         <f>1-0.045</f>
         <v>0.95499999999999996</v>
@@ -2325,33 +2305,33 @@
         <f>1+0.045</f>
         <v>1.0449999999999999</v>
       </c>
-      <c r="I56" s="71"/>
-      <c r="J56" s="105"/>
-      <c r="K56" s="95"/>
+      <c r="I56" s="77"/>
+      <c r="J56" s="75"/>
+      <c r="K56" s="76"/>
       <c r="L56" s="55"/>
       <c r="M56" s="52"/>
-      <c r="N56" s="95"/>
+      <c r="N56" s="76"/>
       <c r="O56" s="52"/>
       <c r="P56" s="55"/>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A57" s="69" t="s">
-        <v>133</v>
+      <c r="A57" s="70" t="s">
+        <v>128</v>
       </c>
       <c r="B57" s="60">
         <v>30</v>
       </c>
       <c r="C57" s="60" t="s">
-        <v>128</v>
-      </c>
-      <c r="D57" s="70" t="s">
-        <v>21</v>
+        <v>123</v>
+      </c>
+      <c r="D57" s="99" t="s">
+        <v>16</v>
       </c>
       <c r="E57" s="65" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="F57" s="60" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="G57" s="17">
         <f>30-0.003</f>
@@ -2361,29 +2341,29 @@
         <f>30+0.003</f>
         <v>30.003</v>
       </c>
-      <c r="I57" s="71"/>
+      <c r="I57" s="77"/>
       <c r="J57" s="55"/>
       <c r="K57" s="55"/>
-      <c r="L57" s="72"/>
+      <c r="L57" s="68"/>
       <c r="M57" s="52"/>
       <c r="N57" s="55"/>
       <c r="O57" s="52"/>
       <c r="P57" s="55"/>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A58" s="69"/>
+      <c r="A58" s="70"/>
       <c r="B58" s="60">
         <v>1</v>
       </c>
-      <c r="C58" s="70" t="s">
-        <v>129</v>
-      </c>
-      <c r="D58" s="70"/>
+      <c r="C58" s="99" t="s">
+        <v>124</v>
+      </c>
+      <c r="D58" s="99"/>
       <c r="E58" s="65" t="s">
-        <v>70</v>
-      </c>
-      <c r="F58" s="70" t="s">
-        <v>129</v>
+        <v>65</v>
+      </c>
+      <c r="F58" s="99" t="s">
+        <v>124</v>
       </c>
       <c r="G58" s="15">
         <f>1-0.0039</f>
@@ -2393,28 +2373,28 @@
         <f>1+0.0039</f>
         <v>1.0039</v>
       </c>
-      <c r="I58" s="71"/>
+      <c r="I58" s="77"/>
       <c r="J58" s="55"/>
-      <c r="K58" s="72"/>
-      <c r="L58" s="72"/>
+      <c r="K58" s="68"/>
+      <c r="L58" s="68"/>
       <c r="M58" s="52"/>
-      <c r="N58" s="72"/>
+      <c r="N58" s="68"/>
       <c r="O58" s="52"/>
       <c r="P58" s="55"/>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A59" s="69"/>
-      <c r="B59" s="70">
+      <c r="A59" s="70"/>
+      <c r="B59" s="99">
         <v>10</v>
       </c>
-      <c r="C59" s="70"/>
+      <c r="C59" s="99"/>
       <c r="D59" s="60" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E59" s="65" t="s">
-        <v>71</v>
-      </c>
-      <c r="F59" s="70"/>
+        <v>66</v>
+      </c>
+      <c r="F59" s="99"/>
       <c r="G59" s="17">
         <f>10-0.012</f>
         <v>9.9879999999999995</v>
@@ -2423,26 +2403,26 @@
         <f>10+0.012</f>
         <v>10.012</v>
       </c>
-      <c r="I59" s="71"/>
-      <c r="J59" s="72"/>
-      <c r="K59" s="72"/>
+      <c r="I59" s="77"/>
+      <c r="J59" s="68"/>
+      <c r="K59" s="68"/>
       <c r="L59" s="55"/>
       <c r="M59" s="52"/>
-      <c r="N59" s="72"/>
+      <c r="N59" s="68"/>
       <c r="O59" s="52"/>
       <c r="P59" s="55"/>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A60" s="69"/>
-      <c r="B60" s="70"/>
-      <c r="C60" s="70"/>
+      <c r="A60" s="70"/>
+      <c r="B60" s="99"/>
+      <c r="C60" s="99"/>
       <c r="D60" s="60" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E60" s="65" t="s">
-        <v>72</v>
-      </c>
-      <c r="F60" s="70"/>
+        <v>67</v>
+      </c>
+      <c r="F60" s="99"/>
       <c r="G60" s="17">
         <f>10-0.012</f>
         <v>9.9879999999999995</v>
@@ -2451,26 +2431,26 @@
         <f>10+0.012</f>
         <v>10.012</v>
       </c>
-      <c r="I60" s="71"/>
-      <c r="J60" s="72"/>
-      <c r="K60" s="72"/>
+      <c r="I60" s="77"/>
+      <c r="J60" s="68"/>
+      <c r="K60" s="68"/>
       <c r="L60" s="55"/>
       <c r="M60" s="52"/>
-      <c r="N60" s="72"/>
+      <c r="N60" s="68"/>
       <c r="O60" s="52"/>
       <c r="P60" s="55"/>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A61" s="69"/>
-      <c r="B61" s="70"/>
-      <c r="C61" s="70"/>
+      <c r="A61" s="70"/>
+      <c r="B61" s="99"/>
+      <c r="C61" s="99"/>
       <c r="D61" s="60" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E61" s="65" t="s">
-        <v>73</v>
-      </c>
-      <c r="F61" s="70"/>
+        <v>68</v>
+      </c>
+      <c r="F61" s="99"/>
       <c r="G61" s="17">
         <f>10-0.012</f>
         <v>9.9879999999999995</v>
@@ -2479,26 +2459,26 @@
         <f>10+0.012</f>
         <v>10.012</v>
       </c>
-      <c r="I61" s="71"/>
-      <c r="J61" s="72"/>
-      <c r="K61" s="72"/>
+      <c r="I61" s="77"/>
+      <c r="J61" s="68"/>
+      <c r="K61" s="68"/>
       <c r="L61" s="55"/>
       <c r="M61" s="52"/>
-      <c r="N61" s="72"/>
+      <c r="N61" s="68"/>
       <c r="O61" s="52"/>
       <c r="P61" s="55"/>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A62" s="69"/>
-      <c r="B62" s="70"/>
-      <c r="C62" s="70"/>
+      <c r="A62" s="70"/>
+      <c r="B62" s="99"/>
+      <c r="C62" s="99"/>
       <c r="D62" s="60" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E62" s="65" t="s">
-        <v>74</v>
-      </c>
-      <c r="F62" s="70"/>
+        <v>69</v>
+      </c>
+      <c r="F62" s="99"/>
       <c r="G62" s="18">
         <f>10-0.02</f>
         <v>9.98</v>
@@ -2507,26 +2487,26 @@
         <f>10+0.02</f>
         <v>10.02</v>
       </c>
-      <c r="I62" s="71"/>
-      <c r="J62" s="72"/>
-      <c r="K62" s="72"/>
+      <c r="I62" s="77"/>
+      <c r="J62" s="68"/>
+      <c r="K62" s="68"/>
       <c r="L62" s="55"/>
       <c r="M62" s="52"/>
-      <c r="N62" s="72"/>
+      <c r="N62" s="68"/>
       <c r="O62" s="52"/>
       <c r="P62" s="55"/>
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A63" s="69"/>
-      <c r="B63" s="70"/>
-      <c r="C63" s="70"/>
+      <c r="A63" s="70"/>
+      <c r="B63" s="99"/>
+      <c r="C63" s="99"/>
       <c r="D63" s="60" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E63" s="65" t="s">
-        <v>75</v>
-      </c>
-      <c r="F63" s="70"/>
+        <v>70</v>
+      </c>
+      <c r="F63" s="99"/>
       <c r="G63" s="17">
         <f>10-0.071</f>
         <v>9.9290000000000003</v>
@@ -2535,26 +2515,26 @@
         <f>10+0.071</f>
         <v>10.071</v>
       </c>
-      <c r="I63" s="71"/>
-      <c r="J63" s="72"/>
-      <c r="K63" s="72"/>
+      <c r="I63" s="77"/>
+      <c r="J63" s="68"/>
+      <c r="K63" s="68"/>
       <c r="L63" s="55"/>
       <c r="M63" s="52"/>
-      <c r="N63" s="72"/>
+      <c r="N63" s="68"/>
       <c r="O63" s="52"/>
       <c r="P63" s="55"/>
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A64" s="69"/>
-      <c r="B64" s="70"/>
-      <c r="C64" s="70"/>
+      <c r="A64" s="70"/>
+      <c r="B64" s="99"/>
+      <c r="C64" s="99"/>
       <c r="D64" s="60" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="E64" s="65" t="s">
-        <v>76</v>
-      </c>
-      <c r="F64" s="70"/>
+        <v>71</v>
+      </c>
+      <c r="F64" s="99"/>
       <c r="G64" s="18">
         <f>10-0.45</f>
         <v>9.5500000000000007</v>
@@ -2563,33 +2543,33 @@
         <f>10+0.45</f>
         <v>10.45</v>
       </c>
-      <c r="I64" s="71"/>
-      <c r="J64" s="72"/>
-      <c r="K64" s="72"/>
+      <c r="I64" s="77"/>
+      <c r="J64" s="68"/>
+      <c r="K64" s="68"/>
       <c r="L64" s="55"/>
       <c r="M64" s="52"/>
-      <c r="N64" s="72"/>
+      <c r="N64" s="68"/>
       <c r="O64" s="52"/>
       <c r="P64" s="55"/>
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A65" s="69" t="s">
-        <v>134</v>
-      </c>
-      <c r="B65" s="70">
+      <c r="A65" s="70" t="s">
+        <v>129</v>
+      </c>
+      <c r="B65" s="99">
         <v>100</v>
       </c>
-      <c r="C65" s="70" t="s">
-        <v>129</v>
+      <c r="C65" s="99" t="s">
+        <v>124</v>
       </c>
       <c r="D65" s="60" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E65" s="65" t="s">
-        <v>77</v>
-      </c>
-      <c r="F65" s="70" t="s">
-        <v>129</v>
+        <v>72</v>
+      </c>
+      <c r="F65" s="99" t="s">
+        <v>124</v>
       </c>
       <c r="G65" s="18">
         <f>100-0.12</f>
@@ -2599,26 +2579,26 @@
         <f>100+0.12</f>
         <v>100.12</v>
       </c>
-      <c r="I65" s="71"/>
-      <c r="J65" s="72"/>
-      <c r="K65" s="72"/>
+      <c r="I65" s="77"/>
+      <c r="J65" s="68"/>
+      <c r="K65" s="68"/>
       <c r="L65" s="55"/>
       <c r="M65" s="52"/>
-      <c r="N65" s="72"/>
+      <c r="N65" s="68"/>
       <c r="O65" s="52"/>
       <c r="P65" s="55"/>
     </row>
     <row r="66" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A66" s="69"/>
-      <c r="B66" s="70"/>
-      <c r="C66" s="70"/>
+      <c r="A66" s="70"/>
+      <c r="B66" s="99"/>
+      <c r="C66" s="99"/>
       <c r="D66" s="60" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E66" s="65" t="s">
-        <v>78</v>
-      </c>
-      <c r="F66" s="70"/>
+        <v>73</v>
+      </c>
+      <c r="F66" s="99"/>
       <c r="G66" s="62">
         <f>100-0.2</f>
         <v>99.8</v>
@@ -2627,28 +2607,28 @@
         <f>100+0.2</f>
         <v>100.2</v>
       </c>
-      <c r="I66" s="71"/>
-      <c r="J66" s="72"/>
-      <c r="K66" s="72"/>
+      <c r="I66" s="77"/>
+      <c r="J66" s="68"/>
+      <c r="K66" s="68"/>
       <c r="L66" s="55"/>
       <c r="M66" s="52"/>
-      <c r="N66" s="72"/>
+      <c r="N66" s="68"/>
       <c r="O66" s="52"/>
       <c r="P66" s="55"/>
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A67" s="69"/>
+      <c r="A67" s="70"/>
       <c r="B67" s="60">
         <v>70</v>
       </c>
-      <c r="C67" s="70"/>
+      <c r="C67" s="99"/>
       <c r="D67" s="60" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="E67" s="65" t="s">
-        <v>79</v>
-      </c>
-      <c r="F67" s="70"/>
+        <v>74</v>
+      </c>
+      <c r="F67" s="99"/>
       <c r="G67" s="62">
         <f>70-3.3</f>
         <v>66.7</v>
@@ -2657,33 +2637,33 @@
         <f>70+3.3</f>
         <v>73.3</v>
       </c>
-      <c r="I67" s="71"/>
+      <c r="I67" s="77"/>
       <c r="J67" s="55"/>
-      <c r="K67" s="72"/>
+      <c r="K67" s="68"/>
       <c r="L67" s="55"/>
       <c r="M67" s="52"/>
-      <c r="N67" s="72"/>
+      <c r="N67" s="68"/>
       <c r="O67" s="52"/>
       <c r="P67" s="56"/>
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A68" s="69" t="s">
-        <v>152</v>
+      <c r="A68" s="70" t="s">
+        <v>147</v>
       </c>
       <c r="B68" s="60">
         <v>750</v>
       </c>
-      <c r="C68" s="70" t="s">
-        <v>129</v>
+      <c r="C68" s="99" t="s">
+        <v>124</v>
       </c>
       <c r="D68" s="60" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E68" s="65" t="s">
-        <v>80</v>
-      </c>
-      <c r="F68" s="70" t="s">
-        <v>129</v>
+        <v>75</v>
+      </c>
+      <c r="F68" s="99" t="s">
+        <v>124</v>
       </c>
       <c r="G68" s="62">
         <f>750-0.9</f>
@@ -2693,28 +2673,28 @@
         <f>750+0.9</f>
         <v>750.9</v>
       </c>
-      <c r="I68" s="71"/>
+      <c r="I68" s="77"/>
       <c r="J68" s="55"/>
-      <c r="K68" s="72"/>
+      <c r="K68" s="68"/>
       <c r="L68" s="55"/>
       <c r="M68" s="52"/>
-      <c r="N68" s="72"/>
+      <c r="N68" s="68"/>
       <c r="O68" s="52"/>
       <c r="P68" s="55"/>
     </row>
     <row r="69" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A69" s="69"/>
+      <c r="A69" s="70"/>
       <c r="B69" s="60">
         <v>210</v>
       </c>
-      <c r="C69" s="70"/>
+      <c r="C69" s="99"/>
       <c r="D69" s="60" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E69" s="65" t="s">
-        <v>81</v>
-      </c>
-      <c r="F69" s="70"/>
+        <v>76</v>
+      </c>
+      <c r="F69" s="99"/>
       <c r="G69" s="18">
         <f>210-0.69</f>
         <v>209.31</v>
@@ -2723,28 +2703,28 @@
         <f>210+0.69</f>
         <v>210.69</v>
       </c>
-      <c r="I69" s="71"/>
+      <c r="I69" s="77"/>
       <c r="J69" s="55"/>
-      <c r="K69" s="72"/>
+      <c r="K69" s="68"/>
       <c r="L69" s="55"/>
       <c r="M69" s="52"/>
-      <c r="N69" s="72"/>
+      <c r="N69" s="68"/>
       <c r="O69" s="52"/>
       <c r="P69" s="57"/>
     </row>
     <row r="70" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A70" s="69"/>
+      <c r="A70" s="70"/>
       <c r="B70" s="60">
         <v>70</v>
       </c>
-      <c r="C70" s="70"/>
+      <c r="C70" s="99"/>
       <c r="D70" s="60" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="E70" s="65" t="s">
-        <v>82</v>
-      </c>
-      <c r="F70" s="70"/>
+        <v>77</v>
+      </c>
+      <c r="F70" s="99"/>
       <c r="G70" s="62">
         <f>70-6.6</f>
         <v>63.4</v>
@@ -2753,12 +2733,12 @@
         <f>70+6.6</f>
         <v>76.599999999999994</v>
       </c>
-      <c r="I70" s="71"/>
+      <c r="I70" s="77"/>
       <c r="J70" s="55"/>
-      <c r="K70" s="72"/>
+      <c r="K70" s="68"/>
       <c r="L70" s="55"/>
       <c r="M70" s="52"/>
-      <c r="N70" s="72"/>
+      <c r="N70" s="68"/>
       <c r="O70" s="52"/>
       <c r="P70" s="57"/>
     </row>
@@ -2772,7 +2752,7 @@
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A72" s="25" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B72" s="20"/>
       <c r="C72" s="21"/>
@@ -2781,50 +2761,50 @@
       <c r="F72" s="24"/>
     </row>
     <row r="73" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="68" t="s">
-        <v>130</v>
-      </c>
-      <c r="B73" s="68" t="s">
-        <v>138</v>
-      </c>
-      <c r="C73" s="68"/>
-      <c r="D73" s="68" t="s">
-        <v>148</v>
-      </c>
-      <c r="E73" s="68"/>
-      <c r="F73" s="68" t="s">
-        <v>162</v>
-      </c>
-      <c r="G73" s="68"/>
+      <c r="A73" s="73" t="s">
+        <v>125</v>
+      </c>
+      <c r="B73" s="73" t="s">
+        <v>133</v>
+      </c>
+      <c r="C73" s="73"/>
+      <c r="D73" s="73" t="s">
+        <v>143</v>
+      </c>
+      <c r="E73" s="73"/>
+      <c r="F73" s="73" t="s">
+        <v>157</v>
+      </c>
+      <c r="G73" s="73"/>
     </row>
     <row r="74" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A74" s="68"/>
-      <c r="B74" s="68"/>
-      <c r="C74" s="68"/>
-      <c r="D74" s="68"/>
-      <c r="E74" s="68"/>
+      <c r="A74" s="73"/>
+      <c r="B74" s="73"/>
+      <c r="C74" s="73"/>
+      <c r="D74" s="73"/>
+      <c r="E74" s="73"/>
       <c r="F74" s="61" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="G74" s="61" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
     </row>
     <row r="75" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A75" s="59" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="B75" s="59">
         <v>100</v>
       </c>
       <c r="C75" s="63" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="D75" s="65" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="E75" s="63" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="F75" s="17">
         <f>100-0.075</f>
@@ -2837,19 +2817,19 @@
     </row>
     <row r="76" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A76" s="59" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="B76" s="59">
         <v>1</v>
       </c>
-      <c r="C76" s="84" t="s">
-        <v>160</v>
+      <c r="C76" s="79" t="s">
+        <v>155</v>
       </c>
       <c r="D76" s="65" t="s">
-        <v>84</v>
-      </c>
-      <c r="E76" s="84" t="s">
-        <v>160</v>
+        <v>79</v>
+      </c>
+      <c r="E76" s="79" t="s">
+        <v>155</v>
       </c>
       <c r="F76" s="58">
         <f>1-0.00056</f>
@@ -2862,16 +2842,16 @@
     </row>
     <row r="77" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A77" s="59" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="B77" s="59">
         <v>10</v>
       </c>
-      <c r="C77" s="84"/>
+      <c r="C77" s="79"/>
       <c r="D77" s="65" t="s">
-        <v>85</v>
-      </c>
-      <c r="E77" s="84"/>
+        <v>80</v>
+      </c>
+      <c r="E77" s="79"/>
       <c r="F77" s="17">
         <f>10-0.007</f>
         <v>9.9930000000000003</v>
@@ -2883,16 +2863,16 @@
     </row>
     <row r="78" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A78" s="59" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="B78" s="59">
         <v>100</v>
       </c>
-      <c r="C78" s="84"/>
+      <c r="C78" s="79"/>
       <c r="D78" s="65" t="s">
-        <v>86</v>
-      </c>
-      <c r="E78" s="84"/>
+        <v>81</v>
+      </c>
+      <c r="E78" s="79"/>
       <c r="F78" s="17">
         <f>100-0.055</f>
         <v>99.944999999999993</v>
@@ -2904,19 +2884,19 @@
     </row>
     <row r="79" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A79" s="59" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="B79" s="59">
         <v>1</v>
       </c>
-      <c r="C79" s="84" t="s">
-        <v>153</v>
+      <c r="C79" s="79" t="s">
+        <v>148</v>
       </c>
       <c r="D79" s="65" t="s">
-        <v>87</v>
-      </c>
-      <c r="E79" s="84" t="s">
-        <v>153</v>
+        <v>82</v>
+      </c>
+      <c r="E79" s="79" t="s">
+        <v>148</v>
       </c>
       <c r="F79" s="15">
         <f>1-0.0011</f>
@@ -2929,16 +2909,16 @@
     </row>
     <row r="80" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A80" s="59" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="B80" s="59">
         <v>2</v>
       </c>
-      <c r="C80" s="84"/>
+      <c r="C80" s="79"/>
       <c r="D80" s="65" t="s">
-        <v>88</v>
-      </c>
-      <c r="E80" s="84"/>
+        <v>83</v>
+      </c>
+      <c r="E80" s="79"/>
       <c r="F80" s="15">
         <f>2-0.0046</f>
         <v>1.9954000000000001</v>
@@ -2958,7 +2938,7 @@
     </row>
     <row r="82" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A82" s="25" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B82" s="19"/>
       <c r="C82" s="21"/>
@@ -2967,189 +2947,189 @@
       <c r="F82" s="24"/>
     </row>
     <row r="83" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="68" t="s">
-        <v>130</v>
-      </c>
-      <c r="B83" s="68" t="s">
-        <v>138</v>
-      </c>
-      <c r="C83" s="68"/>
-      <c r="D83" s="68" t="s">
-        <v>7</v>
-      </c>
-      <c r="E83" s="68" t="s">
-        <v>11</v>
-      </c>
-      <c r="F83" s="68"/>
-      <c r="G83" s="68" t="s">
-        <v>162</v>
-      </c>
-      <c r="H83" s="68"/>
-      <c r="I83" s="80"/>
-      <c r="J83" s="80"/>
-      <c r="K83" s="80"/>
-      <c r="L83" s="80"/>
-      <c r="M83" s="80"/>
-      <c r="N83" s="80"/>
-      <c r="O83" s="80"/>
-      <c r="P83" s="80"/>
+      <c r="A83" s="73" t="s">
+        <v>125</v>
+      </c>
+      <c r="B83" s="73" t="s">
+        <v>133</v>
+      </c>
+      <c r="C83" s="73"/>
+      <c r="D83" s="73" t="s">
+        <v>2</v>
+      </c>
+      <c r="E83" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="F83" s="73"/>
+      <c r="G83" s="73" t="s">
+        <v>157</v>
+      </c>
+      <c r="H83" s="73"/>
+      <c r="I83" s="67"/>
+      <c r="J83" s="67"/>
+      <c r="K83" s="67"/>
+      <c r="L83" s="67"/>
+      <c r="M83" s="67"/>
+      <c r="N83" s="67"/>
+      <c r="O83" s="67"/>
+      <c r="P83" s="67"/>
     </row>
     <row r="84" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A84" s="68"/>
-      <c r="B84" s="68"/>
-      <c r="C84" s="68"/>
-      <c r="D84" s="68"/>
-      <c r="E84" s="68"/>
-      <c r="F84" s="68"/>
+      <c r="A84" s="73"/>
+      <c r="B84" s="73"/>
+      <c r="C84" s="73"/>
+      <c r="D84" s="73"/>
+      <c r="E84" s="73"/>
+      <c r="F84" s="73"/>
       <c r="G84" s="61" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="H84" s="61" t="s">
-        <v>164</v>
-      </c>
-      <c r="I84" s="80"/>
-      <c r="J84" s="80"/>
-      <c r="K84" s="80"/>
-      <c r="L84" s="80"/>
-      <c r="M84" s="80"/>
-      <c r="N84" s="80"/>
-      <c r="O84" s="80"/>
-      <c r="P84" s="80"/>
+        <v>159</v>
+      </c>
+      <c r="I84" s="67"/>
+      <c r="J84" s="67"/>
+      <c r="K84" s="67"/>
+      <c r="L84" s="67"/>
+      <c r="M84" s="67"/>
+      <c r="N84" s="67"/>
+      <c r="O84" s="67"/>
+      <c r="P84" s="67"/>
     </row>
     <row r="85" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A85" s="69" t="s">
-        <v>159</v>
-      </c>
-      <c r="B85" s="69">
+      <c r="A85" s="70" t="s">
+        <v>154</v>
+      </c>
+      <c r="B85" s="70">
         <v>100</v>
       </c>
-      <c r="C85" s="84" t="s">
-        <v>161</v>
+      <c r="C85" s="79" t="s">
+        <v>156</v>
       </c>
       <c r="D85" s="60" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E85" s="65" t="s">
-        <v>89</v>
-      </c>
-      <c r="F85" s="84" t="s">
-        <v>161</v>
-      </c>
-      <c r="G85" s="96">
+        <v>84</v>
+      </c>
+      <c r="F85" s="79" t="s">
+        <v>156</v>
+      </c>
+      <c r="G85" s="69">
         <f>100-0.14</f>
         <v>99.86</v>
       </c>
-      <c r="H85" s="96">
+      <c r="H85" s="69">
         <f>100+0.14</f>
         <v>100.14</v>
       </c>
-      <c r="I85" s="71"/>
-      <c r="J85" s="71"/>
-      <c r="K85" s="79"/>
+      <c r="I85" s="77"/>
+      <c r="J85" s="77"/>
+      <c r="K85" s="104"/>
       <c r="L85" s="55"/>
       <c r="M85" s="52"/>
-      <c r="N85" s="79"/>
+      <c r="N85" s="104"/>
       <c r="O85" s="52"/>
       <c r="P85" s="55"/>
     </row>
     <row r="86" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="69"/>
-      <c r="B86" s="69"/>
-      <c r="C86" s="84"/>
+      <c r="A86" s="70"/>
+      <c r="B86" s="70"/>
+      <c r="C86" s="79"/>
       <c r="D86" s="60" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E86" s="65" t="s">
-        <v>90</v>
-      </c>
-      <c r="F86" s="84"/>
-      <c r="G86" s="96"/>
-      <c r="H86" s="96"/>
-      <c r="I86" s="71"/>
-      <c r="J86" s="71"/>
-      <c r="K86" s="79"/>
+        <v>85</v>
+      </c>
+      <c r="F86" s="79"/>
+      <c r="G86" s="69"/>
+      <c r="H86" s="69"/>
+      <c r="I86" s="77"/>
+      <c r="J86" s="77"/>
+      <c r="K86" s="104"/>
       <c r="L86" s="55"/>
       <c r="M86" s="52"/>
-      <c r="N86" s="79"/>
+      <c r="N86" s="104"/>
       <c r="O86" s="52"/>
       <c r="P86" s="55"/>
     </row>
     <row r="87" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A87" s="69" t="s">
-        <v>158</v>
-      </c>
-      <c r="B87" s="69">
+      <c r="A87" s="70" t="s">
+        <v>153</v>
+      </c>
+      <c r="B87" s="70">
         <v>1</v>
       </c>
-      <c r="C87" s="70" t="s">
-        <v>160</v>
+      <c r="C87" s="99" t="s">
+        <v>155</v>
       </c>
       <c r="D87" s="60" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E87" s="65" t="s">
-        <v>91</v>
-      </c>
-      <c r="F87" s="70" t="s">
-        <v>160</v>
-      </c>
-      <c r="G87" s="85">
+        <v>86</v>
+      </c>
+      <c r="F87" s="99" t="s">
+        <v>155</v>
+      </c>
+      <c r="G87" s="71">
         <f>1-0.0014</f>
         <v>0.99860000000000004</v>
       </c>
-      <c r="H87" s="69">
+      <c r="H87" s="70">
         <f>1+0.0014</f>
         <v>1.0014000000000001</v>
       </c>
-      <c r="I87" s="71"/>
-      <c r="J87" s="71"/>
-      <c r="K87" s="72"/>
+      <c r="I87" s="77"/>
+      <c r="J87" s="77"/>
+      <c r="K87" s="68"/>
       <c r="L87" s="55"/>
       <c r="M87" s="52"/>
-      <c r="N87" s="72"/>
+      <c r="N87" s="68"/>
       <c r="O87" s="52"/>
       <c r="P87" s="55"/>
     </row>
     <row r="88" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="69"/>
-      <c r="B88" s="69"/>
-      <c r="C88" s="70"/>
+      <c r="A88" s="70"/>
+      <c r="B88" s="70"/>
+      <c r="C88" s="99"/>
       <c r="D88" s="60" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E88" s="65" t="s">
-        <v>92</v>
-      </c>
-      <c r="F88" s="70"/>
-      <c r="G88" s="85"/>
-      <c r="H88" s="69"/>
-      <c r="I88" s="71"/>
-      <c r="J88" s="71"/>
-      <c r="K88" s="72"/>
+        <v>87</v>
+      </c>
+      <c r="F88" s="99"/>
+      <c r="G88" s="71"/>
+      <c r="H88" s="70"/>
+      <c r="I88" s="77"/>
+      <c r="J88" s="77"/>
+      <c r="K88" s="68"/>
       <c r="L88" s="55"/>
       <c r="M88" s="52"/>
-      <c r="N88" s="72"/>
+      <c r="N88" s="68"/>
       <c r="O88" s="52"/>
       <c r="P88" s="55"/>
     </row>
     <row r="89" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A89" s="69" t="s">
-        <v>157</v>
+      <c r="A89" s="70" t="s">
+        <v>152</v>
       </c>
       <c r="B89" s="59">
         <v>100</v>
       </c>
       <c r="C89" s="60" t="s">
-        <v>161</v>
-      </c>
-      <c r="D89" s="70" t="s">
-        <v>21</v>
+        <v>156</v>
+      </c>
+      <c r="D89" s="99" t="s">
+        <v>16</v>
       </c>
       <c r="E89" s="65" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="F89" s="60" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="G89" s="62">
         <f>100-4.1</f>
@@ -3159,29 +3139,29 @@
         <f>100+4.1</f>
         <v>104.1</v>
       </c>
-      <c r="I89" s="71"/>
+      <c r="I89" s="77"/>
       <c r="J89" s="19"/>
       <c r="K89" s="55"/>
-      <c r="L89" s="72"/>
+      <c r="L89" s="68"/>
       <c r="M89" s="52"/>
       <c r="N89" s="55"/>
       <c r="O89" s="52"/>
       <c r="P89" s="55"/>
     </row>
     <row r="90" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A90" s="69"/>
+      <c r="A90" s="70"/>
       <c r="B90" s="59">
         <v>1</v>
       </c>
-      <c r="C90" s="70" t="s">
-        <v>160</v>
-      </c>
-      <c r="D90" s="70"/>
+      <c r="C90" s="99" t="s">
+        <v>155</v>
+      </c>
+      <c r="D90" s="99"/>
       <c r="E90" s="65" t="s">
-        <v>94</v>
-      </c>
-      <c r="F90" s="70" t="s">
-        <v>160</v>
+        <v>89</v>
+      </c>
+      <c r="F90" s="99" t="s">
+        <v>155</v>
       </c>
       <c r="G90" s="17">
         <f>1-0.005</f>
@@ -3191,258 +3171,258 @@
         <f>1+0.005</f>
         <v>1.0049999999999999</v>
       </c>
-      <c r="I90" s="71"/>
+      <c r="I90" s="77"/>
       <c r="J90" s="19"/>
-      <c r="K90" s="72"/>
-      <c r="L90" s="72"/>
+      <c r="K90" s="68"/>
+      <c r="L90" s="68"/>
       <c r="M90" s="52"/>
-      <c r="N90" s="72"/>
+      <c r="N90" s="68"/>
       <c r="O90" s="52"/>
       <c r="P90" s="55"/>
     </row>
     <row r="91" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A91" s="69"/>
-      <c r="B91" s="69">
+      <c r="A91" s="70"/>
+      <c r="B91" s="70">
         <v>10</v>
       </c>
-      <c r="C91" s="70"/>
-      <c r="D91" s="70"/>
+      <c r="C91" s="99"/>
+      <c r="D91" s="99"/>
       <c r="E91" s="65" t="s">
-        <v>95</v>
-      </c>
-      <c r="F91" s="70"/>
-      <c r="G91" s="107">
+        <v>90</v>
+      </c>
+      <c r="F91" s="99"/>
+      <c r="G91" s="72">
         <f>10-0.014</f>
         <v>9.9860000000000007</v>
       </c>
-      <c r="H91" s="69">
+      <c r="H91" s="70">
         <f>10+0.014</f>
         <v>10.013999999999999</v>
       </c>
-      <c r="I91" s="71"/>
-      <c r="J91" s="71"/>
-      <c r="K91" s="72"/>
-      <c r="L91" s="72"/>
+      <c r="I91" s="77"/>
+      <c r="J91" s="77"/>
+      <c r="K91" s="68"/>
+      <c r="L91" s="68"/>
       <c r="M91" s="52"/>
-      <c r="N91" s="72"/>
+      <c r="N91" s="68"/>
       <c r="O91" s="52"/>
       <c r="P91" s="55"/>
     </row>
     <row r="92" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A92" s="69"/>
-      <c r="B92" s="69"/>
-      <c r="C92" s="70"/>
+      <c r="A92" s="70"/>
+      <c r="B92" s="70"/>
+      <c r="C92" s="99"/>
       <c r="D92" s="60" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E92" s="65" t="s">
-        <v>96</v>
-      </c>
-      <c r="F92" s="70"/>
-      <c r="G92" s="107"/>
-      <c r="H92" s="69"/>
-      <c r="I92" s="71"/>
-      <c r="J92" s="71"/>
-      <c r="K92" s="72"/>
+        <v>91</v>
+      </c>
+      <c r="F92" s="99"/>
+      <c r="G92" s="72"/>
+      <c r="H92" s="70"/>
+      <c r="I92" s="77"/>
+      <c r="J92" s="77"/>
+      <c r="K92" s="68"/>
       <c r="L92" s="55"/>
       <c r="M92" s="52"/>
-      <c r="N92" s="72"/>
+      <c r="N92" s="68"/>
       <c r="O92" s="52"/>
       <c r="P92" s="55"/>
     </row>
     <row r="93" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A93" s="69" t="s">
-        <v>156</v>
-      </c>
-      <c r="B93" s="70">
+      <c r="A93" s="70" t="s">
+        <v>151</v>
+      </c>
+      <c r="B93" s="99">
         <v>100</v>
       </c>
-      <c r="C93" s="70" t="s">
-        <v>160</v>
+      <c r="C93" s="99" t="s">
+        <v>155</v>
       </c>
       <c r="D93" s="60" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E93" s="65" t="s">
-        <v>97</v>
-      </c>
-      <c r="F93" s="70" t="s">
-        <v>160</v>
-      </c>
-      <c r="G93" s="96">
+        <v>92</v>
+      </c>
+      <c r="F93" s="99" t="s">
+        <v>155</v>
+      </c>
+      <c r="G93" s="69">
         <f>100-0.14</f>
         <v>99.86</v>
       </c>
-      <c r="H93" s="69">
+      <c r="H93" s="70">
         <f>100+0.14</f>
         <v>100.14</v>
       </c>
-      <c r="I93" s="71"/>
-      <c r="J93" s="72"/>
-      <c r="K93" s="72"/>
+      <c r="I93" s="77"/>
+      <c r="J93" s="68"/>
+      <c r="K93" s="68"/>
       <c r="L93" s="55"/>
       <c r="M93" s="52"/>
-      <c r="N93" s="72"/>
+      <c r="N93" s="68"/>
       <c r="O93" s="52"/>
       <c r="P93" s="55"/>
     </row>
     <row r="94" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="69"/>
-      <c r="B94" s="70"/>
-      <c r="C94" s="70"/>
+      <c r="A94" s="70"/>
+      <c r="B94" s="99"/>
+      <c r="C94" s="99"/>
       <c r="D94" s="60" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E94" s="65" t="s">
-        <v>98</v>
-      </c>
-      <c r="F94" s="70"/>
-      <c r="G94" s="96"/>
-      <c r="H94" s="69"/>
-      <c r="I94" s="71"/>
-      <c r="J94" s="72"/>
-      <c r="K94" s="72"/>
+        <v>93</v>
+      </c>
+      <c r="F94" s="99"/>
+      <c r="G94" s="69"/>
+      <c r="H94" s="70"/>
+      <c r="I94" s="77"/>
+      <c r="J94" s="68"/>
+      <c r="K94" s="68"/>
       <c r="L94" s="55"/>
       <c r="M94" s="52"/>
-      <c r="N94" s="72"/>
+      <c r="N94" s="68"/>
       <c r="O94" s="52"/>
       <c r="P94" s="55"/>
     </row>
     <row r="95" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A95" s="69"/>
-      <c r="B95" s="70"/>
-      <c r="C95" s="70"/>
+      <c r="A95" s="70"/>
+      <c r="B95" s="99"/>
+      <c r="C95" s="99"/>
       <c r="D95" s="60" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E95" s="65" t="s">
-        <v>99</v>
-      </c>
-      <c r="F95" s="70"/>
-      <c r="G95" s="96"/>
-      <c r="H95" s="69"/>
-      <c r="I95" s="71"/>
-      <c r="J95" s="72"/>
-      <c r="K95" s="72"/>
+        <v>94</v>
+      </c>
+      <c r="F95" s="99"/>
+      <c r="G95" s="69"/>
+      <c r="H95" s="70"/>
+      <c r="I95" s="77"/>
+      <c r="J95" s="68"/>
+      <c r="K95" s="68"/>
       <c r="L95" s="55"/>
       <c r="M95" s="52"/>
-      <c r="N95" s="72"/>
+      <c r="N95" s="68"/>
       <c r="O95" s="52"/>
       <c r="P95" s="55"/>
     </row>
     <row r="96" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A96" s="69" t="s">
-        <v>154</v>
-      </c>
-      <c r="B96" s="69">
+      <c r="A96" s="70" t="s">
+        <v>149</v>
+      </c>
+      <c r="B96" s="70">
         <v>1</v>
       </c>
-      <c r="C96" s="70" t="s">
-        <v>153</v>
+      <c r="C96" s="99" t="s">
+        <v>148</v>
       </c>
       <c r="D96" s="60" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E96" s="65" t="s">
-        <v>100</v>
-      </c>
-      <c r="F96" s="70" t="s">
-        <v>153</v>
-      </c>
-      <c r="G96" s="85">
+        <v>95</v>
+      </c>
+      <c r="F96" s="99" t="s">
+        <v>148</v>
+      </c>
+      <c r="G96" s="71">
         <f>1-0.0014</f>
         <v>0.99860000000000004</v>
       </c>
-      <c r="H96" s="69">
+      <c r="H96" s="70">
         <f>1+0.0014</f>
         <v>1.0014000000000001</v>
       </c>
-      <c r="I96" s="71"/>
-      <c r="J96" s="71"/>
-      <c r="K96" s="72"/>
+      <c r="I96" s="77"/>
+      <c r="J96" s="77"/>
+      <c r="K96" s="68"/>
       <c r="L96" s="55"/>
       <c r="M96" s="52"/>
-      <c r="N96" s="72"/>
+      <c r="N96" s="68"/>
       <c r="O96" s="52"/>
       <c r="P96" s="55"/>
     </row>
     <row r="97" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A97" s="69"/>
-      <c r="B97" s="69"/>
-      <c r="C97" s="70"/>
+      <c r="A97" s="70"/>
+      <c r="B97" s="70"/>
+      <c r="C97" s="99"/>
       <c r="D97" s="60" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E97" s="65" t="s">
-        <v>101</v>
-      </c>
-      <c r="F97" s="70"/>
-      <c r="G97" s="85"/>
-      <c r="H97" s="69"/>
-      <c r="I97" s="71"/>
-      <c r="J97" s="71"/>
-      <c r="K97" s="72"/>
+        <v>96</v>
+      </c>
+      <c r="F97" s="99"/>
+      <c r="G97" s="71"/>
+      <c r="H97" s="70"/>
+      <c r="I97" s="77"/>
+      <c r="J97" s="77"/>
+      <c r="K97" s="68"/>
       <c r="L97" s="55"/>
       <c r="M97" s="52"/>
-      <c r="N97" s="72"/>
+      <c r="N97" s="68"/>
       <c r="O97" s="52"/>
       <c r="P97" s="55"/>
     </row>
     <row r="98" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A98" s="69" t="s">
-        <v>155</v>
-      </c>
-      <c r="B98" s="69">
+      <c r="A98" s="70" t="s">
+        <v>150</v>
+      </c>
+      <c r="B98" s="70">
         <v>2</v>
       </c>
-      <c r="C98" s="70" t="s">
-        <v>153</v>
+      <c r="C98" s="99" t="s">
+        <v>148</v>
       </c>
       <c r="D98" s="60" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E98" s="65" t="s">
-        <v>102</v>
-      </c>
-      <c r="F98" s="70" t="s">
-        <v>153</v>
-      </c>
-      <c r="G98" s="85">
+        <v>97</v>
+      </c>
+      <c r="F98" s="99" t="s">
+        <v>148</v>
+      </c>
+      <c r="G98" s="71">
         <f>2-0.0058</f>
         <v>1.9942</v>
       </c>
-      <c r="H98" s="69">
+      <c r="H98" s="70">
         <f>2+0.0058</f>
         <v>2.0057999999999998</v>
       </c>
-      <c r="I98" s="71"/>
-      <c r="J98" s="71"/>
-      <c r="K98" s="72"/>
+      <c r="I98" s="77"/>
+      <c r="J98" s="77"/>
+      <c r="K98" s="68"/>
       <c r="L98" s="55"/>
       <c r="M98" s="52"/>
-      <c r="N98" s="72"/>
+      <c r="N98" s="68"/>
       <c r="O98" s="52"/>
       <c r="P98" s="55"/>
     </row>
     <row r="99" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A99" s="69"/>
-      <c r="B99" s="69"/>
-      <c r="C99" s="70"/>
+      <c r="A99" s="70"/>
+      <c r="B99" s="70"/>
+      <c r="C99" s="99"/>
       <c r="D99" s="60" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E99" s="65" t="s">
-        <v>103</v>
-      </c>
-      <c r="F99" s="70"/>
-      <c r="G99" s="85"/>
-      <c r="H99" s="69"/>
-      <c r="I99" s="71"/>
-      <c r="J99" s="71"/>
-      <c r="K99" s="72"/>
+        <v>98</v>
+      </c>
+      <c r="F99" s="99"/>
+      <c r="G99" s="71"/>
+      <c r="H99" s="70"/>
+      <c r="I99" s="77"/>
+      <c r="J99" s="77"/>
+      <c r="K99" s="68"/>
       <c r="L99" s="55"/>
       <c r="M99" s="52"/>
-      <c r="N99" s="72"/>
+      <c r="N99" s="68"/>
       <c r="O99" s="52"/>
       <c r="P99" s="55"/>
     </row>
@@ -3472,7 +3452,7 @@
     </row>
     <row r="103" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A103" s="25" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B103" s="19"/>
       <c r="C103" s="19"/>
@@ -3481,61 +3461,61 @@
       <c r="F103" s="24"/>
     </row>
     <row r="104" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="68" t="s">
-        <v>130</v>
-      </c>
-      <c r="B104" s="92" t="s">
-        <v>138</v>
-      </c>
-      <c r="C104" s="68" t="s">
-        <v>15</v>
-      </c>
-      <c r="D104" s="68"/>
-      <c r="E104" s="68" t="s">
-        <v>14</v>
-      </c>
-      <c r="F104" s="68"/>
-      <c r="G104" s="68" t="s">
-        <v>162</v>
-      </c>
-      <c r="H104" s="68"/>
-      <c r="I104" s="106"/>
-      <c r="J104" s="106"/>
+      <c r="A104" s="73" t="s">
+        <v>125</v>
+      </c>
+      <c r="B104" s="100" t="s">
+        <v>133</v>
+      </c>
+      <c r="C104" s="73" t="s">
+        <v>10</v>
+      </c>
+      <c r="D104" s="73"/>
+      <c r="E104" s="73" t="s">
+        <v>9</v>
+      </c>
+      <c r="F104" s="73"/>
+      <c r="G104" s="73" t="s">
+        <v>157</v>
+      </c>
+      <c r="H104" s="73"/>
+      <c r="I104" s="78"/>
+      <c r="J104" s="78"/>
     </row>
     <row r="105" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A105" s="68"/>
-      <c r="B105" s="92"/>
-      <c r="C105" s="68"/>
-      <c r="D105" s="68"/>
-      <c r="E105" s="68"/>
-      <c r="F105" s="68"/>
+      <c r="A105" s="73"/>
+      <c r="B105" s="100"/>
+      <c r="C105" s="73"/>
+      <c r="D105" s="73"/>
+      <c r="E105" s="73"/>
+      <c r="F105" s="73"/>
       <c r="G105" s="61" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="H105" s="61" t="s">
-        <v>164</v>
-      </c>
-      <c r="I105" s="106"/>
-      <c r="J105" s="106"/>
+        <v>159</v>
+      </c>
+      <c r="I105" s="78"/>
+      <c r="J105" s="78"/>
     </row>
     <row r="106" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A106" s="61" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="B106" s="61" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="C106" s="30">
         <v>10</v>
       </c>
       <c r="D106" s="63" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="E106" s="65" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="F106" s="63" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="G106" s="17">
         <f>10-0.003</f>
@@ -3550,22 +3530,22 @@
     </row>
     <row r="107" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A107" s="61" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="B107" s="61" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="C107" s="30">
         <v>300</v>
       </c>
       <c r="D107" s="63" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="E107" s="65" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="F107" s="63" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="G107" s="18">
         <f>300-0.36</f>
@@ -3588,7 +3568,7 @@
     </row>
     <row r="109" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A109" s="8" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="B109" s="19"/>
       <c r="C109" s="19"/>
@@ -3598,7 +3578,7 @@
     </row>
     <row r="110" spans="1:16" s="9" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="8" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="B110" s="26"/>
       <c r="C110" s="26"/>
@@ -3610,50 +3590,50 @@
       <c r="I110" s="8"/>
     </row>
     <row r="111" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="68" t="s">
-        <v>130</v>
-      </c>
-      <c r="B111" s="68" t="s">
-        <v>138</v>
-      </c>
-      <c r="C111" s="68"/>
-      <c r="D111" s="68" t="s">
-        <v>16</v>
-      </c>
-      <c r="E111" s="68"/>
-      <c r="F111" s="68" t="s">
-        <v>162</v>
-      </c>
-      <c r="G111" s="68"/>
+      <c r="A111" s="73" t="s">
+        <v>125</v>
+      </c>
+      <c r="B111" s="73" t="s">
+        <v>133</v>
+      </c>
+      <c r="C111" s="73"/>
+      <c r="D111" s="73" t="s">
+        <v>11</v>
+      </c>
+      <c r="E111" s="73"/>
+      <c r="F111" s="73" t="s">
+        <v>157</v>
+      </c>
+      <c r="G111" s="73"/>
     </row>
     <row r="112" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A112" s="68"/>
-      <c r="B112" s="68"/>
-      <c r="C112" s="68"/>
-      <c r="D112" s="68"/>
-      <c r="E112" s="68"/>
+      <c r="A112" s="73"/>
+      <c r="B112" s="73"/>
+      <c r="C112" s="73"/>
+      <c r="D112" s="73"/>
+      <c r="E112" s="73"/>
       <c r="F112" s="61" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="G112" s="61" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113" s="30" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="B113" s="30">
         <v>100</v>
       </c>
       <c r="C113" s="63" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="D113" s="65" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="E113" s="63" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="F113" s="17">
         <f>100-0.021</f>
@@ -3666,19 +3646,19 @@
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114" s="30" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B114" s="30">
         <v>1</v>
       </c>
-      <c r="C114" s="84" t="s">
-        <v>151</v>
+      <c r="C114" s="79" t="s">
+        <v>146</v>
       </c>
       <c r="D114" s="65" t="s">
-        <v>107</v>
-      </c>
-      <c r="E114" s="84" t="s">
-        <v>151</v>
+        <v>102</v>
+      </c>
+      <c r="E114" s="79" t="s">
+        <v>146</v>
       </c>
       <c r="F114" s="58">
         <f>1-0.00015</f>
@@ -3691,16 +3671,16 @@
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115" s="30" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="B115" s="30">
         <v>10</v>
       </c>
-      <c r="C115" s="84"/>
+      <c r="C115" s="79"/>
       <c r="D115" s="65" t="s">
-        <v>108</v>
-      </c>
-      <c r="E115" s="84"/>
+        <v>103</v>
+      </c>
+      <c r="E115" s="79"/>
       <c r="F115" s="15">
         <f>10-0.0015</f>
         <v>9.9984999999999999</v>
@@ -3712,16 +3692,16 @@
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116" s="30" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="B116" s="30">
         <v>100</v>
       </c>
-      <c r="C116" s="84"/>
+      <c r="C116" s="79"/>
       <c r="D116" s="65" t="s">
-        <v>109</v>
-      </c>
-      <c r="E116" s="84"/>
+        <v>104</v>
+      </c>
+      <c r="E116" s="79"/>
       <c r="F116" s="17">
         <f>100-0.015</f>
         <v>99.984999999999999</v>
@@ -3741,7 +3721,7 @@
     </row>
     <row r="118" spans="1:9" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="36" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="B118" s="26"/>
       <c r="C118" s="26"/>
@@ -3753,50 +3733,50 @@
       <c r="I118" s="8"/>
     </row>
     <row r="119" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="68" t="s">
-        <v>130</v>
-      </c>
-      <c r="B119" s="68" t="s">
-        <v>138</v>
-      </c>
-      <c r="C119" s="68"/>
-      <c r="D119" s="68" t="s">
-        <v>148</v>
-      </c>
-      <c r="E119" s="68"/>
-      <c r="F119" s="68" t="s">
-        <v>162</v>
-      </c>
-      <c r="G119" s="68"/>
+      <c r="A119" s="73" t="s">
+        <v>125</v>
+      </c>
+      <c r="B119" s="73" t="s">
+        <v>133</v>
+      </c>
+      <c r="C119" s="73"/>
+      <c r="D119" s="73" t="s">
+        <v>143</v>
+      </c>
+      <c r="E119" s="73"/>
+      <c r="F119" s="73" t="s">
+        <v>157</v>
+      </c>
+      <c r="G119" s="73"/>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A120" s="68"/>
-      <c r="B120" s="68"/>
-      <c r="C120" s="68"/>
-      <c r="D120" s="68"/>
-      <c r="E120" s="68"/>
+      <c r="A120" s="73"/>
+      <c r="B120" s="73"/>
+      <c r="C120" s="73"/>
+      <c r="D120" s="73"/>
+      <c r="E120" s="73"/>
       <c r="F120" s="61" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="G120" s="61" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121" s="30" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="B121" s="30">
         <v>1</v>
       </c>
-      <c r="C121" s="84" t="s">
-        <v>149</v>
+      <c r="C121" s="79" t="s">
+        <v>144</v>
       </c>
       <c r="D121" s="65" t="s">
-        <v>110</v>
-      </c>
-      <c r="E121" s="84" t="s">
-        <v>149</v>
+        <v>105</v>
+      </c>
+      <c r="E121" s="79" t="s">
+        <v>144</v>
       </c>
       <c r="F121" s="58">
         <f>1-0.00015</f>
@@ -3809,16 +3789,16 @@
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122" s="30" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="B122" s="30">
         <v>10</v>
       </c>
-      <c r="C122" s="84"/>
+      <c r="C122" s="79"/>
       <c r="D122" s="65" t="s">
-        <v>111</v>
-      </c>
-      <c r="E122" s="84"/>
+        <v>106</v>
+      </c>
+      <c r="E122" s="79"/>
       <c r="F122" s="15">
         <f>10-0.0041</f>
         <v>9.9959000000000007</v>
@@ -3830,16 +3810,16 @@
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123" s="30" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="B123" s="30">
         <v>100</v>
       </c>
-      <c r="C123" s="84"/>
+      <c r="C123" s="79"/>
       <c r="D123" s="65" t="s">
-        <v>112</v>
-      </c>
-      <c r="E123" s="84"/>
+        <v>107</v>
+      </c>
+      <c r="E123" s="79"/>
       <c r="F123" s="17">
         <f>100-0.081</f>
         <v>99.918999999999997</v>
@@ -3858,46 +3838,194 @@
       <c r="F124" s="24"/>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A130" s="88" t="s">
-        <v>17</v>
-      </c>
-      <c r="B130" s="88"/>
+      <c r="A130" s="95" t="s">
+        <v>12</v>
+      </c>
+      <c r="B130" s="95"/>
       <c r="C130" s="38"/>
       <c r="D130" s="39" t="s">
-        <v>19</v>
-      </c>
-      <c r="E130" s="89" t="s">
-        <v>50</v>
-      </c>
-      <c r="F130" s="90"/>
+        <v>14</v>
+      </c>
+      <c r="E130" s="96" t="s">
+        <v>45</v>
+      </c>
+      <c r="F130" s="97"/>
       <c r="G130" s="14" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H130" s="40"/>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A132" s="88" t="s">
-        <v>18</v>
-      </c>
-      <c r="B132" s="88"/>
-      <c r="C132" s="91" t="s">
-        <v>51</v>
-      </c>
-      <c r="D132" s="91"/>
+      <c r="A132" s="95" t="s">
+        <v>13</v>
+      </c>
+      <c r="B132" s="95"/>
+      <c r="C132" s="98" t="s">
+        <v>46</v>
+      </c>
+      <c r="D132" s="98"/>
     </row>
   </sheetData>
   <mergeCells count="199">
-    <mergeCell ref="O49:O50"/>
-    <mergeCell ref="P49:P50"/>
-    <mergeCell ref="N65:N67"/>
-    <mergeCell ref="H85:H86"/>
-    <mergeCell ref="G85:G86"/>
-    <mergeCell ref="H87:H88"/>
-    <mergeCell ref="G87:G88"/>
-    <mergeCell ref="H91:H92"/>
-    <mergeCell ref="G91:G92"/>
-    <mergeCell ref="O83:O84"/>
-    <mergeCell ref="P83:P84"/>
+    <mergeCell ref="C51:C53"/>
+    <mergeCell ref="F51:F53"/>
+    <mergeCell ref="G104:H104"/>
+    <mergeCell ref="F111:G111"/>
+    <mergeCell ref="F119:G119"/>
+    <mergeCell ref="A57:A64"/>
+    <mergeCell ref="D57:D58"/>
+    <mergeCell ref="C58:C64"/>
+    <mergeCell ref="F58:F64"/>
+    <mergeCell ref="B59:B64"/>
+    <mergeCell ref="A65:A67"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="C65:C67"/>
+    <mergeCell ref="F65:F67"/>
+    <mergeCell ref="B91:B92"/>
+    <mergeCell ref="A93:A95"/>
+    <mergeCell ref="B93:B95"/>
+    <mergeCell ref="C93:C95"/>
+    <mergeCell ref="F93:F95"/>
+    <mergeCell ref="B83:C84"/>
+    <mergeCell ref="E83:F84"/>
+    <mergeCell ref="F68:F70"/>
+    <mergeCell ref="D83:D84"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="A98:A99"/>
+    <mergeCell ref="B98:B99"/>
+    <mergeCell ref="C98:C99"/>
+    <mergeCell ref="N98:N99"/>
+    <mergeCell ref="F98:F99"/>
+    <mergeCell ref="A68:A70"/>
+    <mergeCell ref="C68:C70"/>
+    <mergeCell ref="F73:G73"/>
+    <mergeCell ref="G83:H83"/>
+    <mergeCell ref="A96:A97"/>
+    <mergeCell ref="B96:B97"/>
+    <mergeCell ref="C96:C97"/>
+    <mergeCell ref="F96:F97"/>
+    <mergeCell ref="J96:J97"/>
+    <mergeCell ref="F90:F92"/>
+    <mergeCell ref="K93:K95"/>
+    <mergeCell ref="J93:J95"/>
+    <mergeCell ref="I93:I95"/>
+    <mergeCell ref="N93:N95"/>
+    <mergeCell ref="K96:K97"/>
+    <mergeCell ref="J98:J99"/>
+    <mergeCell ref="K98:K99"/>
+    <mergeCell ref="I98:I99"/>
+    <mergeCell ref="I96:I97"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="I85:I86"/>
+    <mergeCell ref="J85:J86"/>
+    <mergeCell ref="K85:K86"/>
+    <mergeCell ref="N85:N86"/>
+    <mergeCell ref="K87:K88"/>
+    <mergeCell ref="J87:J88"/>
+    <mergeCell ref="I87:I88"/>
+    <mergeCell ref="N87:N88"/>
+    <mergeCell ref="J83:K84"/>
+    <mergeCell ref="L83:L84"/>
+    <mergeCell ref="M83:N84"/>
+    <mergeCell ref="A54:A56"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="C54:C56"/>
+    <mergeCell ref="F54:F56"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="G49:H49"/>
+    <mergeCell ref="B49:C50"/>
+    <mergeCell ref="E49:F50"/>
+    <mergeCell ref="A51:A53"/>
+    <mergeCell ref="B51:B53"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="B34:C35"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="C38:C46"/>
+    <mergeCell ref="D34:E35"/>
+    <mergeCell ref="E38:E46"/>
+    <mergeCell ref="A40:A42"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="A130:B130"/>
+    <mergeCell ref="E130:F130"/>
+    <mergeCell ref="A132:B132"/>
+    <mergeCell ref="C132:D132"/>
+    <mergeCell ref="C121:C123"/>
+    <mergeCell ref="E121:E123"/>
+    <mergeCell ref="A85:A86"/>
+    <mergeCell ref="B85:B86"/>
+    <mergeCell ref="C85:C86"/>
+    <mergeCell ref="F85:F86"/>
+    <mergeCell ref="A87:A88"/>
+    <mergeCell ref="B87:B88"/>
+    <mergeCell ref="C87:C88"/>
+    <mergeCell ref="F87:F88"/>
+    <mergeCell ref="A89:A92"/>
+    <mergeCell ref="D89:D91"/>
+    <mergeCell ref="C90:C92"/>
+    <mergeCell ref="C104:D105"/>
+    <mergeCell ref="E104:F105"/>
+    <mergeCell ref="B119:C120"/>
+    <mergeCell ref="D119:E120"/>
+    <mergeCell ref="A104:A105"/>
+    <mergeCell ref="A111:A112"/>
+    <mergeCell ref="B104:B105"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="B111:C112"/>
+    <mergeCell ref="D111:E112"/>
+    <mergeCell ref="B73:C74"/>
+    <mergeCell ref="D73:E74"/>
+    <mergeCell ref="C79:C80"/>
+    <mergeCell ref="E79:E80"/>
+    <mergeCell ref="N68:N70"/>
+    <mergeCell ref="N54:N56"/>
+    <mergeCell ref="I54:I56"/>
+    <mergeCell ref="L57:L58"/>
+    <mergeCell ref="K58:K64"/>
+    <mergeCell ref="N58:N64"/>
+    <mergeCell ref="J65:J66"/>
+    <mergeCell ref="M49:N50"/>
+    <mergeCell ref="N51:N53"/>
+    <mergeCell ref="H93:H95"/>
+    <mergeCell ref="G93:G95"/>
+    <mergeCell ref="H98:H99"/>
+    <mergeCell ref="G98:G99"/>
+    <mergeCell ref="H96:H97"/>
+    <mergeCell ref="G96:G97"/>
+    <mergeCell ref="N96:N97"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="A5:H5"/>
+    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A7:H7"/>
+    <mergeCell ref="A9:C9"/>
     <mergeCell ref="A119:A120"/>
     <mergeCell ref="I49:I50"/>
     <mergeCell ref="J49:K50"/>
@@ -3922,170 +4050,22 @@
     <mergeCell ref="I83:I84"/>
     <mergeCell ref="J59:J64"/>
     <mergeCell ref="I57:I64"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="A5:H5"/>
-    <mergeCell ref="A4:H4"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A7:H7"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="B111:C112"/>
-    <mergeCell ref="D111:E112"/>
-    <mergeCell ref="B73:C74"/>
-    <mergeCell ref="D73:E74"/>
-    <mergeCell ref="C79:C80"/>
-    <mergeCell ref="E79:E80"/>
-    <mergeCell ref="N68:N70"/>
-    <mergeCell ref="N54:N56"/>
-    <mergeCell ref="I54:I56"/>
-    <mergeCell ref="L57:L58"/>
-    <mergeCell ref="K58:K64"/>
-    <mergeCell ref="N58:N64"/>
-    <mergeCell ref="J65:J66"/>
-    <mergeCell ref="M49:N50"/>
-    <mergeCell ref="N51:N53"/>
-    <mergeCell ref="H93:H95"/>
-    <mergeCell ref="G93:G95"/>
-    <mergeCell ref="H98:H99"/>
-    <mergeCell ref="G98:G99"/>
-    <mergeCell ref="H96:H97"/>
-    <mergeCell ref="G96:G97"/>
-    <mergeCell ref="N96:N97"/>
-    <mergeCell ref="A130:B130"/>
-    <mergeCell ref="E130:F130"/>
-    <mergeCell ref="A132:B132"/>
-    <mergeCell ref="C132:D132"/>
-    <mergeCell ref="C121:C123"/>
-    <mergeCell ref="E121:E123"/>
-    <mergeCell ref="A85:A86"/>
-    <mergeCell ref="B85:B86"/>
-    <mergeCell ref="C85:C86"/>
-    <mergeCell ref="F85:F86"/>
-    <mergeCell ref="A87:A88"/>
-    <mergeCell ref="B87:B88"/>
-    <mergeCell ref="C87:C88"/>
-    <mergeCell ref="F87:F88"/>
-    <mergeCell ref="A89:A92"/>
-    <mergeCell ref="D89:D91"/>
-    <mergeCell ref="C90:C92"/>
-    <mergeCell ref="C104:D105"/>
-    <mergeCell ref="E104:F105"/>
-    <mergeCell ref="B119:C120"/>
-    <mergeCell ref="D119:E120"/>
-    <mergeCell ref="A104:A105"/>
-    <mergeCell ref="A111:A112"/>
-    <mergeCell ref="B104:B105"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="B34:C35"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="C38:C46"/>
-    <mergeCell ref="D34:E35"/>
-    <mergeCell ref="E38:E46"/>
-    <mergeCell ref="A40:A42"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="I85:I86"/>
-    <mergeCell ref="J85:J86"/>
-    <mergeCell ref="K85:K86"/>
-    <mergeCell ref="N85:N86"/>
-    <mergeCell ref="K87:K88"/>
-    <mergeCell ref="J87:J88"/>
-    <mergeCell ref="I87:I88"/>
-    <mergeCell ref="N87:N88"/>
-    <mergeCell ref="J83:K84"/>
-    <mergeCell ref="L83:L84"/>
-    <mergeCell ref="M83:N84"/>
-    <mergeCell ref="A54:A56"/>
-    <mergeCell ref="B54:B56"/>
-    <mergeCell ref="C54:C56"/>
-    <mergeCell ref="F54:F56"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="G49:H49"/>
-    <mergeCell ref="B49:C50"/>
-    <mergeCell ref="E49:F50"/>
-    <mergeCell ref="A51:A53"/>
-    <mergeCell ref="B51:B53"/>
+    <mergeCell ref="O49:O50"/>
+    <mergeCell ref="P49:P50"/>
+    <mergeCell ref="N65:N67"/>
+    <mergeCell ref="H85:H86"/>
+    <mergeCell ref="G85:G86"/>
+    <mergeCell ref="H87:H88"/>
+    <mergeCell ref="G87:G88"/>
+    <mergeCell ref="H91:H92"/>
+    <mergeCell ref="G91:G92"/>
+    <mergeCell ref="O83:O84"/>
+    <mergeCell ref="P83:P84"/>
     <mergeCell ref="L89:L91"/>
     <mergeCell ref="J91:J92"/>
     <mergeCell ref="K90:K92"/>
     <mergeCell ref="N90:N92"/>
     <mergeCell ref="I89:I92"/>
-    <mergeCell ref="K93:K95"/>
-    <mergeCell ref="J93:J95"/>
-    <mergeCell ref="I93:I95"/>
-    <mergeCell ref="N93:N95"/>
-    <mergeCell ref="K96:K97"/>
-    <mergeCell ref="J98:J99"/>
-    <mergeCell ref="K98:K99"/>
-    <mergeCell ref="I98:I99"/>
-    <mergeCell ref="I96:I97"/>
-    <mergeCell ref="A98:A99"/>
-    <mergeCell ref="B98:B99"/>
-    <mergeCell ref="C98:C99"/>
-    <mergeCell ref="N98:N99"/>
-    <mergeCell ref="F98:F99"/>
-    <mergeCell ref="A68:A70"/>
-    <mergeCell ref="C68:C70"/>
-    <mergeCell ref="F73:G73"/>
-    <mergeCell ref="G83:H83"/>
-    <mergeCell ref="A96:A97"/>
-    <mergeCell ref="B96:B97"/>
-    <mergeCell ref="C96:C97"/>
-    <mergeCell ref="F96:F97"/>
-    <mergeCell ref="J96:J97"/>
-    <mergeCell ref="F90:F92"/>
-    <mergeCell ref="C51:C53"/>
-    <mergeCell ref="F51:F53"/>
-    <mergeCell ref="G104:H104"/>
-    <mergeCell ref="F111:G111"/>
-    <mergeCell ref="F119:G119"/>
-    <mergeCell ref="A57:A64"/>
-    <mergeCell ref="D57:D58"/>
-    <mergeCell ref="C58:C64"/>
-    <mergeCell ref="F58:F64"/>
-    <mergeCell ref="B59:B64"/>
-    <mergeCell ref="A65:A67"/>
-    <mergeCell ref="B65:B66"/>
-    <mergeCell ref="C65:C67"/>
-    <mergeCell ref="F65:F67"/>
-    <mergeCell ref="B91:B92"/>
-    <mergeCell ref="A93:A95"/>
-    <mergeCell ref="B93:B95"/>
-    <mergeCell ref="C93:C95"/>
-    <mergeCell ref="F93:F95"/>
-    <mergeCell ref="B83:C84"/>
-    <mergeCell ref="E83:F84"/>
-    <mergeCell ref="F68:F70"/>
-    <mergeCell ref="D83:D84"/>
-    <mergeCell ref="A73:A74"/>
   </mergeCells>
   <pageMargins left="0.78740157480314965" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.39370078740157483" footer="0.39370078740157483"/>
   <pageSetup paperSize="9" scale="97" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>

--- a/Shablon/34460A.xlsx
+++ b/Shablon/34460A.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="166">
   <si>
     <t>АО "Гос МКБ "Вымпел" им. И.И. Торопова"</t>
   </si>
@@ -455,9 +455,6 @@
     <t>_customer</t>
   </si>
   <si>
-    <t>Протокол поверки №</t>
-  </si>
-  <si>
     <t>мВ</t>
   </si>
   <si>
@@ -597,7 +594,7 @@
     <numFmt numFmtId="168" formatCode="0.0"/>
     <numFmt numFmtId="169" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -702,6 +699,11 @@
       <family val="1"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial Cyr"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -799,9 +801,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -969,60 +972,78 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1030,49 +1051,32 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Денежный" xfId="1" builtinId="4"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный 2" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1377,7 +1381,7 @@
   <dimension ref="A1:H122"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="D91" sqref="D91"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1389,64 +1393,64 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="85" t="s">
+      <c r="A1" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="85"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="85"/>
-      <c r="E1" s="85"/>
-      <c r="F1" s="85"/>
-      <c r="G1" s="85"/>
-      <c r="H1" s="85"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="85" t="s">
+      <c r="A2" s="66" t="s">
+        <v>164</v>
+      </c>
+      <c r="B2" s="66"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="66"/>
+      <c r="F2" s="66"/>
+      <c r="G2" s="66"/>
+      <c r="H2" s="66"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="66" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="66"/>
+      <c r="C3" s="66"/>
+      <c r="D3" s="66"/>
+      <c r="E3" s="66"/>
+      <c r="F3" s="66"/>
+      <c r="G3" s="66"/>
+      <c r="H3" s="66"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="69" t="s">
         <v>165</v>
       </c>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="85"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="85" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="85"/>
-      <c r="C3" s="85"/>
-      <c r="D3" s="85"/>
-      <c r="E3" s="85"/>
-      <c r="F3" s="85"/>
-      <c r="G3" s="85"/>
-      <c r="H3" s="85"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="88" t="s">
-        <v>166</v>
-      </c>
-      <c r="B4" s="88"/>
-      <c r="C4" s="88"/>
-      <c r="D4" s="88"/>
-      <c r="E4" s="88"/>
-      <c r="F4" s="88"/>
-      <c r="G4" s="88"/>
-      <c r="H4" s="88"/>
+      <c r="B4" s="69"/>
+      <c r="C4" s="69"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="69"/>
+      <c r="G4" s="69"/>
+      <c r="H4" s="69"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="88" t="s">
+      <c r="A5" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="88"/>
-      <c r="C5" s="88"/>
-      <c r="D5" s="88"/>
-      <c r="E5" s="88"/>
-      <c r="F5" s="88"/>
-      <c r="G5" s="88"/>
-      <c r="H5" s="88"/>
+      <c r="B5" s="69"/>
+      <c r="C5" s="69"/>
+      <c r="D5" s="69"/>
+      <c r="E5" s="69"/>
+      <c r="F5" s="69"/>
+      <c r="G5" s="69"/>
+      <c r="H5" s="69"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="38"/>
@@ -1459,16 +1463,17 @@
       <c r="H6" s="38"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="91" t="s">
-        <v>124</v>
-      </c>
-      <c r="B7" s="91"/>
-      <c r="C7" s="91"/>
-      <c r="D7" s="91"/>
-      <c r="E7" s="91"/>
-      <c r="F7" s="91"/>
-      <c r="G7" s="91"/>
-      <c r="H7" s="91"/>
+      <c r="A7" s="92" t="str">
+        <f>"Протокол поверки № 10/"&amp;C122&amp;"/"&amp;D10</f>
+        <v>Протокол поверки № 10/_date/_numb</v>
+      </c>
+      <c r="B7" s="92"/>
+      <c r="C7" s="92"/>
+      <c r="D7" s="92"/>
+      <c r="E7" s="92"/>
+      <c r="F7" s="92"/>
+      <c r="G7" s="92"/>
+      <c r="H7" s="92"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
@@ -1481,11 +1486,11 @@
       <c r="H8" s="3"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="75" t="s">
+      <c r="A9" s="73" t="s">
         <v>110</v>
       </c>
-      <c r="B9" s="75"/>
-      <c r="C9" s="75"/>
+      <c r="B9" s="73"/>
+      <c r="C9" s="73"/>
       <c r="D9" s="42" t="s">
         <v>111</v>
       </c>
@@ -1497,11 +1502,11 @@
       <c r="H9" s="45"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="75" t="s">
+      <c r="A10" s="73" t="s">
         <v>112</v>
       </c>
-      <c r="B10" s="75"/>
-      <c r="C10" s="75"/>
+      <c r="B10" s="73"/>
+      <c r="C10" s="73"/>
       <c r="D10" s="46" t="s">
         <v>43</v>
       </c>
@@ -1511,11 +1516,11 @@
       <c r="H10" s="45"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="75" t="s">
+      <c r="A11" s="73" t="s">
         <v>113</v>
       </c>
-      <c r="B11" s="75"/>
-      <c r="C11" s="75"/>
+      <c r="B11" s="73"/>
+      <c r="C11" s="73"/>
       <c r="D11" s="42"/>
       <c r="E11" s="43"/>
       <c r="F11" s="43"/>
@@ -1523,11 +1528,11 @@
       <c r="H11" s="45"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="75" t="s">
+      <c r="A12" s="73" t="s">
         <v>114</v>
       </c>
-      <c r="B12" s="75"/>
-      <c r="C12" s="75"/>
+      <c r="B12" s="73"/>
+      <c r="C12" s="73"/>
       <c r="D12" s="47"/>
       <c r="E12" s="43"/>
       <c r="F12" s="43"/>
@@ -1535,11 +1540,11 @@
       <c r="H12" s="45"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="75" t="s">
+      <c r="A13" s="73" t="s">
         <v>115</v>
       </c>
-      <c r="B13" s="75"/>
-      <c r="C13" s="75"/>
+      <c r="B13" s="73"/>
+      <c r="C13" s="73"/>
       <c r="D13" s="46" t="s">
         <v>123</v>
       </c>
@@ -1549,11 +1554,11 @@
       <c r="H13" s="45"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="75" t="s">
+      <c r="A14" s="73" t="s">
         <v>116</v>
       </c>
-      <c r="B14" s="75"/>
-      <c r="C14" s="75"/>
+      <c r="B14" s="73"/>
+      <c r="C14" s="73"/>
       <c r="D14" s="48" t="s">
         <v>117</v>
       </c>
@@ -1563,11 +1568,11 @@
       <c r="H14" s="45"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="75" t="s">
+      <c r="A15" s="73" t="s">
         <v>118</v>
       </c>
-      <c r="B15" s="75"/>
-      <c r="C15" s="75"/>
+      <c r="B15" s="73"/>
+      <c r="C15" s="73"/>
       <c r="D15" s="42" t="s">
         <v>119</v>
       </c>
@@ -1586,95 +1591,95 @@
       </c>
     </row>
     <row r="18" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="67" t="s">
+      <c r="A18" s="70" t="s">
         <v>27</v>
       </c>
-      <c r="B18" s="89"/>
-      <c r="C18" s="68"/>
-      <c r="D18" s="86" t="s">
+      <c r="B18" s="71"/>
+      <c r="C18" s="72"/>
+      <c r="D18" s="67" t="s">
         <v>28</v>
       </c>
-      <c r="E18" s="86"/>
-      <c r="F18" s="86" t="s">
+      <c r="E18" s="67"/>
+      <c r="F18" s="67" t="s">
         <v>29</v>
       </c>
-      <c r="G18" s="86"/>
+      <c r="G18" s="67"/>
       <c r="H18" s="11"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="69" t="s">
+      <c r="A19" s="74" t="s">
         <v>30</v>
       </c>
-      <c r="B19" s="70"/>
-      <c r="C19" s="71"/>
-      <c r="D19" s="87" t="s">
+      <c r="B19" s="75"/>
+      <c r="C19" s="76"/>
+      <c r="D19" s="68" t="s">
         <v>44</v>
       </c>
-      <c r="E19" s="87"/>
-      <c r="F19" s="67" t="s">
+      <c r="E19" s="68"/>
+      <c r="F19" s="70" t="s">
         <v>31</v>
       </c>
-      <c r="G19" s="68"/>
+      <c r="G19" s="72"/>
       <c r="H19" s="8"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="90" t="s">
+      <c r="A20" s="77" t="s">
         <v>32</v>
       </c>
-      <c r="B20" s="90"/>
-      <c r="C20" s="90"/>
-      <c r="D20" s="87" t="s">
+      <c r="B20" s="77"/>
+      <c r="C20" s="77"/>
+      <c r="D20" s="68" t="s">
         <v>45</v>
       </c>
-      <c r="E20" s="87"/>
-      <c r="F20" s="67" t="s">
+      <c r="E20" s="68"/>
+      <c r="F20" s="70" t="s">
         <v>33</v>
       </c>
-      <c r="G20" s="68"/>
+      <c r="G20" s="72"/>
       <c r="H20" s="8"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="69" t="s">
+      <c r="A21" s="74" t="s">
         <v>34</v>
       </c>
-      <c r="B21" s="70"/>
-      <c r="C21" s="71"/>
-      <c r="D21" s="78" t="s">
+      <c r="B21" s="75"/>
+      <c r="C21" s="76"/>
+      <c r="D21" s="84" t="s">
         <v>46</v>
       </c>
-      <c r="E21" s="79"/>
-      <c r="F21" s="67" t="s">
+      <c r="E21" s="85"/>
+      <c r="F21" s="70" t="s">
         <v>35</v>
       </c>
-      <c r="G21" s="68"/>
+      <c r="G21" s="72"/>
       <c r="H21" s="8"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="69" t="s">
+      <c r="A22" s="74" t="s">
         <v>36</v>
       </c>
-      <c r="B22" s="70"/>
-      <c r="C22" s="71"/>
-      <c r="D22" s="82"/>
-      <c r="E22" s="83"/>
-      <c r="F22" s="67" t="s">
+      <c r="B22" s="75"/>
+      <c r="C22" s="76"/>
+      <c r="D22" s="78"/>
+      <c r="E22" s="79"/>
+      <c r="F22" s="70" t="s">
         <v>37</v>
       </c>
-      <c r="G22" s="68"/>
+      <c r="G22" s="72"/>
       <c r="H22" s="8"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="69" t="s">
+      <c r="A23" s="74" t="s">
         <v>5</v>
       </c>
-      <c r="B23" s="70"/>
-      <c r="C23" s="71"/>
-      <c r="D23" s="82"/>
-      <c r="E23" s="83"/>
-      <c r="F23" s="67" t="s">
+      <c r="B23" s="75"/>
+      <c r="C23" s="76"/>
+      <c r="D23" s="78"/>
+      <c r="E23" s="79"/>
+      <c r="F23" s="70" t="s">
         <v>38</v>
       </c>
-      <c r="G23" s="68"/>
+      <c r="G23" s="72"/>
       <c r="H23" s="8"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -1744,50 +1749,50 @@
       <c r="H30" s="10"/>
     </row>
     <row r="31" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="64" t="s">
+      <c r="A31" s="60" t="s">
+        <v>126</v>
+      </c>
+      <c r="B31" s="60" t="s">
+        <v>132</v>
+      </c>
+      <c r="C31" s="60"/>
+      <c r="D31" s="60" t="s">
+        <v>4</v>
+      </c>
+      <c r="E31" s="60"/>
+      <c r="F31" s="60" t="s">
+        <v>158</v>
+      </c>
+      <c r="G31" s="60"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="60"/>
+      <c r="B32" s="60"/>
+      <c r="C32" s="60"/>
+      <c r="D32" s="60"/>
+      <c r="E32" s="60"/>
+      <c r="F32" s="53" t="s">
+        <v>159</v>
+      </c>
+      <c r="G32" s="53" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="60" t="s">
         <v>127</v>
-      </c>
-      <c r="B31" s="64" t="s">
-        <v>133</v>
-      </c>
-      <c r="C31" s="64"/>
-      <c r="D31" s="64" t="s">
-        <v>4</v>
-      </c>
-      <c r="E31" s="64"/>
-      <c r="F31" s="64" t="s">
-        <v>159</v>
-      </c>
-      <c r="G31" s="64"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="64"/>
-      <c r="B32" s="64"/>
-      <c r="C32" s="64"/>
-      <c r="D32" s="64"/>
-      <c r="E32" s="64"/>
-      <c r="F32" s="53" t="s">
-        <v>160</v>
-      </c>
-      <c r="G32" s="53" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="64" t="s">
-        <v>128</v>
       </c>
       <c r="B33" s="54">
         <v>100</v>
       </c>
-      <c r="C33" s="76" t="s">
-        <v>125</v>
+      <c r="C33" s="61" t="s">
+        <v>124</v>
       </c>
       <c r="D33" s="56" t="s">
         <v>49</v>
       </c>
-      <c r="E33" s="76" t="s">
-        <v>125</v>
+      <c r="E33" s="61" t="s">
+        <v>124</v>
       </c>
       <c r="F33" s="13">
         <f>100-0.0155</f>
@@ -1799,15 +1804,15 @@
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="64"/>
+      <c r="A34" s="60"/>
       <c r="B34" s="54">
         <v>-100</v>
       </c>
-      <c r="C34" s="76"/>
+      <c r="C34" s="61"/>
       <c r="D34" s="56" t="s">
         <v>50</v>
       </c>
-      <c r="E34" s="76"/>
+      <c r="E34" s="61"/>
       <c r="F34" s="13">
         <f>-100-0.0155</f>
         <v>-100.0155</v>
@@ -1818,20 +1823,20 @@
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="64" t="s">
-        <v>129</v>
+      <c r="A35" s="60" t="s">
+        <v>128</v>
       </c>
       <c r="B35" s="54">
         <v>1</v>
       </c>
-      <c r="C35" s="76" t="s">
-        <v>126</v>
+      <c r="C35" s="61" t="s">
+        <v>125</v>
       </c>
       <c r="D35" s="56" t="s">
         <v>51</v>
       </c>
-      <c r="E35" s="77" t="s">
-        <v>126</v>
+      <c r="E35" s="64" t="s">
+        <v>125</v>
       </c>
       <c r="F35" s="50">
         <f>1-0.00009</f>
@@ -1843,15 +1848,15 @@
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="64"/>
+      <c r="A36" s="60"/>
       <c r="B36" s="54">
         <v>-1</v>
       </c>
-      <c r="C36" s="76"/>
+      <c r="C36" s="61"/>
       <c r="D36" s="56" t="s">
         <v>52</v>
       </c>
-      <c r="E36" s="77"/>
+      <c r="E36" s="64"/>
       <c r="F36" s="50">
         <f>-1-0.00009</f>
         <v>-1.0000899999999999</v>
@@ -1862,17 +1867,17 @@
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="64" t="s">
-        <v>130</v>
+      <c r="A37" s="60" t="s">
+        <v>129</v>
       </c>
       <c r="B37" s="54">
         <v>4</v>
       </c>
-      <c r="C37" s="76"/>
+      <c r="C37" s="61"/>
       <c r="D37" s="56" t="s">
         <v>53</v>
       </c>
-      <c r="E37" s="77"/>
+      <c r="E37" s="64"/>
       <c r="F37" s="50">
         <f>4-0.00035</f>
         <v>3.9996499999999999</v>
@@ -1883,15 +1888,15 @@
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="64"/>
+      <c r="A38" s="60"/>
       <c r="B38" s="54">
         <v>10</v>
       </c>
-      <c r="C38" s="76"/>
+      <c r="C38" s="61"/>
       <c r="D38" s="56" t="s">
         <v>54</v>
       </c>
-      <c r="E38" s="77"/>
+      <c r="E38" s="64"/>
       <c r="F38" s="13">
         <f>10-0.0008</f>
         <v>9.9992000000000001</v>
@@ -1902,15 +1907,15 @@
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="64"/>
+      <c r="A39" s="60"/>
       <c r="B39" s="54">
         <v>-10</v>
       </c>
-      <c r="C39" s="76"/>
+      <c r="C39" s="61"/>
       <c r="D39" s="56" t="s">
         <v>55</v>
       </c>
-      <c r="E39" s="77"/>
+      <c r="E39" s="64"/>
       <c r="F39" s="13">
         <f>-10-0.0008</f>
         <v>-10.0008</v>
@@ -1921,17 +1926,17 @@
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="64" t="s">
-        <v>131</v>
+      <c r="A40" s="60" t="s">
+        <v>130</v>
       </c>
       <c r="B40" s="54">
         <v>100</v>
       </c>
-      <c r="C40" s="76"/>
+      <c r="C40" s="61"/>
       <c r="D40" s="56" t="s">
         <v>56</v>
       </c>
-      <c r="E40" s="77"/>
+      <c r="E40" s="64"/>
       <c r="F40" s="13">
         <f>100-0.0091</f>
         <v>99.990899999999996</v>
@@ -1942,15 +1947,15 @@
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="64"/>
+      <c r="A41" s="60"/>
       <c r="B41" s="54">
         <v>-100</v>
       </c>
-      <c r="C41" s="76"/>
+      <c r="C41" s="61"/>
       <c r="D41" s="56" t="s">
         <v>57</v>
       </c>
-      <c r="E41" s="77"/>
+      <c r="E41" s="64"/>
       <c r="F41" s="13">
         <f>-100-0.0091</f>
         <v>-100.0091</v>
@@ -1961,17 +1966,17 @@
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="72" t="s">
-        <v>132</v>
+      <c r="A42" s="86" t="s">
+        <v>131</v>
       </c>
       <c r="B42" s="54">
         <v>1000</v>
       </c>
-      <c r="C42" s="76"/>
+      <c r="C42" s="61"/>
       <c r="D42" s="56" t="s">
         <v>58</v>
       </c>
-      <c r="E42" s="77"/>
+      <c r="E42" s="64"/>
       <c r="F42" s="14">
         <f>1000-0.095</f>
         <v>999.90499999999997</v>
@@ -1982,15 +1987,15 @@
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="72"/>
+      <c r="A43" s="86"/>
       <c r="B43" s="54">
         <v>-500</v>
       </c>
-      <c r="C43" s="76"/>
+      <c r="C43" s="61"/>
       <c r="D43" s="56" t="s">
         <v>59</v>
       </c>
-      <c r="E43" s="77"/>
+      <c r="E43" s="64"/>
       <c r="F43" s="13">
         <f>-500-0.0525</f>
         <v>-500.05250000000001</v>
@@ -2013,48 +2018,48 @@
       <c r="H45" s="10"/>
     </row>
     <row r="46" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="64" t="s">
+      <c r="A46" s="60" t="s">
+        <v>126</v>
+      </c>
+      <c r="B46" s="60" t="s">
+        <v>134</v>
+      </c>
+      <c r="C46" s="60"/>
+      <c r="D46" s="60" t="s">
+        <v>5</v>
+      </c>
+      <c r="E46" s="60" t="s">
+        <v>4</v>
+      </c>
+      <c r="F46" s="60"/>
+      <c r="G46" s="60" t="s">
+        <v>158</v>
+      </c>
+      <c r="H46" s="60"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="60"/>
+      <c r="B47" s="60"/>
+      <c r="C47" s="60"/>
+      <c r="D47" s="60"/>
+      <c r="E47" s="60"/>
+      <c r="F47" s="60"/>
+      <c r="G47" s="53" t="s">
+        <v>159</v>
+      </c>
+      <c r="H47" s="53" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="89" t="s">
         <v>127</v>
       </c>
-      <c r="B46" s="64" t="s">
-        <v>135</v>
-      </c>
-      <c r="C46" s="64"/>
-      <c r="D46" s="64" t="s">
-        <v>5</v>
-      </c>
-      <c r="E46" s="64" t="s">
-        <v>4</v>
-      </c>
-      <c r="F46" s="64"/>
-      <c r="G46" s="64" t="s">
-        <v>159</v>
-      </c>
-      <c r="H46" s="64"/>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="64"/>
-      <c r="B47" s="64"/>
-      <c r="C47" s="64"/>
-      <c r="D47" s="64"/>
-      <c r="E47" s="64"/>
-      <c r="F47" s="64"/>
-      <c r="G47" s="53" t="s">
-        <v>160</v>
-      </c>
-      <c r="H47" s="53" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="74" t="s">
-        <v>128</v>
-      </c>
-      <c r="B48" s="73">
+      <c r="B48" s="87">
         <v>100</v>
       </c>
-      <c r="C48" s="63" t="s">
-        <v>125</v>
+      <c r="C48" s="88" t="s">
+        <v>124</v>
       </c>
       <c r="D48" s="52" t="s">
         <v>18</v>
@@ -2062,8 +2067,8 @@
       <c r="E48" s="57" t="s">
         <v>60</v>
       </c>
-      <c r="F48" s="63" t="s">
-        <v>125</v>
+      <c r="F48" s="88" t="s">
+        <v>124</v>
       </c>
       <c r="G48" s="50">
         <f>100-0.12</f>
@@ -2075,16 +2080,16 @@
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="74"/>
-      <c r="B49" s="73"/>
-      <c r="C49" s="63"/>
+      <c r="A49" s="89"/>
+      <c r="B49" s="87"/>
+      <c r="C49" s="88"/>
       <c r="D49" s="52" t="s">
         <v>20</v>
       </c>
       <c r="E49" s="57" t="s">
         <v>61</v>
       </c>
-      <c r="F49" s="63"/>
+      <c r="F49" s="88"/>
       <c r="G49" s="13">
         <f>100-0.2</f>
         <v>99.8</v>
@@ -2095,16 +2100,16 @@
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="74"/>
-      <c r="B50" s="73"/>
-      <c r="C50" s="63"/>
+      <c r="A50" s="89"/>
+      <c r="B50" s="87"/>
+      <c r="C50" s="88"/>
       <c r="D50" s="52" t="s">
         <v>25</v>
       </c>
       <c r="E50" s="57" t="s">
         <v>62</v>
       </c>
-      <c r="F50" s="63"/>
+      <c r="F50" s="88"/>
       <c r="G50" s="13">
         <f>100-4.5</f>
         <v>95.5</v>
@@ -2115,14 +2120,14 @@
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="65" t="s">
-        <v>129</v>
-      </c>
-      <c r="B51" s="73">
+      <c r="A51" s="63" t="s">
+        <v>128</v>
+      </c>
+      <c r="B51" s="87">
         <v>1</v>
       </c>
-      <c r="C51" s="63" t="s">
-        <v>126</v>
+      <c r="C51" s="88" t="s">
+        <v>125</v>
       </c>
       <c r="D51" s="52" t="s">
         <v>18</v>
@@ -2130,8 +2135,8 @@
       <c r="E51" s="57" t="s">
         <v>63</v>
       </c>
-      <c r="F51" s="63" t="s">
-        <v>126</v>
+      <c r="F51" s="88" t="s">
+        <v>125</v>
       </c>
       <c r="G51" s="13">
         <f>1-0.0012</f>
@@ -2143,16 +2148,16 @@
       </c>
     </row>
     <row r="52" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="65"/>
-      <c r="B52" s="73"/>
-      <c r="C52" s="63"/>
+      <c r="A52" s="63"/>
+      <c r="B52" s="87"/>
+      <c r="C52" s="88"/>
       <c r="D52" s="52" t="s">
         <v>20</v>
       </c>
       <c r="E52" s="57" t="s">
         <v>64</v>
       </c>
-      <c r="F52" s="63"/>
+      <c r="F52" s="88"/>
       <c r="G52" s="14">
         <f>1-0.002</f>
         <v>0.998</v>
@@ -2163,16 +2168,16 @@
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="65"/>
-      <c r="B53" s="73"/>
-      <c r="C53" s="63"/>
+      <c r="A53" s="63"/>
+      <c r="B53" s="87"/>
+      <c r="C53" s="88"/>
       <c r="D53" s="52" t="s">
         <v>25</v>
       </c>
       <c r="E53" s="57" t="s">
         <v>65</v>
       </c>
-      <c r="F53" s="63"/>
+      <c r="F53" s="88"/>
       <c r="G53" s="14">
         <f>1-0.045</f>
         <v>0.95499999999999996</v>
@@ -2183,23 +2188,23 @@
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="65" t="s">
-        <v>130</v>
+      <c r="A54" s="63" t="s">
+        <v>129</v>
       </c>
       <c r="B54" s="52">
         <v>30</v>
       </c>
       <c r="C54" s="52" t="s">
-        <v>125</v>
-      </c>
-      <c r="D54" s="66" t="s">
+        <v>124</v>
+      </c>
+      <c r="D54" s="82" t="s">
         <v>18</v>
       </c>
       <c r="E54" s="57" t="s">
         <v>66</v>
       </c>
       <c r="F54" s="52" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G54" s="14">
         <f>30-0.003</f>
@@ -2211,19 +2216,19 @@
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" s="65"/>
+      <c r="A55" s="63"/>
       <c r="B55" s="52">
         <v>1</v>
       </c>
-      <c r="C55" s="66" t="s">
-        <v>126</v>
-      </c>
-      <c r="D55" s="66"/>
+      <c r="C55" s="82" t="s">
+        <v>125</v>
+      </c>
+      <c r="D55" s="82"/>
       <c r="E55" s="57" t="s">
         <v>67</v>
       </c>
-      <c r="F55" s="66" t="s">
-        <v>126</v>
+      <c r="F55" s="82" t="s">
+        <v>125</v>
       </c>
       <c r="G55" s="13">
         <f>1-0.0039</f>
@@ -2235,18 +2240,18 @@
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56" s="65"/>
-      <c r="B56" s="66">
+      <c r="A56" s="63"/>
+      <c r="B56" s="82">
         <v>10</v>
       </c>
-      <c r="C56" s="66"/>
+      <c r="C56" s="82"/>
       <c r="D56" s="52" t="s">
         <v>19</v>
       </c>
       <c r="E56" s="57" t="s">
         <v>68</v>
       </c>
-      <c r="F56" s="66"/>
+      <c r="F56" s="82"/>
       <c r="G56" s="14">
         <f>10-0.012</f>
         <v>9.9879999999999995</v>
@@ -2257,16 +2262,16 @@
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" s="65"/>
-      <c r="B57" s="66"/>
-      <c r="C57" s="66"/>
+      <c r="A57" s="63"/>
+      <c r="B57" s="82"/>
+      <c r="C57" s="82"/>
       <c r="D57" s="52" t="s">
         <v>22</v>
       </c>
       <c r="E57" s="57" t="s">
         <v>69</v>
       </c>
-      <c r="F57" s="66"/>
+      <c r="F57" s="82"/>
       <c r="G57" s="14">
         <f>10-0.012</f>
         <v>9.9879999999999995</v>
@@ -2277,16 +2282,16 @@
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58" s="65"/>
-      <c r="B58" s="66"/>
-      <c r="C58" s="66"/>
+      <c r="A58" s="63"/>
+      <c r="B58" s="82"/>
+      <c r="C58" s="82"/>
       <c r="D58" s="52" t="s">
         <v>23</v>
       </c>
       <c r="E58" s="57" t="s">
         <v>70</v>
       </c>
-      <c r="F58" s="66"/>
+      <c r="F58" s="82"/>
       <c r="G58" s="14">
         <f>10-0.012</f>
         <v>9.9879999999999995</v>
@@ -2297,16 +2302,16 @@
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" s="65"/>
-      <c r="B59" s="66"/>
-      <c r="C59" s="66"/>
+      <c r="A59" s="63"/>
+      <c r="B59" s="82"/>
+      <c r="C59" s="82"/>
       <c r="D59" s="52" t="s">
         <v>20</v>
       </c>
       <c r="E59" s="57" t="s">
         <v>71</v>
       </c>
-      <c r="F59" s="66"/>
+      <c r="F59" s="82"/>
       <c r="G59" s="15">
         <f>10-0.02</f>
         <v>9.98</v>
@@ -2317,16 +2322,16 @@
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" s="65"/>
-      <c r="B60" s="66"/>
-      <c r="C60" s="66"/>
+      <c r="A60" s="63"/>
+      <c r="B60" s="82"/>
+      <c r="C60" s="82"/>
       <c r="D60" s="52" t="s">
         <v>24</v>
       </c>
       <c r="E60" s="57" t="s">
         <v>72</v>
       </c>
-      <c r="F60" s="66"/>
+      <c r="F60" s="82"/>
       <c r="G60" s="14">
         <f>10-0.071</f>
         <v>9.9290000000000003</v>
@@ -2337,16 +2342,16 @@
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" s="65"/>
-      <c r="B61" s="66"/>
-      <c r="C61" s="66"/>
+      <c r="A61" s="63"/>
+      <c r="B61" s="82"/>
+      <c r="C61" s="82"/>
       <c r="D61" s="52" t="s">
         <v>25</v>
       </c>
       <c r="E61" s="57" t="s">
         <v>73</v>
       </c>
-      <c r="F61" s="66"/>
+      <c r="F61" s="82"/>
       <c r="G61" s="15">
         <f>10-0.45</f>
         <v>9.5500000000000007</v>
@@ -2357,14 +2362,14 @@
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" s="65" t="s">
-        <v>131</v>
-      </c>
-      <c r="B62" s="66">
+      <c r="A62" s="63" t="s">
+        <v>130</v>
+      </c>
+      <c r="B62" s="82">
         <v>100</v>
       </c>
-      <c r="C62" s="66" t="s">
-        <v>126</v>
+      <c r="C62" s="82" t="s">
+        <v>125</v>
       </c>
       <c r="D62" s="52" t="s">
         <v>18</v>
@@ -2372,8 +2377,8 @@
       <c r="E62" s="57" t="s">
         <v>74</v>
       </c>
-      <c r="F62" s="66" t="s">
-        <v>126</v>
+      <c r="F62" s="82" t="s">
+        <v>125</v>
       </c>
       <c r="G62" s="15">
         <f>100-0.12</f>
@@ -2385,16 +2390,16 @@
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A63" s="65"/>
-      <c r="B63" s="66"/>
-      <c r="C63" s="66"/>
+      <c r="A63" s="63"/>
+      <c r="B63" s="82"/>
+      <c r="C63" s="82"/>
       <c r="D63" s="52" t="s">
         <v>20</v>
       </c>
       <c r="E63" s="57" t="s">
         <v>75</v>
       </c>
-      <c r="F63" s="66"/>
+      <c r="F63" s="82"/>
       <c r="G63" s="54">
         <f>100-0.2</f>
         <v>99.8</v>
@@ -2405,18 +2410,18 @@
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A64" s="65"/>
+      <c r="A64" s="63"/>
       <c r="B64" s="52">
         <v>70</v>
       </c>
-      <c r="C64" s="66"/>
+      <c r="C64" s="82"/>
       <c r="D64" s="52" t="s">
         <v>25</v>
       </c>
       <c r="E64" s="57" t="s">
         <v>76</v>
       </c>
-      <c r="F64" s="66"/>
+      <c r="F64" s="82"/>
       <c r="G64" s="54">
         <f>70-3.3</f>
         <v>66.7</v>
@@ -2427,14 +2432,14 @@
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A65" s="65" t="s">
-        <v>149</v>
+      <c r="A65" s="63" t="s">
+        <v>148</v>
       </c>
       <c r="B65" s="52">
         <v>750</v>
       </c>
-      <c r="C65" s="66" t="s">
-        <v>126</v>
+      <c r="C65" s="82" t="s">
+        <v>125</v>
       </c>
       <c r="D65" s="52" t="s">
         <v>18</v>
@@ -2442,8 +2447,8 @@
       <c r="E65" s="57" t="s">
         <v>77</v>
       </c>
-      <c r="F65" s="66" t="s">
-        <v>126</v>
+      <c r="F65" s="82" t="s">
+        <v>125</v>
       </c>
       <c r="G65" s="54">
         <f>750-0.9</f>
@@ -2455,18 +2460,18 @@
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A66" s="65"/>
+      <c r="A66" s="63"/>
       <c r="B66" s="52">
         <v>210</v>
       </c>
-      <c r="C66" s="66"/>
+      <c r="C66" s="82"/>
       <c r="D66" s="52" t="s">
         <v>20</v>
       </c>
       <c r="E66" s="57" t="s">
         <v>78</v>
       </c>
-      <c r="F66" s="66"/>
+      <c r="F66" s="82"/>
       <c r="G66" s="15">
         <f>210-0.69</f>
         <v>209.31</v>
@@ -2477,18 +2482,18 @@
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A67" s="65"/>
+      <c r="A67" s="63"/>
       <c r="B67" s="52">
         <v>70</v>
       </c>
-      <c r="C67" s="66"/>
+      <c r="C67" s="82"/>
       <c r="D67" s="52" t="s">
         <v>25</v>
       </c>
       <c r="E67" s="57" t="s">
         <v>79</v>
       </c>
-      <c r="F67" s="66"/>
+      <c r="F67" s="82"/>
       <c r="G67" s="54">
         <f>70-6.6</f>
         <v>63.4</v>
@@ -2517,50 +2522,50 @@
       <c r="F69" s="21"/>
     </row>
     <row r="70" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="64" t="s">
-        <v>127</v>
-      </c>
-      <c r="B70" s="64" t="s">
-        <v>135</v>
-      </c>
-      <c r="C70" s="64"/>
-      <c r="D70" s="64" t="s">
-        <v>145</v>
-      </c>
-      <c r="E70" s="64"/>
-      <c r="F70" s="64" t="s">
+      <c r="A70" s="60" t="s">
+        <v>126</v>
+      </c>
+      <c r="B70" s="60" t="s">
+        <v>134</v>
+      </c>
+      <c r="C70" s="60"/>
+      <c r="D70" s="60" t="s">
+        <v>144</v>
+      </c>
+      <c r="E70" s="60"/>
+      <c r="F70" s="60" t="s">
+        <v>158</v>
+      </c>
+      <c r="G70" s="60"/>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A71" s="60"/>
+      <c r="B71" s="60"/>
+      <c r="C71" s="60"/>
+      <c r="D71" s="60"/>
+      <c r="E71" s="60"/>
+      <c r="F71" s="53" t="s">
         <v>159</v>
       </c>
-      <c r="G70" s="64"/>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A71" s="64"/>
-      <c r="B71" s="64"/>
-      <c r="C71" s="64"/>
-      <c r="D71" s="64"/>
-      <c r="E71" s="64"/>
-      <c r="F71" s="53" t="s">
+      <c r="G71" s="53" t="s">
         <v>160</v>
-      </c>
-      <c r="G71" s="53" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="51" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B72" s="51">
         <v>100</v>
       </c>
       <c r="C72" s="55" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D72" s="57" t="s">
         <v>80</v>
       </c>
       <c r="E72" s="55" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F72" s="14">
         <f>100-0.075</f>
@@ -2573,19 +2578,19 @@
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="51" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B73" s="51">
         <v>1</v>
       </c>
-      <c r="C73" s="76" t="s">
-        <v>157</v>
+      <c r="C73" s="61" t="s">
+        <v>156</v>
       </c>
       <c r="D73" s="57" t="s">
         <v>81</v>
       </c>
-      <c r="E73" s="76" t="s">
-        <v>157</v>
+      <c r="E73" s="61" t="s">
+        <v>156</v>
       </c>
       <c r="F73" s="50">
         <f>1-0.00056</f>
@@ -2598,16 +2603,16 @@
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="51" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B74" s="51">
         <v>10</v>
       </c>
-      <c r="C74" s="76"/>
+      <c r="C74" s="61"/>
       <c r="D74" s="57" t="s">
         <v>82</v>
       </c>
-      <c r="E74" s="76"/>
+      <c r="E74" s="61"/>
       <c r="F74" s="14">
         <f>10-0.007</f>
         <v>9.9930000000000003</v>
@@ -2619,16 +2624,16 @@
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="51" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B75" s="51">
         <v>100</v>
       </c>
-      <c r="C75" s="76"/>
+      <c r="C75" s="61"/>
       <c r="D75" s="57" t="s">
         <v>83</v>
       </c>
-      <c r="E75" s="76"/>
+      <c r="E75" s="61"/>
       <c r="F75" s="14">
         <f>100-0.055</f>
         <v>99.944999999999993</v>
@@ -2640,19 +2645,19 @@
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="51" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B76" s="51">
         <v>1</v>
       </c>
-      <c r="C76" s="76" t="s">
-        <v>150</v>
+      <c r="C76" s="61" t="s">
+        <v>149</v>
       </c>
       <c r="D76" s="57" t="s">
         <v>84</v>
       </c>
-      <c r="E76" s="76" t="s">
-        <v>150</v>
+      <c r="E76" s="61" t="s">
+        <v>149</v>
       </c>
       <c r="F76" s="13">
         <f>1-0.0011</f>
@@ -2665,16 +2670,16 @@
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="51" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B77" s="51">
         <v>2</v>
       </c>
-      <c r="C77" s="76"/>
+      <c r="C77" s="61"/>
       <c r="D77" s="57" t="s">
         <v>85</v>
       </c>
-      <c r="E77" s="76"/>
+      <c r="E77" s="61"/>
       <c r="F77" s="13">
         <f>2-0.0046</f>
         <v>1.9954000000000001</v>
@@ -2703,48 +2708,48 @@
       <c r="F79" s="21"/>
     </row>
     <row r="80" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="64" t="s">
-        <v>127</v>
-      </c>
-      <c r="B80" s="64" t="s">
-        <v>135</v>
-      </c>
-      <c r="C80" s="64"/>
-      <c r="D80" s="64" t="s">
+      <c r="A80" s="60" t="s">
+        <v>126</v>
+      </c>
+      <c r="B80" s="60" t="s">
+        <v>134</v>
+      </c>
+      <c r="C80" s="60"/>
+      <c r="D80" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="E80" s="64" t="s">
+      <c r="E80" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="F80" s="64"/>
-      <c r="G80" s="64" t="s">
+      <c r="F80" s="60"/>
+      <c r="G80" s="60" t="s">
+        <v>158</v>
+      </c>
+      <c r="H80" s="60"/>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A81" s="60"/>
+      <c r="B81" s="60"/>
+      <c r="C81" s="60"/>
+      <c r="D81" s="60"/>
+      <c r="E81" s="60"/>
+      <c r="F81" s="60"/>
+      <c r="G81" s="53" t="s">
         <v>159</v>
       </c>
-      <c r="H80" s="64"/>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A81" s="64"/>
-      <c r="B81" s="64"/>
-      <c r="C81" s="64"/>
-      <c r="D81" s="64"/>
-      <c r="E81" s="64"/>
-      <c r="F81" s="64"/>
-      <c r="G81" s="53" t="s">
+      <c r="H81" s="53" t="s">
         <v>160</v>
       </c>
-      <c r="H81" s="53" t="s">
-        <v>161</v>
-      </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A82" s="65" t="s">
-        <v>156</v>
-      </c>
-      <c r="B82" s="65">
+      <c r="A82" s="63" t="s">
+        <v>155</v>
+      </c>
+      <c r="B82" s="63">
         <v>100</v>
       </c>
-      <c r="C82" s="76" t="s">
-        <v>158</v>
+      <c r="C82" s="61" t="s">
+        <v>157</v>
       </c>
       <c r="D82" s="52" t="s">
         <v>18</v>
@@ -2752,41 +2757,41 @@
       <c r="E82" s="57" t="s">
         <v>86</v>
       </c>
-      <c r="F82" s="76" t="s">
-        <v>158</v>
-      </c>
-      <c r="G82" s="84">
+      <c r="F82" s="61" t="s">
+        <v>157</v>
+      </c>
+      <c r="G82" s="62">
         <f>100-0.14</f>
         <v>99.86</v>
       </c>
-      <c r="H82" s="84">
+      <c r="H82" s="62">
         <f>100+0.14</f>
         <v>100.14</v>
       </c>
     </row>
     <row r="83" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="65"/>
-      <c r="B83" s="65"/>
-      <c r="C83" s="76"/>
+      <c r="A83" s="63"/>
+      <c r="B83" s="63"/>
+      <c r="C83" s="61"/>
       <c r="D83" s="52" t="s">
         <v>26</v>
       </c>
       <c r="E83" s="57" t="s">
         <v>87</v>
       </c>
-      <c r="F83" s="76"/>
-      <c r="G83" s="84"/>
-      <c r="H83" s="84"/>
+      <c r="F83" s="61"/>
+      <c r="G83" s="62"/>
+      <c r="H83" s="62"/>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A84" s="65" t="s">
-        <v>155</v>
-      </c>
-      <c r="B84" s="65">
+      <c r="A84" s="63" t="s">
+        <v>154</v>
+      </c>
+      <c r="B84" s="63">
         <v>1</v>
       </c>
-      <c r="C84" s="66" t="s">
-        <v>157</v>
+      <c r="C84" s="82" t="s">
+        <v>156</v>
       </c>
       <c r="D84" s="52" t="s">
         <v>18</v>
@@ -2794,50 +2799,50 @@
       <c r="E84" s="57" t="s">
         <v>88</v>
       </c>
-      <c r="F84" s="66" t="s">
-        <v>157</v>
-      </c>
-      <c r="G84" s="77">
+      <c r="F84" s="82" t="s">
+        <v>156</v>
+      </c>
+      <c r="G84" s="64">
         <f>1-0.0014</f>
         <v>0.99860000000000004</v>
       </c>
-      <c r="H84" s="65">
+      <c r="H84" s="63">
         <f>1+0.0014</f>
         <v>1.0014000000000001</v>
       </c>
     </row>
     <row r="85" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="65"/>
-      <c r="B85" s="65"/>
-      <c r="C85" s="66"/>
+      <c r="A85" s="63"/>
+      <c r="B85" s="63"/>
+      <c r="C85" s="82"/>
       <c r="D85" s="52" t="s">
         <v>26</v>
       </c>
       <c r="E85" s="57" t="s">
         <v>89</v>
       </c>
-      <c r="F85" s="66"/>
-      <c r="G85" s="77"/>
-      <c r="H85" s="65"/>
+      <c r="F85" s="82"/>
+      <c r="G85" s="64"/>
+      <c r="H85" s="63"/>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A86" s="65" t="s">
-        <v>154</v>
+      <c r="A86" s="63" t="s">
+        <v>153</v>
       </c>
       <c r="B86" s="51">
         <v>100</v>
       </c>
       <c r="C86" s="52" t="s">
-        <v>158</v>
-      </c>
-      <c r="D86" s="66" t="s">
+        <v>157</v>
+      </c>
+      <c r="D86" s="82" t="s">
         <v>18</v>
       </c>
       <c r="E86" s="57" t="s">
         <v>90</v>
       </c>
       <c r="F86" s="52" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G86" s="54">
         <f>100-4.1</f>
@@ -2849,19 +2854,19 @@
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A87" s="65"/>
+      <c r="A87" s="63"/>
       <c r="B87" s="51">
         <v>1</v>
       </c>
-      <c r="C87" s="66" t="s">
-        <v>157</v>
-      </c>
-      <c r="D87" s="66"/>
+      <c r="C87" s="82" t="s">
+        <v>156</v>
+      </c>
+      <c r="D87" s="82"/>
       <c r="E87" s="57" t="s">
         <v>91</v>
       </c>
-      <c r="F87" s="66" t="s">
-        <v>157</v>
+      <c r="F87" s="82" t="s">
+        <v>156</v>
       </c>
       <c r="G87" s="14">
         <f>1-0.005</f>
@@ -2873,48 +2878,48 @@
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A88" s="65"/>
-      <c r="B88" s="65">
+      <c r="A88" s="63"/>
+      <c r="B88" s="63">
         <v>10</v>
       </c>
-      <c r="C88" s="66"/>
-      <c r="D88" s="66"/>
+      <c r="C88" s="82"/>
+      <c r="D88" s="82"/>
       <c r="E88" s="57" t="s">
         <v>92</v>
       </c>
-      <c r="F88" s="66"/>
-      <c r="G88" s="92">
+      <c r="F88" s="82"/>
+      <c r="G88" s="65">
         <f>10-0.014</f>
         <v>9.9860000000000007</v>
       </c>
-      <c r="H88" s="65">
+      <c r="H88" s="63">
         <f>10+0.014</f>
         <v>10.013999999999999</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A89" s="65"/>
-      <c r="B89" s="65"/>
-      <c r="C89" s="66"/>
+      <c r="A89" s="63"/>
+      <c r="B89" s="63"/>
+      <c r="C89" s="82"/>
       <c r="D89" s="52" t="s">
         <v>26</v>
       </c>
       <c r="E89" s="57" t="s">
         <v>93</v>
       </c>
-      <c r="F89" s="66"/>
-      <c r="G89" s="92"/>
-      <c r="H89" s="65"/>
+      <c r="F89" s="82"/>
+      <c r="G89" s="65"/>
+      <c r="H89" s="63"/>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A90" s="65" t="s">
-        <v>153</v>
-      </c>
-      <c r="B90" s="66">
+      <c r="A90" s="63" t="s">
+        <v>152</v>
+      </c>
+      <c r="B90" s="82">
         <v>100</v>
       </c>
-      <c r="C90" s="66" t="s">
-        <v>157</v>
+      <c r="C90" s="82" t="s">
+        <v>156</v>
       </c>
       <c r="D90" s="52" t="s">
         <v>19</v>
@@ -2922,55 +2927,55 @@
       <c r="E90" s="57" t="s">
         <v>94</v>
       </c>
-      <c r="F90" s="66" t="s">
-        <v>157</v>
-      </c>
-      <c r="G90" s="84">
+      <c r="F90" s="82" t="s">
+        <v>156</v>
+      </c>
+      <c r="G90" s="62">
         <f>100-0.14</f>
         <v>99.86</v>
       </c>
-      <c r="H90" s="65">
+      <c r="H90" s="63">
         <f>100+0.14</f>
         <v>100.14</v>
       </c>
     </row>
     <row r="91" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="65"/>
-      <c r="B91" s="66"/>
-      <c r="C91" s="66"/>
+      <c r="A91" s="63"/>
+      <c r="B91" s="82"/>
+      <c r="C91" s="82"/>
       <c r="D91" s="52" t="s">
         <v>18</v>
       </c>
       <c r="E91" s="57" t="s">
         <v>95</v>
       </c>
-      <c r="F91" s="66"/>
-      <c r="G91" s="84"/>
-      <c r="H91" s="65"/>
+      <c r="F91" s="82"/>
+      <c r="G91" s="62"/>
+      <c r="H91" s="63"/>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A92" s="65"/>
-      <c r="B92" s="66"/>
-      <c r="C92" s="66"/>
+      <c r="A92" s="63"/>
+      <c r="B92" s="82"/>
+      <c r="C92" s="82"/>
       <c r="D92" s="52" t="s">
         <v>26</v>
       </c>
       <c r="E92" s="57" t="s">
         <v>96</v>
       </c>
-      <c r="F92" s="66"/>
-      <c r="G92" s="84"/>
-      <c r="H92" s="65"/>
+      <c r="F92" s="82"/>
+      <c r="G92" s="62"/>
+      <c r="H92" s="63"/>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A93" s="65" t="s">
-        <v>151</v>
-      </c>
-      <c r="B93" s="65">
+      <c r="A93" s="63" t="s">
+        <v>150</v>
+      </c>
+      <c r="B93" s="63">
         <v>1</v>
       </c>
-      <c r="C93" s="66" t="s">
-        <v>150</v>
+      <c r="C93" s="82" t="s">
+        <v>149</v>
       </c>
       <c r="D93" s="52" t="s">
         <v>18</v>
@@ -2978,41 +2983,41 @@
       <c r="E93" s="57" t="s">
         <v>97</v>
       </c>
-      <c r="F93" s="66" t="s">
-        <v>150</v>
-      </c>
-      <c r="G93" s="77">
+      <c r="F93" s="82" t="s">
+        <v>149</v>
+      </c>
+      <c r="G93" s="64">
         <f>1-0.0014</f>
         <v>0.99860000000000004</v>
       </c>
-      <c r="H93" s="65">
+      <c r="H93" s="63">
         <f>1+0.0014</f>
         <v>1.0014000000000001</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A94" s="65"/>
-      <c r="B94" s="65"/>
-      <c r="C94" s="66"/>
+      <c r="A94" s="63"/>
+      <c r="B94" s="63"/>
+      <c r="C94" s="82"/>
       <c r="D94" s="52" t="s">
         <v>26</v>
       </c>
       <c r="E94" s="57" t="s">
         <v>98</v>
       </c>
-      <c r="F94" s="66"/>
-      <c r="G94" s="77"/>
-      <c r="H94" s="65"/>
+      <c r="F94" s="82"/>
+      <c r="G94" s="64"/>
+      <c r="H94" s="63"/>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A95" s="65" t="s">
-        <v>152</v>
-      </c>
-      <c r="B95" s="65">
+      <c r="A95" s="63" t="s">
+        <v>151</v>
+      </c>
+      <c r="B95" s="63">
         <v>2</v>
       </c>
-      <c r="C95" s="66" t="s">
-        <v>150</v>
+      <c r="C95" s="82" t="s">
+        <v>149</v>
       </c>
       <c r="D95" s="52" t="s">
         <v>18</v>
@@ -3020,31 +3025,31 @@
       <c r="E95" s="57" t="s">
         <v>99</v>
       </c>
-      <c r="F95" s="66" t="s">
-        <v>150</v>
-      </c>
-      <c r="G95" s="77">
+      <c r="F95" s="82" t="s">
+        <v>149</v>
+      </c>
+      <c r="G95" s="64">
         <f>2-0.0058</f>
         <v>1.9942</v>
       </c>
-      <c r="H95" s="65">
+      <c r="H95" s="63">
         <f>2+0.0058</f>
         <v>2.0057999999999998</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A96" s="65"/>
-      <c r="B96" s="65"/>
-      <c r="C96" s="66"/>
+      <c r="A96" s="63"/>
+      <c r="B96" s="63"/>
+      <c r="C96" s="82"/>
       <c r="D96" s="52" t="s">
         <v>26</v>
       </c>
       <c r="E96" s="57" t="s">
         <v>100</v>
       </c>
-      <c r="F96" s="66"/>
-      <c r="G96" s="77"/>
-      <c r="H96" s="65"/>
+      <c r="F96" s="82"/>
+      <c r="G96" s="64"/>
+      <c r="H96" s="63"/>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" s="16"/>
@@ -3065,57 +3070,57 @@
       <c r="F98" s="21"/>
     </row>
     <row r="99" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="64" t="s">
-        <v>127</v>
-      </c>
-      <c r="B99" s="81" t="s">
-        <v>135</v>
-      </c>
-      <c r="C99" s="64" t="s">
+      <c r="A99" s="60" t="s">
+        <v>126</v>
+      </c>
+      <c r="B99" s="83" t="s">
+        <v>134</v>
+      </c>
+      <c r="C99" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="D99" s="64"/>
-      <c r="E99" s="64" t="s">
+      <c r="D99" s="60"/>
+      <c r="E99" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="F99" s="64"/>
-      <c r="G99" s="64" t="s">
+      <c r="F99" s="60"/>
+      <c r="G99" s="60" t="s">
+        <v>158</v>
+      </c>
+      <c r="H99" s="60"/>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A100" s="60"/>
+      <c r="B100" s="83"/>
+      <c r="C100" s="60"/>
+      <c r="D100" s="60"/>
+      <c r="E100" s="60"/>
+      <c r="F100" s="60"/>
+      <c r="G100" s="53" t="s">
         <v>159</v>
       </c>
-      <c r="H99" s="64"/>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A100" s="64"/>
-      <c r="B100" s="81"/>
-      <c r="C100" s="64"/>
-      <c r="D100" s="64"/>
-      <c r="E100" s="64"/>
-      <c r="F100" s="64"/>
-      <c r="G100" s="53" t="s">
+      <c r="H100" s="53" t="s">
         <v>160</v>
-      </c>
-      <c r="H100" s="53" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" s="53" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B101" s="53" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C101" s="27">
         <v>10</v>
       </c>
       <c r="D101" s="55" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E101" s="57" t="s">
         <v>101</v>
       </c>
       <c r="F101" s="55" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G101" s="14">
         <f>10-0.003</f>
@@ -3128,22 +3133,22 @@
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" s="53" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B102" s="53" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C102" s="27">
         <v>300</v>
       </c>
       <c r="D102" s="55" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E102" s="57" t="s">
         <v>102</v>
       </c>
       <c r="F102" s="55" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G102" s="15">
         <f>300-0.36</f>
@@ -3185,50 +3190,50 @@
       <c r="H105" s="6"/>
     </row>
     <row r="106" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="64" t="s">
-        <v>127</v>
-      </c>
-      <c r="B106" s="64" t="s">
-        <v>135</v>
-      </c>
-      <c r="C106" s="64"/>
-      <c r="D106" s="64" t="s">
+      <c r="A106" s="60" t="s">
+        <v>126</v>
+      </c>
+      <c r="B106" s="60" t="s">
+        <v>134</v>
+      </c>
+      <c r="C106" s="60"/>
+      <c r="D106" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="E106" s="64"/>
-      <c r="F106" s="64" t="s">
+      <c r="E106" s="60"/>
+      <c r="F106" s="60" t="s">
+        <v>158</v>
+      </c>
+      <c r="G106" s="60"/>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A107" s="60"/>
+      <c r="B107" s="60"/>
+      <c r="C107" s="60"/>
+      <c r="D107" s="60"/>
+      <c r="E107" s="60"/>
+      <c r="F107" s="53" t="s">
         <v>159</v>
       </c>
-      <c r="G106" s="64"/>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A107" s="64"/>
-      <c r="B107" s="64"/>
-      <c r="C107" s="64"/>
-      <c r="D107" s="64"/>
-      <c r="E107" s="64"/>
-      <c r="F107" s="53" t="s">
+      <c r="G107" s="53" t="s">
         <v>160</v>
-      </c>
-      <c r="G107" s="53" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" s="27" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B108" s="27">
         <v>100</v>
       </c>
       <c r="C108" s="55" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D108" s="57" t="s">
         <v>103</v>
       </c>
       <c r="E108" s="55" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F108" s="14">
         <f>100-0.021</f>
@@ -3241,19 +3246,19 @@
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" s="27" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B109" s="27">
         <v>1</v>
       </c>
-      <c r="C109" s="76" t="s">
-        <v>148</v>
+      <c r="C109" s="61" t="s">
+        <v>147</v>
       </c>
       <c r="D109" s="57" t="s">
         <v>104</v>
       </c>
-      <c r="E109" s="76" t="s">
-        <v>148</v>
+      <c r="E109" s="61" t="s">
+        <v>147</v>
       </c>
       <c r="F109" s="50">
         <f>1-0.00015</f>
@@ -3266,16 +3271,16 @@
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" s="27" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B110" s="27">
         <v>10</v>
       </c>
-      <c r="C110" s="76"/>
+      <c r="C110" s="61"/>
       <c r="D110" s="57" t="s">
         <v>105</v>
       </c>
-      <c r="E110" s="76"/>
+      <c r="E110" s="61"/>
       <c r="F110" s="13">
         <f>10-0.0015</f>
         <v>9.9984999999999999</v>
@@ -3287,16 +3292,16 @@
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" s="27" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B111" s="27">
         <v>100</v>
       </c>
-      <c r="C111" s="76"/>
+      <c r="C111" s="61"/>
       <c r="D111" s="57" t="s">
         <v>106</v>
       </c>
-      <c r="E111" s="76"/>
+      <c r="E111" s="61"/>
       <c r="F111" s="14">
         <f>100-0.015</f>
         <v>99.984999999999999</v>
@@ -3327,50 +3332,50 @@
       <c r="H113" s="6"/>
     </row>
     <row r="114" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="64" t="s">
-        <v>127</v>
-      </c>
-      <c r="B114" s="64" t="s">
-        <v>135</v>
-      </c>
-      <c r="C114" s="64"/>
-      <c r="D114" s="64" t="s">
-        <v>145</v>
-      </c>
-      <c r="E114" s="64"/>
-      <c r="F114" s="64" t="s">
+      <c r="A114" s="60" t="s">
+        <v>126</v>
+      </c>
+      <c r="B114" s="60" t="s">
+        <v>134</v>
+      </c>
+      <c r="C114" s="60"/>
+      <c r="D114" s="60" t="s">
+        <v>144</v>
+      </c>
+      <c r="E114" s="60"/>
+      <c r="F114" s="60" t="s">
+        <v>158</v>
+      </c>
+      <c r="G114" s="60"/>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A115" s="60"/>
+      <c r="B115" s="60"/>
+      <c r="C115" s="60"/>
+      <c r="D115" s="60"/>
+      <c r="E115" s="60"/>
+      <c r="F115" s="53" t="s">
         <v>159</v>
       </c>
-      <c r="G114" s="64"/>
-    </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A115" s="64"/>
-      <c r="B115" s="64"/>
-      <c r="C115" s="64"/>
-      <c r="D115" s="64"/>
-      <c r="E115" s="64"/>
-      <c r="F115" s="53" t="s">
+      <c r="G115" s="53" t="s">
         <v>160</v>
-      </c>
-      <c r="G115" s="53" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" s="27" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B116" s="27">
         <v>1</v>
       </c>
-      <c r="C116" s="76" t="s">
-        <v>146</v>
+      <c r="C116" s="61" t="s">
+        <v>145</v>
       </c>
       <c r="D116" s="57" t="s">
         <v>107</v>
       </c>
-      <c r="E116" s="76" t="s">
-        <v>146</v>
+      <c r="E116" s="61" t="s">
+        <v>145</v>
       </c>
       <c r="F116" s="50">
         <f>1-0.00015</f>
@@ -3383,16 +3388,16 @@
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" s="27" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B117" s="27">
         <v>10</v>
       </c>
-      <c r="C117" s="76"/>
+      <c r="C117" s="61"/>
       <c r="D117" s="57" t="s">
         <v>108</v>
       </c>
-      <c r="E117" s="76"/>
+      <c r="E117" s="61"/>
       <c r="F117" s="13">
         <f>10-0.0041</f>
         <v>9.9959000000000007</v>
@@ -3404,16 +3409,16 @@
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" s="27" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B118" s="27">
         <v>100</v>
       </c>
-      <c r="C118" s="76"/>
+      <c r="C118" s="61"/>
       <c r="D118" s="57" t="s">
         <v>109</v>
       </c>
-      <c r="E118" s="76"/>
+      <c r="E118" s="61"/>
       <c r="F118" s="14">
         <f>100-0.081</f>
         <v>99.918999999999997</v>
@@ -3432,60 +3437,140 @@
       <c r="F119" s="21"/>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A120" s="60" t="s">
+      <c r="A120" s="80" t="s">
+        <v>161</v>
+      </c>
+      <c r="B120" s="80"/>
+      <c r="C120" s="59" t="s">
         <v>162</v>
-      </c>
-      <c r="B120" s="60"/>
-      <c r="C120" s="59" t="s">
-        <v>163</v>
       </c>
       <c r="D120" s="12"/>
       <c r="E120" s="12"/>
       <c r="F120" s="21"/>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A121" s="60" t="s">
-        <v>164</v>
-      </c>
-      <c r="B121" s="60"/>
+      <c r="A121" s="80" t="s">
+        <v>163</v>
+      </c>
+      <c r="B121" s="80"/>
       <c r="C121" s="35"/>
       <c r="D121" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="E121" s="61" t="s">
+      <c r="E121" s="90" t="s">
         <v>47</v>
       </c>
-      <c r="F121" s="62"/>
+      <c r="F121" s="91"/>
       <c r="G121" s="12" t="s">
         <v>17</v>
       </c>
       <c r="H121" s="37"/>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A122" s="60" t="s">
+      <c r="A122" s="80" t="s">
         <v>15</v>
       </c>
-      <c r="B122" s="60"/>
-      <c r="C122" s="80" t="s">
+      <c r="B122" s="80"/>
+      <c r="C122" s="81" t="s">
         <v>48</v>
       </c>
-      <c r="D122" s="80"/>
+      <c r="D122" s="81"/>
     </row>
   </sheetData>
   <mergeCells count="141">
-    <mergeCell ref="A114:A115"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="A80:A81"/>
-    <mergeCell ref="C109:C111"/>
-    <mergeCell ref="E109:E111"/>
-    <mergeCell ref="C73:C75"/>
-    <mergeCell ref="E73:E75"/>
-    <mergeCell ref="H82:H83"/>
-    <mergeCell ref="G82:G83"/>
-    <mergeCell ref="H84:H85"/>
-    <mergeCell ref="G84:G85"/>
-    <mergeCell ref="H88:H89"/>
-    <mergeCell ref="G88:G89"/>
+    <mergeCell ref="A121:B121"/>
+    <mergeCell ref="E121:F121"/>
+    <mergeCell ref="C48:C50"/>
+    <mergeCell ref="F48:F50"/>
+    <mergeCell ref="G99:H99"/>
+    <mergeCell ref="F106:G106"/>
+    <mergeCell ref="F114:G114"/>
+    <mergeCell ref="A54:A61"/>
+    <mergeCell ref="D54:D55"/>
+    <mergeCell ref="C55:C61"/>
+    <mergeCell ref="F55:F61"/>
+    <mergeCell ref="B56:B61"/>
+    <mergeCell ref="A62:A64"/>
+    <mergeCell ref="B62:B63"/>
+    <mergeCell ref="C62:C64"/>
+    <mergeCell ref="F62:F64"/>
+    <mergeCell ref="B88:B89"/>
+    <mergeCell ref="A90:A92"/>
+    <mergeCell ref="B90:B92"/>
+    <mergeCell ref="C90:C92"/>
+    <mergeCell ref="F90:F92"/>
+    <mergeCell ref="B80:C81"/>
+    <mergeCell ref="E80:F81"/>
+    <mergeCell ref="F65:F67"/>
+    <mergeCell ref="D80:D81"/>
+    <mergeCell ref="A70:A71"/>
+    <mergeCell ref="A95:A96"/>
+    <mergeCell ref="B95:B96"/>
+    <mergeCell ref="C95:C96"/>
+    <mergeCell ref="F95:F96"/>
+    <mergeCell ref="A65:A67"/>
+    <mergeCell ref="C65:C67"/>
+    <mergeCell ref="F70:G70"/>
+    <mergeCell ref="G80:H80"/>
+    <mergeCell ref="A93:A94"/>
+    <mergeCell ref="B93:B94"/>
+    <mergeCell ref="C93:C94"/>
+    <mergeCell ref="F93:F94"/>
+    <mergeCell ref="F87:F89"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="A51:A53"/>
+    <mergeCell ref="B51:B53"/>
+    <mergeCell ref="C51:C53"/>
+    <mergeCell ref="F51:F53"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="G46:H46"/>
+    <mergeCell ref="B46:C47"/>
+    <mergeCell ref="E46:F47"/>
+    <mergeCell ref="A48:A50"/>
+    <mergeCell ref="B48:B50"/>
+    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="B31:C32"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="C35:C43"/>
+    <mergeCell ref="D31:E32"/>
+    <mergeCell ref="E35:E43"/>
+    <mergeCell ref="A37:A39"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="A120:B120"/>
+    <mergeCell ref="A122:B122"/>
+    <mergeCell ref="C122:D122"/>
+    <mergeCell ref="C116:C118"/>
+    <mergeCell ref="E116:E118"/>
+    <mergeCell ref="A82:A83"/>
+    <mergeCell ref="B82:B83"/>
+    <mergeCell ref="C82:C83"/>
+    <mergeCell ref="F82:F83"/>
+    <mergeCell ref="A84:A85"/>
+    <mergeCell ref="B84:B85"/>
+    <mergeCell ref="C84:C85"/>
+    <mergeCell ref="F84:F85"/>
+    <mergeCell ref="A86:A89"/>
+    <mergeCell ref="D86:D88"/>
+    <mergeCell ref="C87:C89"/>
+    <mergeCell ref="C99:D100"/>
+    <mergeCell ref="E99:F100"/>
+    <mergeCell ref="B114:C115"/>
+    <mergeCell ref="D114:E115"/>
+    <mergeCell ref="A99:A100"/>
+    <mergeCell ref="A106:A107"/>
+    <mergeCell ref="B99:B100"/>
+    <mergeCell ref="B106:C107"/>
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A31:A32"/>
@@ -3510,6 +3595,19 @@
     <mergeCell ref="A15:C15"/>
     <mergeCell ref="A7:H7"/>
     <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A114:A115"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="A80:A81"/>
+    <mergeCell ref="C109:C111"/>
+    <mergeCell ref="E109:E111"/>
+    <mergeCell ref="C73:C75"/>
+    <mergeCell ref="E73:E75"/>
+    <mergeCell ref="H82:H83"/>
+    <mergeCell ref="G82:G83"/>
+    <mergeCell ref="H84:H85"/>
+    <mergeCell ref="G84:G85"/>
+    <mergeCell ref="H88:H89"/>
+    <mergeCell ref="G88:G89"/>
     <mergeCell ref="D106:E107"/>
     <mergeCell ref="B70:C71"/>
     <mergeCell ref="D70:E71"/>
@@ -3521,99 +3619,6 @@
     <mergeCell ref="G95:G96"/>
     <mergeCell ref="H93:H94"/>
     <mergeCell ref="G93:G94"/>
-    <mergeCell ref="A120:B120"/>
-    <mergeCell ref="A122:B122"/>
-    <mergeCell ref="C122:D122"/>
-    <mergeCell ref="C116:C118"/>
-    <mergeCell ref="E116:E118"/>
-    <mergeCell ref="A82:A83"/>
-    <mergeCell ref="B82:B83"/>
-    <mergeCell ref="C82:C83"/>
-    <mergeCell ref="F82:F83"/>
-    <mergeCell ref="A84:A85"/>
-    <mergeCell ref="B84:B85"/>
-    <mergeCell ref="C84:C85"/>
-    <mergeCell ref="F84:F85"/>
-    <mergeCell ref="A86:A89"/>
-    <mergeCell ref="D86:D88"/>
-    <mergeCell ref="C87:C89"/>
-    <mergeCell ref="C99:D100"/>
-    <mergeCell ref="E99:F100"/>
-    <mergeCell ref="B114:C115"/>
-    <mergeCell ref="D114:E115"/>
-    <mergeCell ref="A99:A100"/>
-    <mergeCell ref="A106:A107"/>
-    <mergeCell ref="B99:B100"/>
-    <mergeCell ref="B106:C107"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="B31:C32"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="C35:C43"/>
-    <mergeCell ref="D31:E32"/>
-    <mergeCell ref="E35:E43"/>
-    <mergeCell ref="A37:A39"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="A51:A53"/>
-    <mergeCell ref="B51:B53"/>
-    <mergeCell ref="C51:C53"/>
-    <mergeCell ref="F51:F53"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="G46:H46"/>
-    <mergeCell ref="B46:C47"/>
-    <mergeCell ref="E46:F47"/>
-    <mergeCell ref="A48:A50"/>
-    <mergeCell ref="B48:B50"/>
-    <mergeCell ref="D46:D47"/>
-    <mergeCell ref="D80:D81"/>
-    <mergeCell ref="A70:A71"/>
-    <mergeCell ref="A95:A96"/>
-    <mergeCell ref="B95:B96"/>
-    <mergeCell ref="C95:C96"/>
-    <mergeCell ref="F95:F96"/>
-    <mergeCell ref="A65:A67"/>
-    <mergeCell ref="C65:C67"/>
-    <mergeCell ref="F70:G70"/>
-    <mergeCell ref="G80:H80"/>
-    <mergeCell ref="A93:A94"/>
-    <mergeCell ref="B93:B94"/>
-    <mergeCell ref="C93:C94"/>
-    <mergeCell ref="F93:F94"/>
-    <mergeCell ref="F87:F89"/>
-    <mergeCell ref="A121:B121"/>
-    <mergeCell ref="E121:F121"/>
-    <mergeCell ref="C48:C50"/>
-    <mergeCell ref="F48:F50"/>
-    <mergeCell ref="G99:H99"/>
-    <mergeCell ref="F106:G106"/>
-    <mergeCell ref="F114:G114"/>
-    <mergeCell ref="A54:A61"/>
-    <mergeCell ref="D54:D55"/>
-    <mergeCell ref="C55:C61"/>
-    <mergeCell ref="F55:F61"/>
-    <mergeCell ref="B56:B61"/>
-    <mergeCell ref="A62:A64"/>
-    <mergeCell ref="B62:B63"/>
-    <mergeCell ref="C62:C64"/>
-    <mergeCell ref="F62:F64"/>
-    <mergeCell ref="B88:B89"/>
-    <mergeCell ref="A90:A92"/>
-    <mergeCell ref="B90:B92"/>
-    <mergeCell ref="C90:C92"/>
-    <mergeCell ref="F90:F92"/>
-    <mergeCell ref="B80:C81"/>
-    <mergeCell ref="E80:F81"/>
-    <mergeCell ref="F65:F67"/>
   </mergeCells>
   <pageMargins left="0.78740157480314965" right="0.39370078740157483" top="0.39370078740157483" bottom="0.59614583333333337" header="0.39370078740157483" footer="0.39370078740157483"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>

--- a/Shablon/34460A.xlsx
+++ b/Shablon/34460A.xlsx
@@ -594,7 +594,7 @@
     <numFmt numFmtId="168" formatCode="0.0"/>
     <numFmt numFmtId="169" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -613,20 +613,6 @@
     </font>
     <font>
       <sz val="10"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="204"/>
@@ -640,13 +626,6 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="204"/>
@@ -691,17 +670,14 @@
       <charset val="204"/>
     </font>
     <font>
-      <b/>
-      <i/>
       <sz val="10"/>
-      <color rgb="FF0070C0"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
+      <name val="Arial Cyr"/>
       <charset val="204"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial Cyr"/>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
       <charset val="204"/>
     </font>
   </fonts>
@@ -804,273 +780,257 @@
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="169" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="167" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1381,2103 +1341,2216 @@
   <dimension ref="A1:H122"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" style="4" customWidth="1"/>
-    <col min="2" max="3" width="11.7109375" style="4" customWidth="1"/>
-    <col min="4" max="8" width="10.7109375" style="4" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="10.7109375" style="3" customWidth="1"/>
+    <col min="2" max="3" width="11.7109375" style="3" customWidth="1"/>
+    <col min="4" max="8" width="10.7109375" style="3" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="76"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="66" t="s">
+      <c r="A2" s="75" t="s">
         <v>164</v>
       </c>
-      <c r="B2" s="66"/>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="66"/>
-      <c r="F2" s="66"/>
-      <c r="G2" s="66"/>
-      <c r="H2" s="66"/>
+      <c r="B2" s="75"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="75"/>
+      <c r="G2" s="75"/>
+      <c r="H2" s="75"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="66" t="s">
+      <c r="A3" s="75" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="66"/>
-      <c r="C3" s="66"/>
-      <c r="D3" s="66"/>
-      <c r="E3" s="66"/>
-      <c r="F3" s="66"/>
-      <c r="G3" s="66"/>
-      <c r="H3" s="66"/>
+      <c r="B3" s="75"/>
+      <c r="C3" s="75"/>
+      <c r="D3" s="75"/>
+      <c r="E3" s="75"/>
+      <c r="F3" s="75"/>
+      <c r="G3" s="75"/>
+      <c r="H3" s="75"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="69" t="s">
+      <c r="A4" s="77" t="s">
         <v>165</v>
       </c>
-      <c r="B4" s="69"/>
-      <c r="C4" s="69"/>
-      <c r="D4" s="69"/>
-      <c r="E4" s="69"/>
-      <c r="F4" s="69"/>
-      <c r="G4" s="69"/>
-      <c r="H4" s="69"/>
+      <c r="B4" s="77"/>
+      <c r="C4" s="77"/>
+      <c r="D4" s="77"/>
+      <c r="E4" s="77"/>
+      <c r="F4" s="77"/>
+      <c r="G4" s="77"/>
+      <c r="H4" s="77"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="69" t="s">
+      <c r="A5" s="77" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="69"/>
-      <c r="C5" s="69"/>
-      <c r="D5" s="69"/>
-      <c r="E5" s="69"/>
-      <c r="F5" s="69"/>
-      <c r="G5" s="69"/>
-      <c r="H5" s="69"/>
+      <c r="B5" s="77"/>
+      <c r="C5" s="77"/>
+      <c r="D5" s="77"/>
+      <c r="E5" s="77"/>
+      <c r="F5" s="77"/>
+      <c r="G5" s="77"/>
+      <c r="H5" s="77"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="38"/>
-      <c r="B6" s="38"/>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="38"/>
-      <c r="H6" s="38"/>
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="92" t="str">
+      <c r="A7" s="72" t="str">
         <f>"Протокол поверки № 10/"&amp;C122&amp;"/"&amp;D10</f>
         <v>Протокол поверки № 10/_date/_numb</v>
       </c>
-      <c r="B7" s="92"/>
-      <c r="C7" s="92"/>
-      <c r="D7" s="92"/>
-      <c r="E7" s="92"/>
-      <c r="F7" s="92"/>
-      <c r="G7" s="92"/>
-      <c r="H7" s="92"/>
+      <c r="B7" s="72"/>
+      <c r="C7" s="72"/>
+      <c r="D7" s="72"/>
+      <c r="E7" s="72"/>
+      <c r="F7" s="72"/>
+      <c r="G7" s="72"/>
+      <c r="H7" s="72"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="73" t="s">
+      <c r="A9" s="63" t="s">
         <v>110</v>
       </c>
-      <c r="B9" s="73"/>
-      <c r="C9" s="73"/>
-      <c r="D9" s="42" t="s">
+      <c r="B9" s="63"/>
+      <c r="C9" s="63"/>
+      <c r="D9" s="35" t="s">
         <v>111</v>
       </c>
-      <c r="E9" s="43"/>
-      <c r="F9" s="44" t="s">
+      <c r="E9" s="36"/>
+      <c r="F9" s="78" t="s">
         <v>42</v>
       </c>
-      <c r="G9" s="44"/>
-      <c r="H9" s="45"/>
+      <c r="G9" s="78"/>
+      <c r="H9" s="37"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="73" t="s">
+      <c r="A10" s="63" t="s">
         <v>112</v>
       </c>
-      <c r="B10" s="73"/>
-      <c r="C10" s="73"/>
-      <c r="D10" s="46" t="s">
+      <c r="B10" s="63"/>
+      <c r="C10" s="63"/>
+      <c r="D10" s="79" t="s">
         <v>43</v>
       </c>
-      <c r="E10" s="43"/>
-      <c r="F10" s="43"/>
-      <c r="G10" s="43"/>
-      <c r="H10" s="45"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="36"/>
+      <c r="G10" s="36"/>
+      <c r="H10" s="37"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="73" t="s">
+      <c r="A11" s="63" t="s">
         <v>113</v>
       </c>
-      <c r="B11" s="73"/>
-      <c r="C11" s="73"/>
-      <c r="D11" s="42"/>
-      <c r="E11" s="43"/>
-      <c r="F11" s="43"/>
-      <c r="G11" s="43"/>
-      <c r="H11" s="45"/>
+      <c r="B11" s="63"/>
+      <c r="C11" s="63"/>
+      <c r="D11" s="35"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="37"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="73" t="s">
+      <c r="A12" s="63" t="s">
         <v>114</v>
       </c>
-      <c r="B12" s="73"/>
-      <c r="C12" s="73"/>
-      <c r="D12" s="47"/>
-      <c r="E12" s="43"/>
-      <c r="F12" s="43"/>
-      <c r="G12" s="43"/>
-      <c r="H12" s="45"/>
+      <c r="B12" s="63"/>
+      <c r="C12" s="63"/>
+      <c r="D12" s="38"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="36"/>
+      <c r="G12" s="36"/>
+      <c r="H12" s="37"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="73" t="s">
+      <c r="A13" s="63" t="s">
         <v>115</v>
       </c>
-      <c r="B13" s="73"/>
-      <c r="C13" s="73"/>
-      <c r="D13" s="46" t="s">
+      <c r="B13" s="63"/>
+      <c r="C13" s="63"/>
+      <c r="D13" s="79" t="s">
         <v>123</v>
       </c>
-      <c r="E13" s="43"/>
-      <c r="F13" s="43"/>
-      <c r="G13" s="43"/>
-      <c r="H13" s="45"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="36"/>
+      <c r="G13" s="36"/>
+      <c r="H13" s="37"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="73" t="s">
+      <c r="A14" s="63" t="s">
         <v>116</v>
       </c>
-      <c r="B14" s="73"/>
-      <c r="C14" s="73"/>
-      <c r="D14" s="48" t="s">
+      <c r="B14" s="63"/>
+      <c r="C14" s="63"/>
+      <c r="D14" s="39" t="s">
         <v>117</v>
       </c>
-      <c r="E14" s="43"/>
-      <c r="F14" s="43"/>
-      <c r="G14" s="43"/>
-      <c r="H14" s="45"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="36"/>
+      <c r="G14" s="36"/>
+      <c r="H14" s="37"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="73" t="s">
+      <c r="A15" s="63" t="s">
         <v>118</v>
       </c>
-      <c r="B15" s="73"/>
-      <c r="C15" s="73"/>
-      <c r="D15" s="42" t="s">
+      <c r="B15" s="63"/>
+      <c r="C15" s="63"/>
+      <c r="D15" s="35" t="s">
         <v>119</v>
       </c>
-      <c r="E15" s="43"/>
-      <c r="F15" s="43"/>
-      <c r="G15" s="43"/>
-      <c r="H15" s="45"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="36"/>
+      <c r="G15" s="36"/>
+      <c r="H15" s="37"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B16" s="39"/>
-      <c r="H16" s="5"/>
+      <c r="B16" s="80"/>
+      <c r="H16" s="4"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="70" t="s">
+      <c r="A18" s="55" t="s">
         <v>27</v>
       </c>
-      <c r="B18" s="71"/>
-      <c r="C18" s="72"/>
-      <c r="D18" s="67" t="s">
+      <c r="B18" s="70"/>
+      <c r="C18" s="56"/>
+      <c r="D18" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="E18" s="67"/>
-      <c r="F18" s="67" t="s">
+      <c r="E18" s="69"/>
+      <c r="F18" s="69" t="s">
         <v>29</v>
       </c>
-      <c r="G18" s="67"/>
-      <c r="H18" s="11"/>
+      <c r="G18" s="69"/>
+      <c r="H18" s="9"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="74" t="s">
+      <c r="A19" s="57" t="s">
         <v>30</v>
       </c>
-      <c r="B19" s="75"/>
-      <c r="C19" s="76"/>
-      <c r="D19" s="68" t="s">
+      <c r="B19" s="58"/>
+      <c r="C19" s="59"/>
+      <c r="D19" s="81" t="s">
         <v>44</v>
       </c>
-      <c r="E19" s="68"/>
-      <c r="F19" s="70" t="s">
+      <c r="E19" s="81"/>
+      <c r="F19" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="G19" s="72"/>
-      <c r="H19" s="8"/>
+      <c r="G19" s="56"/>
+      <c r="H19" s="6"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="77" t="s">
+      <c r="A20" s="71" t="s">
         <v>32</v>
       </c>
-      <c r="B20" s="77"/>
-      <c r="C20" s="77"/>
-      <c r="D20" s="68" t="s">
+      <c r="B20" s="71"/>
+      <c r="C20" s="71"/>
+      <c r="D20" s="81" t="s">
         <v>45</v>
       </c>
-      <c r="E20" s="68"/>
-      <c r="F20" s="70" t="s">
+      <c r="E20" s="81"/>
+      <c r="F20" s="55" t="s">
         <v>33</v>
       </c>
-      <c r="G20" s="72"/>
-      <c r="H20" s="8"/>
+      <c r="G20" s="56"/>
+      <c r="H20" s="6"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="74" t="s">
+      <c r="A21" s="57" t="s">
         <v>34</v>
       </c>
-      <c r="B21" s="75"/>
-      <c r="C21" s="76"/>
-      <c r="D21" s="84" t="s">
+      <c r="B21" s="58"/>
+      <c r="C21" s="59"/>
+      <c r="D21" s="66" t="s">
         <v>46</v>
       </c>
-      <c r="E21" s="85"/>
-      <c r="F21" s="70" t="s">
+      <c r="E21" s="67"/>
+      <c r="F21" s="55" t="s">
         <v>35</v>
       </c>
-      <c r="G21" s="72"/>
-      <c r="H21" s="8"/>
+      <c r="G21" s="56"/>
+      <c r="H21" s="6"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="74" t="s">
+      <c r="A22" s="57" t="s">
         <v>36</v>
       </c>
-      <c r="B22" s="75"/>
-      <c r="C22" s="76"/>
-      <c r="D22" s="78"/>
-      <c r="E22" s="79"/>
-      <c r="F22" s="70" t="s">
+      <c r="B22" s="58"/>
+      <c r="C22" s="59"/>
+      <c r="D22" s="66"/>
+      <c r="E22" s="67"/>
+      <c r="F22" s="55" t="s">
         <v>37</v>
       </c>
-      <c r="G22" s="72"/>
-      <c r="H22" s="8"/>
+      <c r="G22" s="56"/>
+      <c r="H22" s="6"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="74" t="s">
+      <c r="A23" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="B23" s="75"/>
-      <c r="C23" s="76"/>
-      <c r="D23" s="78"/>
-      <c r="E23" s="79"/>
-      <c r="F23" s="70" t="s">
+      <c r="B23" s="58"/>
+      <c r="C23" s="59"/>
+      <c r="D23" s="66"/>
+      <c r="E23" s="67"/>
+      <c r="F23" s="55" t="s">
         <v>38</v>
       </c>
-      <c r="G23" s="72"/>
-      <c r="H23" s="8"/>
+      <c r="G23" s="56"/>
+      <c r="H23" s="6"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="40"/>
-      <c r="B24" s="40"/>
-      <c r="C24" s="40"/>
-      <c r="D24" s="41"/>
-      <c r="E24" s="41"/>
-      <c r="F24" s="34"/>
-      <c r="G24" s="34"/>
-      <c r="H24" s="8"/>
+      <c r="A24" s="33"/>
+      <c r="B24" s="33"/>
+      <c r="C24" s="33"/>
+      <c r="D24" s="34"/>
+      <c r="E24" s="34"/>
+      <c r="F24" s="29"/>
+      <c r="G24" s="29"/>
+      <c r="H24" s="6"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="6" t="s">
+      <c r="A25" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B25" s="40"/>
-      <c r="C25" s="40"/>
-      <c r="D25" s="41"/>
-      <c r="E25" s="41"/>
-      <c r="F25" s="34"/>
-      <c r="G25" s="34"/>
-      <c r="H25" s="8"/>
+      <c r="B25" s="33"/>
+      <c r="C25" s="33"/>
+      <c r="D25" s="34"/>
+      <c r="E25" s="34"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="29"/>
+      <c r="H25" s="6"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="40"/>
-      <c r="B26" s="40"/>
-      <c r="C26" s="40"/>
-      <c r="D26" s="41"/>
-      <c r="E26" s="41"/>
-      <c r="F26" s="34"/>
-      <c r="G26" s="34"/>
-      <c r="H26" s="8"/>
+      <c r="A26" s="33"/>
+      <c r="B26" s="33"/>
+      <c r="C26" s="33"/>
+      <c r="D26" s="34"/>
+      <c r="E26" s="34"/>
+      <c r="F26" s="29"/>
+      <c r="G26" s="29"/>
+      <c r="H26" s="6"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="4" t="s">
+      <c r="A27" s="3" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="4" t="s">
+      <c r="A28" s="3" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="9" t="s">
+      <c r="A29" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B29" s="9"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="9"/>
-      <c r="G29" s="9"/>
-      <c r="H29" s="9"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
+      <c r="A30" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B30" s="10"/>
-      <c r="C30" s="10"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="10"/>
-      <c r="F30" s="10"/>
-      <c r="G30" s="10"/>
-      <c r="H30" s="10"/>
+      <c r="B30" s="8"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="8"/>
     </row>
     <row r="31" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="60" t="s">
+      <c r="A31" s="53" t="s">
         <v>126</v>
       </c>
-      <c r="B31" s="60" t="s">
+      <c r="B31" s="53" t="s">
         <v>132</v>
       </c>
-      <c r="C31" s="60"/>
-      <c r="D31" s="60" t="s">
+      <c r="C31" s="53"/>
+      <c r="D31" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="E31" s="60"/>
-      <c r="F31" s="60" t="s">
+      <c r="E31" s="53"/>
+      <c r="F31" s="53" t="s">
         <v>158</v>
       </c>
-      <c r="G31" s="60"/>
+      <c r="G31" s="53"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="60"/>
-      <c r="B32" s="60"/>
-      <c r="C32" s="60"/>
-      <c r="D32" s="60"/>
-      <c r="E32" s="60"/>
-      <c r="F32" s="53" t="s">
+      <c r="A32" s="53"/>
+      <c r="B32" s="53"/>
+      <c r="C32" s="53"/>
+      <c r="D32" s="53"/>
+      <c r="E32" s="53"/>
+      <c r="F32" s="43" t="s">
         <v>159</v>
       </c>
-      <c r="G32" s="53" t="s">
+      <c r="G32" s="43" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="60" t="s">
+      <c r="A33" s="53" t="s">
         <v>127</v>
       </c>
-      <c r="B33" s="54">
+      <c r="B33" s="49">
         <v>100</v>
       </c>
-      <c r="C33" s="61" t="s">
+      <c r="C33" s="64" t="s">
         <v>124</v>
       </c>
-      <c r="D33" s="56" t="s">
+      <c r="D33" s="82" t="s">
         <v>49</v>
       </c>
-      <c r="E33" s="61" t="s">
+      <c r="E33" s="64" t="s">
         <v>124</v>
       </c>
-      <c r="F33" s="13">
+      <c r="F33" s="47">
         <f>100-0.0155</f>
         <v>99.984499999999997</v>
       </c>
-      <c r="G33" s="13">
+      <c r="G33" s="47">
         <f>100+0.0155</f>
         <v>100.0155</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="60"/>
-      <c r="B34" s="54">
+      <c r="A34" s="53"/>
+      <c r="B34" s="49">
         <v>-100</v>
       </c>
-      <c r="C34" s="61"/>
-      <c r="D34" s="56" t="s">
+      <c r="C34" s="64"/>
+      <c r="D34" s="82" t="s">
         <v>50</v>
       </c>
-      <c r="E34" s="61"/>
-      <c r="F34" s="13">
+      <c r="E34" s="64"/>
+      <c r="F34" s="47">
         <f>-100-0.0155</f>
         <v>-100.0155</v>
       </c>
-      <c r="G34" s="13">
+      <c r="G34" s="47">
         <f>-100+0.0155</f>
         <v>-99.984499999999997</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="60" t="s">
+      <c r="A35" s="53" t="s">
         <v>128</v>
       </c>
-      <c r="B35" s="54">
+      <c r="B35" s="49">
         <v>1</v>
       </c>
-      <c r="C35" s="61" t="s">
+      <c r="C35" s="64" t="s">
         <v>125</v>
       </c>
-      <c r="D35" s="56" t="s">
+      <c r="D35" s="82" t="s">
         <v>51</v>
       </c>
-      <c r="E35" s="64" t="s">
+      <c r="E35" s="65" t="s">
         <v>125</v>
       </c>
-      <c r="F35" s="50">
+      <c r="F35" s="40">
         <f>1-0.00009</f>
         <v>0.99990999999999997</v>
       </c>
-      <c r="G35" s="50">
+      <c r="G35" s="40">
         <f>1+0.00009</f>
         <v>1.0000899999999999</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="60"/>
-      <c r="B36" s="54">
+      <c r="A36" s="53"/>
+      <c r="B36" s="49">
         <v>-1</v>
       </c>
-      <c r="C36" s="61"/>
-      <c r="D36" s="56" t="s">
+      <c r="C36" s="64"/>
+      <c r="D36" s="82" t="s">
         <v>52</v>
       </c>
-      <c r="E36" s="64"/>
-      <c r="F36" s="50">
+      <c r="E36" s="65"/>
+      <c r="F36" s="40">
         <f>-1-0.00009</f>
         <v>-1.0000899999999999</v>
       </c>
-      <c r="G36" s="50">
+      <c r="G36" s="40">
         <f>-1+0.00009</f>
         <v>-0.99990999999999997</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="60" t="s">
+      <c r="A37" s="53" t="s">
         <v>129</v>
       </c>
-      <c r="B37" s="54">
+      <c r="B37" s="49">
         <v>4</v>
       </c>
-      <c r="C37" s="61"/>
-      <c r="D37" s="56" t="s">
+      <c r="C37" s="64"/>
+      <c r="D37" s="82" t="s">
         <v>53</v>
       </c>
-      <c r="E37" s="64"/>
-      <c r="F37" s="50">
+      <c r="E37" s="65"/>
+      <c r="F37" s="40">
         <f>4-0.00035</f>
         <v>3.9996499999999999</v>
       </c>
-      <c r="G37" s="50">
+      <c r="G37" s="40">
         <f>4+0.00035</f>
         <v>4.0003500000000001</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="60"/>
-      <c r="B38" s="54">
+      <c r="A38" s="53"/>
+      <c r="B38" s="49">
         <v>10</v>
       </c>
-      <c r="C38" s="61"/>
-      <c r="D38" s="56" t="s">
+      <c r="C38" s="64"/>
+      <c r="D38" s="82" t="s">
         <v>54</v>
       </c>
-      <c r="E38" s="64"/>
-      <c r="F38" s="13">
+      <c r="E38" s="65"/>
+      <c r="F38" s="47">
         <f>10-0.0008</f>
         <v>9.9992000000000001</v>
       </c>
-      <c r="G38" s="13">
+      <c r="G38" s="47">
         <f>10+0.0008</f>
         <v>10.0008</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="60"/>
-      <c r="B39" s="54">
+      <c r="A39" s="53"/>
+      <c r="B39" s="49">
         <v>-10</v>
       </c>
-      <c r="C39" s="61"/>
-      <c r="D39" s="56" t="s">
+      <c r="C39" s="64"/>
+      <c r="D39" s="82" t="s">
         <v>55</v>
       </c>
-      <c r="E39" s="64"/>
-      <c r="F39" s="13">
+      <c r="E39" s="65"/>
+      <c r="F39" s="47">
         <f>-10-0.0008</f>
         <v>-10.0008</v>
       </c>
-      <c r="G39" s="13">
+      <c r="G39" s="47">
         <f>-10+0.0008</f>
         <v>-9.9992000000000001</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="60" t="s">
+      <c r="A40" s="53" t="s">
         <v>130</v>
       </c>
-      <c r="B40" s="54">
+      <c r="B40" s="49">
         <v>100</v>
       </c>
-      <c r="C40" s="61"/>
-      <c r="D40" s="56" t="s">
+      <c r="C40" s="64"/>
+      <c r="D40" s="82" t="s">
         <v>56</v>
       </c>
-      <c r="E40" s="64"/>
-      <c r="F40" s="13">
+      <c r="E40" s="65"/>
+      <c r="F40" s="47">
         <f>100-0.0091</f>
         <v>99.990899999999996</v>
       </c>
-      <c r="G40" s="13">
+      <c r="G40" s="47">
         <f>100+0.0091</f>
         <v>100.0091</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="60"/>
-      <c r="B41" s="54">
+      <c r="A41" s="53"/>
+      <c r="B41" s="49">
         <v>-100</v>
       </c>
-      <c r="C41" s="61"/>
-      <c r="D41" s="56" t="s">
+      <c r="C41" s="64"/>
+      <c r="D41" s="82" t="s">
         <v>57</v>
       </c>
-      <c r="E41" s="64"/>
-      <c r="F41" s="13">
+      <c r="E41" s="65"/>
+      <c r="F41" s="47">
         <f>-100-0.0091</f>
         <v>-100.0091</v>
       </c>
-      <c r="G41" s="13">
+      <c r="G41" s="47">
         <f>-100+0.0091</f>
         <v>-99.990899999999996</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="86" t="s">
+      <c r="A42" s="60" t="s">
         <v>131</v>
       </c>
-      <c r="B42" s="54">
+      <c r="B42" s="49">
         <v>1000</v>
       </c>
-      <c r="C42" s="61"/>
-      <c r="D42" s="56" t="s">
+      <c r="C42" s="64"/>
+      <c r="D42" s="82" t="s">
         <v>58</v>
       </c>
-      <c r="E42" s="64"/>
-      <c r="F42" s="14">
+      <c r="E42" s="65"/>
+      <c r="F42" s="48">
         <f>1000-0.095</f>
         <v>999.90499999999997</v>
       </c>
-      <c r="G42" s="14">
+      <c r="G42" s="48">
         <f>1000+0.095</f>
         <v>1000.095</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="86"/>
-      <c r="B43" s="54">
+      <c r="A43" s="60"/>
+      <c r="B43" s="49">
         <v>-500</v>
       </c>
-      <c r="C43" s="61"/>
-      <c r="D43" s="56" t="s">
+      <c r="C43" s="64"/>
+      <c r="D43" s="82" t="s">
         <v>59</v>
       </c>
-      <c r="E43" s="64"/>
-      <c r="F43" s="13">
+      <c r="E43" s="65"/>
+      <c r="F43" s="47">
         <f>-500-0.0525</f>
         <v>-500.05250000000001</v>
       </c>
-      <c r="G43" s="13">
+      <c r="G43" s="47">
         <f>-500+0.0525</f>
         <v>-499.94749999999999</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="2" t="s">
+      <c r="A45" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B45" s="10"/>
-      <c r="C45" s="10"/>
-      <c r="D45" s="10"/>
-      <c r="E45" s="10"/>
-      <c r="F45" s="10"/>
-      <c r="G45" s="10"/>
-      <c r="H45" s="10"/>
+      <c r="B45" s="8"/>
+      <c r="C45" s="8"/>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="8"/>
+      <c r="H45" s="8"/>
     </row>
     <row r="46" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="60" t="s">
+      <c r="A46" s="53" t="s">
         <v>126</v>
       </c>
-      <c r="B46" s="60" t="s">
+      <c r="B46" s="53" t="s">
         <v>134</v>
       </c>
-      <c r="C46" s="60"/>
-      <c r="D46" s="60" t="s">
+      <c r="C46" s="53"/>
+      <c r="D46" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="E46" s="60" t="s">
+      <c r="E46" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="F46" s="60"/>
-      <c r="G46" s="60" t="s">
+      <c r="F46" s="53"/>
+      <c r="G46" s="53" t="s">
         <v>158</v>
       </c>
-      <c r="H46" s="60"/>
+      <c r="H46" s="53"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="60"/>
-      <c r="B47" s="60"/>
-      <c r="C47" s="60"/>
-      <c r="D47" s="60"/>
-      <c r="E47" s="60"/>
-      <c r="F47" s="60"/>
-      <c r="G47" s="53" t="s">
+      <c r="A47" s="53"/>
+      <c r="B47" s="53"/>
+      <c r="C47" s="53"/>
+      <c r="D47" s="53"/>
+      <c r="E47" s="53"/>
+      <c r="F47" s="53"/>
+      <c r="G47" s="43" t="s">
         <v>159</v>
       </c>
-      <c r="H47" s="53" t="s">
+      <c r="H47" s="43" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="89" t="s">
+      <c r="A48" s="62" t="s">
         <v>127</v>
       </c>
-      <c r="B48" s="87">
+      <c r="B48" s="61">
         <v>100</v>
       </c>
-      <c r="C48" s="88" t="s">
+      <c r="C48" s="52" t="s">
         <v>124</v>
       </c>
-      <c r="D48" s="52" t="s">
+      <c r="D48" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="E48" s="57" t="s">
+      <c r="E48" s="83" t="s">
         <v>60</v>
       </c>
-      <c r="F48" s="88" t="s">
+      <c r="F48" s="52" t="s">
         <v>124</v>
       </c>
-      <c r="G48" s="50">
+      <c r="G48" s="40">
         <f>100-0.12</f>
         <v>99.88</v>
       </c>
-      <c r="H48" s="50">
+      <c r="H48" s="40">
         <f>100+0.12</f>
         <v>100.12</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="89"/>
-      <c r="B49" s="87"/>
-      <c r="C49" s="88"/>
-      <c r="D49" s="52" t="s">
+      <c r="A49" s="62"/>
+      <c r="B49" s="61"/>
+      <c r="C49" s="52"/>
+      <c r="D49" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="E49" s="57" t="s">
+      <c r="E49" s="83" t="s">
         <v>61</v>
       </c>
-      <c r="F49" s="88"/>
-      <c r="G49" s="13">
+      <c r="F49" s="52"/>
+      <c r="G49" s="47">
         <f>100-0.2</f>
         <v>99.8</v>
       </c>
-      <c r="H49" s="13">
+      <c r="H49" s="47">
         <f>100+0.2</f>
         <v>100.2</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="89"/>
-      <c r="B50" s="87"/>
-      <c r="C50" s="88"/>
-      <c r="D50" s="52" t="s">
+      <c r="A50" s="62"/>
+      <c r="B50" s="61"/>
+      <c r="C50" s="52"/>
+      <c r="D50" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="E50" s="57" t="s">
+      <c r="E50" s="83" t="s">
         <v>62</v>
       </c>
-      <c r="F50" s="88"/>
-      <c r="G50" s="13">
+      <c r="F50" s="52"/>
+      <c r="G50" s="47">
         <f>100-4.5</f>
         <v>95.5</v>
       </c>
-      <c r="H50" s="13">
+      <c r="H50" s="47">
         <f>100+4.5</f>
         <v>104.5</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="63" t="s">
+      <c r="A51" s="54" t="s">
         <v>128</v>
       </c>
-      <c r="B51" s="87">
+      <c r="B51" s="61">
         <v>1</v>
       </c>
-      <c r="C51" s="88" t="s">
+      <c r="C51" s="52" t="s">
         <v>125</v>
       </c>
-      <c r="D51" s="52" t="s">
+      <c r="D51" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="E51" s="57" t="s">
+      <c r="E51" s="83" t="s">
         <v>63</v>
       </c>
-      <c r="F51" s="88" t="s">
+      <c r="F51" s="52" t="s">
         <v>125</v>
       </c>
-      <c r="G51" s="13">
+      <c r="G51" s="47">
         <f>1-0.0012</f>
         <v>0.99880000000000002</v>
       </c>
-      <c r="H51" s="13">
+      <c r="H51" s="47">
         <f>1+0.0012</f>
         <v>1.0012000000000001</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="63"/>
-      <c r="B52" s="87"/>
-      <c r="C52" s="88"/>
-      <c r="D52" s="52" t="s">
+      <c r="A52" s="54"/>
+      <c r="B52" s="61"/>
+      <c r="C52" s="52"/>
+      <c r="D52" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="E52" s="57" t="s">
+      <c r="E52" s="83" t="s">
         <v>64</v>
       </c>
-      <c r="F52" s="88"/>
-      <c r="G52" s="14">
+      <c r="F52" s="52"/>
+      <c r="G52" s="48">
         <f>1-0.002</f>
         <v>0.998</v>
       </c>
-      <c r="H52" s="14">
+      <c r="H52" s="48">
         <f>1+0.002</f>
         <v>1.002</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="63"/>
-      <c r="B53" s="87"/>
-      <c r="C53" s="88"/>
-      <c r="D53" s="52" t="s">
+      <c r="A53" s="54"/>
+      <c r="B53" s="61"/>
+      <c r="C53" s="52"/>
+      <c r="D53" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="E53" s="57" t="s">
+      <c r="E53" s="83" t="s">
         <v>65</v>
       </c>
-      <c r="F53" s="88"/>
-      <c r="G53" s="14">
+      <c r="F53" s="52"/>
+      <c r="G53" s="48">
         <f>1-0.045</f>
         <v>0.95499999999999996</v>
       </c>
-      <c r="H53" s="14">
+      <c r="H53" s="48">
         <f>1+0.045</f>
         <v>1.0449999999999999</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="63" t="s">
+      <c r="A54" s="54" t="s">
         <v>129</v>
       </c>
-      <c r="B54" s="52">
+      <c r="B54" s="46">
         <v>30</v>
       </c>
-      <c r="C54" s="52" t="s">
+      <c r="C54" s="46" t="s">
         <v>124</v>
       </c>
-      <c r="D54" s="82" t="s">
+      <c r="D54" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="E54" s="57" t="s">
+      <c r="E54" s="83" t="s">
         <v>66</v>
       </c>
-      <c r="F54" s="52" t="s">
+      <c r="F54" s="46" t="s">
         <v>124</v>
       </c>
-      <c r="G54" s="14">
+      <c r="G54" s="48">
         <f>30-0.003</f>
         <v>29.997</v>
       </c>
-      <c r="H54" s="14">
+      <c r="H54" s="48">
         <f>30+0.003</f>
         <v>30.003</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" s="63"/>
-      <c r="B55" s="52">
+      <c r="A55" s="54"/>
+      <c r="B55" s="46">
         <v>1</v>
       </c>
-      <c r="C55" s="82" t="s">
+      <c r="C55" s="54" t="s">
         <v>125</v>
       </c>
-      <c r="D55" s="82"/>
-      <c r="E55" s="57" t="s">
+      <c r="D55" s="54"/>
+      <c r="E55" s="83" t="s">
         <v>67</v>
       </c>
-      <c r="F55" s="82" t="s">
+      <c r="F55" s="54" t="s">
         <v>125</v>
       </c>
-      <c r="G55" s="13">
+      <c r="G55" s="47">
         <f>1-0.0039</f>
         <v>0.99609999999999999</v>
       </c>
-      <c r="H55" s="13">
+      <c r="H55" s="47">
         <f>1+0.0039</f>
         <v>1.0039</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56" s="63"/>
-      <c r="B56" s="82">
+      <c r="A56" s="54"/>
+      <c r="B56" s="54">
         <v>10</v>
       </c>
-      <c r="C56" s="82"/>
-      <c r="D56" s="52" t="s">
+      <c r="C56" s="54"/>
+      <c r="D56" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="E56" s="57" t="s">
+      <c r="E56" s="83" t="s">
         <v>68</v>
       </c>
-      <c r="F56" s="82"/>
-      <c r="G56" s="14">
+      <c r="F56" s="54"/>
+      <c r="G56" s="48">
         <f>10-0.012</f>
         <v>9.9879999999999995</v>
       </c>
-      <c r="H56" s="14">
+      <c r="H56" s="48">
         <f>10+0.012</f>
         <v>10.012</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" s="63"/>
-      <c r="B57" s="82"/>
-      <c r="C57" s="82"/>
-      <c r="D57" s="52" t="s">
+      <c r="A57" s="54"/>
+      <c r="B57" s="54"/>
+      <c r="C57" s="54"/>
+      <c r="D57" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="E57" s="57" t="s">
+      <c r="E57" s="83" t="s">
         <v>69</v>
       </c>
-      <c r="F57" s="82"/>
-      <c r="G57" s="14">
+      <c r="F57" s="54"/>
+      <c r="G57" s="48">
         <f>10-0.012</f>
         <v>9.9879999999999995</v>
       </c>
-      <c r="H57" s="14">
+      <c r="H57" s="48">
         <f>10+0.012</f>
         <v>10.012</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58" s="63"/>
-      <c r="B58" s="82"/>
-      <c r="C58" s="82"/>
-      <c r="D58" s="52" t="s">
+      <c r="A58" s="54"/>
+      <c r="B58" s="54"/>
+      <c r="C58" s="54"/>
+      <c r="D58" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="E58" s="57" t="s">
+      <c r="E58" s="83" t="s">
         <v>70</v>
       </c>
-      <c r="F58" s="82"/>
-      <c r="G58" s="14">
+      <c r="F58" s="54"/>
+      <c r="G58" s="48">
         <f>10-0.012</f>
         <v>9.9879999999999995</v>
       </c>
-      <c r="H58" s="14">
+      <c r="H58" s="48">
         <f>10+0.012</f>
         <v>10.012</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" s="63"/>
-      <c r="B59" s="82"/>
-      <c r="C59" s="82"/>
-      <c r="D59" s="52" t="s">
+      <c r="A59" s="54"/>
+      <c r="B59" s="54"/>
+      <c r="C59" s="54"/>
+      <c r="D59" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="E59" s="57" t="s">
+      <c r="E59" s="83" t="s">
         <v>71</v>
       </c>
-      <c r="F59" s="82"/>
-      <c r="G59" s="15">
+      <c r="F59" s="54"/>
+      <c r="G59" s="45">
         <f>10-0.02</f>
         <v>9.98</v>
       </c>
-      <c r="H59" s="15">
+      <c r="H59" s="45">
         <f>10+0.02</f>
         <v>10.02</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" s="63"/>
-      <c r="B60" s="82"/>
-      <c r="C60" s="82"/>
-      <c r="D60" s="52" t="s">
+      <c r="A60" s="54"/>
+      <c r="B60" s="54"/>
+      <c r="C60" s="54"/>
+      <c r="D60" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="E60" s="57" t="s">
+      <c r="E60" s="83" t="s">
         <v>72</v>
       </c>
-      <c r="F60" s="82"/>
-      <c r="G60" s="14">
+      <c r="F60" s="54"/>
+      <c r="G60" s="48">
         <f>10-0.071</f>
         <v>9.9290000000000003</v>
       </c>
-      <c r="H60" s="14">
+      <c r="H60" s="48">
         <f>10+0.071</f>
         <v>10.071</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" s="63"/>
-      <c r="B61" s="82"/>
-      <c r="C61" s="82"/>
-      <c r="D61" s="52" t="s">
+      <c r="A61" s="54"/>
+      <c r="B61" s="54"/>
+      <c r="C61" s="54"/>
+      <c r="D61" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="E61" s="57" t="s">
+      <c r="E61" s="83" t="s">
         <v>73</v>
       </c>
-      <c r="F61" s="82"/>
-      <c r="G61" s="15">
+      <c r="F61" s="54"/>
+      <c r="G61" s="45">
         <f>10-0.45</f>
         <v>9.5500000000000007</v>
       </c>
-      <c r="H61" s="15">
+      <c r="H61" s="45">
         <f>10+0.45</f>
         <v>10.45</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" s="63" t="s">
+      <c r="A62" s="54" t="s">
         <v>130</v>
       </c>
-      <c r="B62" s="82">
+      <c r="B62" s="54">
         <v>100</v>
       </c>
-      <c r="C62" s="82" t="s">
+      <c r="C62" s="54" t="s">
         <v>125</v>
       </c>
-      <c r="D62" s="52" t="s">
+      <c r="D62" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="E62" s="57" t="s">
+      <c r="E62" s="83" t="s">
         <v>74</v>
       </c>
-      <c r="F62" s="82" t="s">
+      <c r="F62" s="54" t="s">
         <v>125</v>
       </c>
-      <c r="G62" s="15">
+      <c r="G62" s="45">
         <f>100-0.12</f>
         <v>99.88</v>
       </c>
-      <c r="H62" s="15">
+      <c r="H62" s="45">
         <f>100+0.12</f>
         <v>100.12</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A63" s="63"/>
-      <c r="B63" s="82"/>
-      <c r="C63" s="82"/>
-      <c r="D63" s="52" t="s">
+      <c r="A63" s="54"/>
+      <c r="B63" s="54"/>
+      <c r="C63" s="54"/>
+      <c r="D63" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="E63" s="57" t="s">
+      <c r="E63" s="83" t="s">
         <v>75</v>
       </c>
-      <c r="F63" s="82"/>
-      <c r="G63" s="54">
+      <c r="F63" s="54"/>
+      <c r="G63" s="49">
         <f>100-0.2</f>
         <v>99.8</v>
       </c>
-      <c r="H63" s="54">
+      <c r="H63" s="49">
         <f>100+0.2</f>
         <v>100.2</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A64" s="63"/>
-      <c r="B64" s="52">
+      <c r="A64" s="54"/>
+      <c r="B64" s="46">
         <v>70</v>
       </c>
-      <c r="C64" s="82"/>
-      <c r="D64" s="52" t="s">
+      <c r="C64" s="54"/>
+      <c r="D64" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="E64" s="57" t="s">
+      <c r="E64" s="83" t="s">
         <v>76</v>
       </c>
-      <c r="F64" s="82"/>
-      <c r="G64" s="54">
+      <c r="F64" s="54"/>
+      <c r="G64" s="49">
         <f>70-3.3</f>
         <v>66.7</v>
       </c>
-      <c r="H64" s="54">
+      <c r="H64" s="49">
         <f>70+3.3</f>
         <v>73.3</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A65" s="63" t="s">
+      <c r="A65" s="54" t="s">
         <v>148</v>
       </c>
-      <c r="B65" s="52">
+      <c r="B65" s="46">
         <v>750</v>
       </c>
-      <c r="C65" s="82" t="s">
+      <c r="C65" s="54" t="s">
         <v>125</v>
       </c>
-      <c r="D65" s="52" t="s">
+      <c r="D65" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="E65" s="57" t="s">
+      <c r="E65" s="83" t="s">
         <v>77</v>
       </c>
-      <c r="F65" s="82" t="s">
+      <c r="F65" s="54" t="s">
         <v>125</v>
       </c>
-      <c r="G65" s="54">
+      <c r="G65" s="49">
         <f>750-0.9</f>
         <v>749.1</v>
       </c>
-      <c r="H65" s="54">
+      <c r="H65" s="49">
         <f>750+0.9</f>
         <v>750.9</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A66" s="63"/>
-      <c r="B66" s="52">
+      <c r="A66" s="54"/>
+      <c r="B66" s="46">
         <v>210</v>
       </c>
-      <c r="C66" s="82"/>
-      <c r="D66" s="52" t="s">
+      <c r="C66" s="54"/>
+      <c r="D66" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="E66" s="57" t="s">
+      <c r="E66" s="83" t="s">
         <v>78</v>
       </c>
-      <c r="F66" s="82"/>
-      <c r="G66" s="15">
+      <c r="F66" s="54"/>
+      <c r="G66" s="45">
         <f>210-0.69</f>
         <v>209.31</v>
       </c>
-      <c r="H66" s="15">
+      <c r="H66" s="45">
         <f>210+0.69</f>
         <v>210.69</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A67" s="63"/>
-      <c r="B67" s="52">
+      <c r="A67" s="54"/>
+      <c r="B67" s="46">
         <v>70</v>
       </c>
-      <c r="C67" s="82"/>
-      <c r="D67" s="52" t="s">
+      <c r="C67" s="54"/>
+      <c r="D67" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="E67" s="57" t="s">
+      <c r="E67" s="83" t="s">
         <v>79</v>
       </c>
-      <c r="F67" s="82"/>
-      <c r="G67" s="54">
+      <c r="F67" s="54"/>
+      <c r="G67" s="49">
         <f>70-6.6</f>
         <v>63.4</v>
       </c>
-      <c r="H67" s="54">
+      <c r="H67" s="49">
         <f>70+6.6</f>
         <v>76.599999999999994</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A68" s="16"/>
-      <c r="B68" s="17"/>
-      <c r="C68" s="18"/>
-      <c r="D68" s="19"/>
-      <c r="E68" s="20"/>
-      <c r="F68" s="21"/>
+      <c r="A68" s="11"/>
+      <c r="B68" s="12"/>
+      <c r="C68" s="13"/>
+      <c r="D68" s="14"/>
+      <c r="E68" s="15"/>
+      <c r="F68" s="16"/>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A69" s="22" t="s">
+      <c r="A69" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="B69" s="17"/>
-      <c r="C69" s="18"/>
-      <c r="D69" s="19"/>
-      <c r="E69" s="20"/>
-      <c r="F69" s="21"/>
+      <c r="B69" s="12"/>
+      <c r="C69" s="13"/>
+      <c r="D69" s="14"/>
+      <c r="E69" s="15"/>
+      <c r="F69" s="16"/>
     </row>
     <row r="70" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="60" t="s">
+      <c r="A70" s="53" t="s">
         <v>126</v>
       </c>
-      <c r="B70" s="60" t="s">
+      <c r="B70" s="53" t="s">
         <v>134</v>
       </c>
-      <c r="C70" s="60"/>
-      <c r="D70" s="60" t="s">
+      <c r="C70" s="53"/>
+      <c r="D70" s="53" t="s">
         <v>144</v>
       </c>
-      <c r="E70" s="60"/>
-      <c r="F70" s="60" t="s">
+      <c r="E70" s="53"/>
+      <c r="F70" s="53" t="s">
         <v>158</v>
       </c>
-      <c r="G70" s="60"/>
+      <c r="G70" s="53"/>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A71" s="60"/>
-      <c r="B71" s="60"/>
-      <c r="C71" s="60"/>
-      <c r="D71" s="60"/>
-      <c r="E71" s="60"/>
-      <c r="F71" s="53" t="s">
+      <c r="A71" s="53"/>
+      <c r="B71" s="53"/>
+      <c r="C71" s="53"/>
+      <c r="D71" s="53"/>
+      <c r="E71" s="53"/>
+      <c r="F71" s="43" t="s">
         <v>159</v>
       </c>
-      <c r="G71" s="53" t="s">
+      <c r="G71" s="43" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A72" s="51" t="s">
+      <c r="A72" s="46" t="s">
         <v>155</v>
       </c>
-      <c r="B72" s="51">
+      <c r="B72" s="46">
         <v>100</v>
       </c>
-      <c r="C72" s="55" t="s">
+      <c r="C72" s="44" t="s">
         <v>157</v>
       </c>
-      <c r="D72" s="57" t="s">
+      <c r="D72" s="83" t="s">
         <v>80</v>
       </c>
-      <c r="E72" s="55" t="s">
+      <c r="E72" s="44" t="s">
         <v>157</v>
       </c>
-      <c r="F72" s="14">
+      <c r="F72" s="48">
         <f>100-0.075</f>
         <v>99.924999999999997</v>
       </c>
-      <c r="G72" s="14">
+      <c r="G72" s="48">
         <f>100+0.075</f>
         <v>100.075</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A73" s="51" t="s">
+      <c r="A73" s="46" t="s">
         <v>154</v>
       </c>
-      <c r="B73" s="51">
+      <c r="B73" s="46">
         <v>1</v>
       </c>
-      <c r="C73" s="61" t="s">
+      <c r="C73" s="64" t="s">
         <v>156</v>
       </c>
-      <c r="D73" s="57" t="s">
+      <c r="D73" s="83" t="s">
         <v>81</v>
       </c>
-      <c r="E73" s="61" t="s">
+      <c r="E73" s="64" t="s">
         <v>156</v>
       </c>
-      <c r="F73" s="50">
+      <c r="F73" s="40">
         <f>1-0.00056</f>
         <v>0.99944</v>
       </c>
-      <c r="G73" s="50">
+      <c r="G73" s="40">
         <f>1+0.00056</f>
         <v>1.0005599999999999</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A74" s="51" t="s">
+      <c r="A74" s="46" t="s">
         <v>153</v>
       </c>
-      <c r="B74" s="51">
+      <c r="B74" s="46">
         <v>10</v>
       </c>
-      <c r="C74" s="61"/>
-      <c r="D74" s="57" t="s">
+      <c r="C74" s="64"/>
+      <c r="D74" s="83" t="s">
         <v>82</v>
       </c>
-      <c r="E74" s="61"/>
-      <c r="F74" s="14">
+      <c r="E74" s="64"/>
+      <c r="F74" s="48">
         <f>10-0.007</f>
         <v>9.9930000000000003</v>
       </c>
-      <c r="G74" s="14">
+      <c r="G74" s="48">
         <f>10+0.007</f>
         <v>10.007</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A75" s="51" t="s">
+      <c r="A75" s="46" t="s">
         <v>152</v>
       </c>
-      <c r="B75" s="51">
+      <c r="B75" s="46">
         <v>100</v>
       </c>
-      <c r="C75" s="61"/>
-      <c r="D75" s="57" t="s">
+      <c r="C75" s="64"/>
+      <c r="D75" s="83" t="s">
         <v>83</v>
       </c>
-      <c r="E75" s="61"/>
-      <c r="F75" s="14">
+      <c r="E75" s="64"/>
+      <c r="F75" s="48">
         <f>100-0.055</f>
         <v>99.944999999999993</v>
       </c>
-      <c r="G75" s="14">
+      <c r="G75" s="48">
         <f>100+0.055</f>
         <v>100.05500000000001</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A76" s="51" t="s">
+      <c r="A76" s="46" t="s">
         <v>150</v>
       </c>
-      <c r="B76" s="51">
+      <c r="B76" s="46">
         <v>1</v>
       </c>
-      <c r="C76" s="61" t="s">
+      <c r="C76" s="64" t="s">
         <v>149</v>
       </c>
-      <c r="D76" s="57" t="s">
+      <c r="D76" s="83" t="s">
         <v>84</v>
       </c>
-      <c r="E76" s="61" t="s">
+      <c r="E76" s="64" t="s">
         <v>149</v>
       </c>
-      <c r="F76" s="13">
+      <c r="F76" s="47">
         <f>1-0.0011</f>
         <v>0.99890000000000001</v>
       </c>
-      <c r="G76" s="13">
+      <c r="G76" s="47">
         <f>1+0.0011</f>
         <v>1.0011000000000001</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A77" s="51" t="s">
+      <c r="A77" s="46" t="s">
         <v>151</v>
       </c>
-      <c r="B77" s="51">
+      <c r="B77" s="46">
         <v>2</v>
       </c>
-      <c r="C77" s="61"/>
-      <c r="D77" s="57" t="s">
+      <c r="C77" s="64"/>
+      <c r="D77" s="83" t="s">
         <v>85</v>
       </c>
-      <c r="E77" s="61"/>
-      <c r="F77" s="13">
+      <c r="E77" s="64"/>
+      <c r="F77" s="47">
         <f>2-0.0046</f>
         <v>1.9954000000000001</v>
       </c>
-      <c r="G77" s="13">
+      <c r="G77" s="47">
         <f>2+0.0046</f>
         <v>2.0045999999999999</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A78" s="16"/>
-      <c r="B78" s="16"/>
-      <c r="C78" s="18"/>
-      <c r="D78" s="19"/>
-      <c r="E78" s="20"/>
-      <c r="F78" s="21"/>
+      <c r="A78" s="11"/>
+      <c r="B78" s="11"/>
+      <c r="C78" s="13"/>
+      <c r="D78" s="14"/>
+      <c r="E78" s="15"/>
+      <c r="F78" s="16"/>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A79" s="22" t="s">
+      <c r="A79" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="B79" s="16"/>
-      <c r="C79" s="18"/>
-      <c r="D79" s="19"/>
-      <c r="E79" s="20"/>
-      <c r="F79" s="21"/>
+      <c r="B79" s="11"/>
+      <c r="C79" s="13"/>
+      <c r="D79" s="14"/>
+      <c r="E79" s="15"/>
+      <c r="F79" s="16"/>
     </row>
     <row r="80" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="60" t="s">
+      <c r="A80" s="53" t="s">
         <v>126</v>
       </c>
-      <c r="B80" s="60" t="s">
+      <c r="B80" s="53" t="s">
         <v>134</v>
       </c>
-      <c r="C80" s="60"/>
-      <c r="D80" s="60" t="s">
+      <c r="C80" s="53"/>
+      <c r="D80" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="E80" s="60" t="s">
+      <c r="E80" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="F80" s="60"/>
-      <c r="G80" s="60" t="s">
+      <c r="F80" s="53"/>
+      <c r="G80" s="53" t="s">
         <v>158</v>
       </c>
-      <c r="H80" s="60"/>
+      <c r="H80" s="53"/>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A81" s="60"/>
-      <c r="B81" s="60"/>
-      <c r="C81" s="60"/>
-      <c r="D81" s="60"/>
-      <c r="E81" s="60"/>
-      <c r="F81" s="60"/>
-      <c r="G81" s="53" t="s">
+      <c r="A81" s="53"/>
+      <c r="B81" s="53"/>
+      <c r="C81" s="53"/>
+      <c r="D81" s="53"/>
+      <c r="E81" s="53"/>
+      <c r="F81" s="53"/>
+      <c r="G81" s="43" t="s">
         <v>159</v>
       </c>
-      <c r="H81" s="53" t="s">
+      <c r="H81" s="43" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A82" s="63" t="s">
+      <c r="A82" s="54" t="s">
         <v>155</v>
       </c>
-      <c r="B82" s="63">
+      <c r="B82" s="54">
         <v>100</v>
       </c>
-      <c r="C82" s="61" t="s">
+      <c r="C82" s="64" t="s">
         <v>157</v>
       </c>
-      <c r="D82" s="52" t="s">
+      <c r="D82" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="E82" s="57" t="s">
+      <c r="E82" s="83" t="s">
         <v>86</v>
       </c>
-      <c r="F82" s="61" t="s">
+      <c r="F82" s="64" t="s">
         <v>157</v>
       </c>
-      <c r="G82" s="62">
+      <c r="G82" s="73">
         <f>100-0.14</f>
         <v>99.86</v>
       </c>
-      <c r="H82" s="62">
+      <c r="H82" s="73">
         <f>100+0.14</f>
         <v>100.14</v>
       </c>
     </row>
     <row r="83" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="63"/>
-      <c r="B83" s="63"/>
-      <c r="C83" s="61"/>
-      <c r="D83" s="52" t="s">
+      <c r="A83" s="54"/>
+      <c r="B83" s="54"/>
+      <c r="C83" s="64"/>
+      <c r="D83" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="E83" s="57" t="s">
+      <c r="E83" s="83" t="s">
         <v>87</v>
       </c>
-      <c r="F83" s="61"/>
-      <c r="G83" s="62"/>
-      <c r="H83" s="62"/>
+      <c r="F83" s="64"/>
+      <c r="G83" s="73"/>
+      <c r="H83" s="73"/>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A84" s="63" t="s">
+      <c r="A84" s="54" t="s">
         <v>154</v>
       </c>
-      <c r="B84" s="63">
+      <c r="B84" s="54">
         <v>1</v>
       </c>
-      <c r="C84" s="82" t="s">
+      <c r="C84" s="54" t="s">
         <v>156</v>
       </c>
-      <c r="D84" s="52" t="s">
+      <c r="D84" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="E84" s="57" t="s">
+      <c r="E84" s="83" t="s">
         <v>88</v>
       </c>
-      <c r="F84" s="82" t="s">
+      <c r="F84" s="54" t="s">
         <v>156</v>
       </c>
-      <c r="G84" s="64">
+      <c r="G84" s="65">
         <f>1-0.0014</f>
         <v>0.99860000000000004</v>
       </c>
-      <c r="H84" s="63">
+      <c r="H84" s="54">
         <f>1+0.0014</f>
         <v>1.0014000000000001</v>
       </c>
     </row>
     <row r="85" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="63"/>
-      <c r="B85" s="63"/>
-      <c r="C85" s="82"/>
-      <c r="D85" s="52" t="s">
+      <c r="A85" s="54"/>
+      <c r="B85" s="54"/>
+      <c r="C85" s="54"/>
+      <c r="D85" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="E85" s="57" t="s">
+      <c r="E85" s="83" t="s">
         <v>89</v>
       </c>
-      <c r="F85" s="82"/>
-      <c r="G85" s="64"/>
-      <c r="H85" s="63"/>
+      <c r="F85" s="54"/>
+      <c r="G85" s="65"/>
+      <c r="H85" s="54"/>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A86" s="63" t="s">
+      <c r="A86" s="54" t="s">
         <v>153</v>
       </c>
-      <c r="B86" s="51">
+      <c r="B86" s="46">
         <v>100</v>
       </c>
-      <c r="C86" s="52" t="s">
+      <c r="C86" s="46" t="s">
         <v>157</v>
       </c>
-      <c r="D86" s="82" t="s">
+      <c r="D86" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="E86" s="57" t="s">
+      <c r="E86" s="83" t="s">
         <v>90</v>
       </c>
-      <c r="F86" s="52" t="s">
+      <c r="F86" s="46" t="s">
         <v>157</v>
       </c>
-      <c r="G86" s="54">
+      <c r="G86" s="49">
         <f>100-4.1</f>
         <v>95.9</v>
       </c>
-      <c r="H86" s="54">
+      <c r="H86" s="49">
         <f>100+4.1</f>
         <v>104.1</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A87" s="63"/>
-      <c r="B87" s="51">
+      <c r="A87" s="54"/>
+      <c r="B87" s="46">
         <v>1</v>
       </c>
-      <c r="C87" s="82" t="s">
+      <c r="C87" s="54" t="s">
         <v>156</v>
       </c>
-      <c r="D87" s="82"/>
-      <c r="E87" s="57" t="s">
+      <c r="D87" s="54"/>
+      <c r="E87" s="83" t="s">
         <v>91</v>
       </c>
-      <c r="F87" s="82" t="s">
+      <c r="F87" s="54" t="s">
         <v>156</v>
       </c>
-      <c r="G87" s="14">
+      <c r="G87" s="48">
         <f>1-0.005</f>
         <v>0.995</v>
       </c>
-      <c r="H87" s="51">
+      <c r="H87" s="46">
         <f>1+0.005</f>
         <v>1.0049999999999999</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A88" s="63"/>
-      <c r="B88" s="63">
+      <c r="A88" s="54"/>
+      <c r="B88" s="54">
         <v>10</v>
       </c>
-      <c r="C88" s="82"/>
-      <c r="D88" s="82"/>
-      <c r="E88" s="57" t="s">
+      <c r="C88" s="54"/>
+      <c r="D88" s="54"/>
+      <c r="E88" s="83" t="s">
         <v>92</v>
       </c>
-      <c r="F88" s="82"/>
-      <c r="G88" s="65">
+      <c r="F88" s="54"/>
+      <c r="G88" s="74">
         <f>10-0.014</f>
         <v>9.9860000000000007</v>
       </c>
-      <c r="H88" s="63">
+      <c r="H88" s="54">
         <f>10+0.014</f>
         <v>10.013999999999999</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A89" s="63"/>
-      <c r="B89" s="63"/>
-      <c r="C89" s="82"/>
-      <c r="D89" s="52" t="s">
+      <c r="A89" s="54"/>
+      <c r="B89" s="54"/>
+      <c r="C89" s="54"/>
+      <c r="D89" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="E89" s="57" t="s">
+      <c r="E89" s="83" t="s">
         <v>93</v>
       </c>
-      <c r="F89" s="82"/>
-      <c r="G89" s="65"/>
-      <c r="H89" s="63"/>
+      <c r="F89" s="54"/>
+      <c r="G89" s="74"/>
+      <c r="H89" s="54"/>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A90" s="63" t="s">
+      <c r="A90" s="54" t="s">
         <v>152</v>
       </c>
-      <c r="B90" s="82">
+      <c r="B90" s="54">
         <v>100</v>
       </c>
-      <c r="C90" s="82" t="s">
+      <c r="C90" s="54" t="s">
         <v>156</v>
       </c>
-      <c r="D90" s="52" t="s">
+      <c r="D90" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="E90" s="57" t="s">
+      <c r="E90" s="83" t="s">
         <v>94</v>
       </c>
-      <c r="F90" s="82" t="s">
+      <c r="F90" s="54" t="s">
         <v>156</v>
       </c>
-      <c r="G90" s="62">
+      <c r="G90" s="73">
         <f>100-0.14</f>
         <v>99.86</v>
       </c>
-      <c r="H90" s="63">
+      <c r="H90" s="54">
         <f>100+0.14</f>
         <v>100.14</v>
       </c>
     </row>
     <row r="91" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="63"/>
-      <c r="B91" s="82"/>
-      <c r="C91" s="82"/>
-      <c r="D91" s="52" t="s">
+      <c r="A91" s="54"/>
+      <c r="B91" s="54"/>
+      <c r="C91" s="54"/>
+      <c r="D91" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="E91" s="57" t="s">
+      <c r="E91" s="83" t="s">
         <v>95</v>
       </c>
-      <c r="F91" s="82"/>
-      <c r="G91" s="62"/>
-      <c r="H91" s="63"/>
+      <c r="F91" s="54"/>
+      <c r="G91" s="73"/>
+      <c r="H91" s="54"/>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A92" s="63"/>
-      <c r="B92" s="82"/>
-      <c r="C92" s="82"/>
-      <c r="D92" s="52" t="s">
+      <c r="A92" s="54"/>
+      <c r="B92" s="54"/>
+      <c r="C92" s="54"/>
+      <c r="D92" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="E92" s="57" t="s">
+      <c r="E92" s="83" t="s">
         <v>96</v>
       </c>
-      <c r="F92" s="82"/>
-      <c r="G92" s="62"/>
-      <c r="H92" s="63"/>
+      <c r="F92" s="54"/>
+      <c r="G92" s="73"/>
+      <c r="H92" s="54"/>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A93" s="63" t="s">
+      <c r="A93" s="54" t="s">
         <v>150</v>
       </c>
-      <c r="B93" s="63">
+      <c r="B93" s="54">
         <v>1</v>
       </c>
-      <c r="C93" s="82" t="s">
+      <c r="C93" s="54" t="s">
         <v>149</v>
       </c>
-      <c r="D93" s="52" t="s">
+      <c r="D93" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="E93" s="57" t="s">
+      <c r="E93" s="83" t="s">
         <v>97</v>
       </c>
-      <c r="F93" s="82" t="s">
+      <c r="F93" s="54" t="s">
         <v>149</v>
       </c>
-      <c r="G93" s="64">
+      <c r="G93" s="65">
         <f>1-0.0014</f>
         <v>0.99860000000000004</v>
       </c>
-      <c r="H93" s="63">
+      <c r="H93" s="54">
         <f>1+0.0014</f>
         <v>1.0014000000000001</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A94" s="63"/>
-      <c r="B94" s="63"/>
-      <c r="C94" s="82"/>
-      <c r="D94" s="52" t="s">
+      <c r="A94" s="54"/>
+      <c r="B94" s="54"/>
+      <c r="C94" s="54"/>
+      <c r="D94" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="E94" s="57" t="s">
+      <c r="E94" s="83" t="s">
         <v>98</v>
       </c>
-      <c r="F94" s="82"/>
-      <c r="G94" s="64"/>
-      <c r="H94" s="63"/>
+      <c r="F94" s="54"/>
+      <c r="G94" s="65"/>
+      <c r="H94" s="54"/>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A95" s="63" t="s">
+      <c r="A95" s="54" t="s">
         <v>151</v>
       </c>
-      <c r="B95" s="63">
+      <c r="B95" s="54">
         <v>2</v>
       </c>
-      <c r="C95" s="82" t="s">
+      <c r="C95" s="54" t="s">
         <v>149</v>
       </c>
-      <c r="D95" s="52" t="s">
+      <c r="D95" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="E95" s="57" t="s">
+      <c r="E95" s="83" t="s">
         <v>99</v>
       </c>
-      <c r="F95" s="82" t="s">
+      <c r="F95" s="54" t="s">
         <v>149</v>
       </c>
-      <c r="G95" s="64">
+      <c r="G95" s="65">
         <f>2-0.0058</f>
         <v>1.9942</v>
       </c>
-      <c r="H95" s="63">
+      <c r="H95" s="54">
         <f>2+0.0058</f>
         <v>2.0057999999999998</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A96" s="63"/>
-      <c r="B96" s="63"/>
-      <c r="C96" s="82"/>
-      <c r="D96" s="52" t="s">
+      <c r="A96" s="54"/>
+      <c r="B96" s="54"/>
+      <c r="C96" s="54"/>
+      <c r="D96" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="E96" s="57" t="s">
+      <c r="E96" s="83" t="s">
         <v>100</v>
       </c>
-      <c r="F96" s="82"/>
-      <c r="G96" s="64"/>
-      <c r="H96" s="63"/>
+      <c r="F96" s="54"/>
+      <c r="G96" s="65"/>
+      <c r="H96" s="54"/>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A97" s="16"/>
-      <c r="B97" s="16"/>
-      <c r="C97" s="16"/>
-      <c r="D97" s="49"/>
-      <c r="E97" s="49"/>
-      <c r="F97" s="21"/>
+      <c r="A97" s="11"/>
+      <c r="B97" s="11"/>
+      <c r="C97" s="11"/>
+      <c r="D97" s="84"/>
+      <c r="E97" s="84"/>
+      <c r="F97" s="16"/>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A98" s="22" t="s">
+      <c r="A98" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B98" s="16"/>
-      <c r="C98" s="16"/>
-      <c r="D98" s="18"/>
-      <c r="E98" s="19"/>
-      <c r="F98" s="21"/>
+      <c r="B98" s="11"/>
+      <c r="C98" s="11"/>
+      <c r="D98" s="13"/>
+      <c r="E98" s="14"/>
+      <c r="F98" s="16"/>
     </row>
     <row r="99" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="60" t="s">
+      <c r="A99" s="53" t="s">
         <v>126</v>
       </c>
-      <c r="B99" s="83" t="s">
+      <c r="B99" s="68" t="s">
         <v>134</v>
       </c>
-      <c r="C99" s="60" t="s">
+      <c r="C99" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="D99" s="60"/>
-      <c r="E99" s="60" t="s">
+      <c r="D99" s="53"/>
+      <c r="E99" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="F99" s="60"/>
-      <c r="G99" s="60" t="s">
+      <c r="F99" s="53"/>
+      <c r="G99" s="53" t="s">
         <v>158</v>
       </c>
-      <c r="H99" s="60"/>
+      <c r="H99" s="53"/>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A100" s="60"/>
-      <c r="B100" s="83"/>
-      <c r="C100" s="60"/>
-      <c r="D100" s="60"/>
-      <c r="E100" s="60"/>
-      <c r="F100" s="60"/>
-      <c r="G100" s="53" t="s">
+      <c r="A100" s="53"/>
+      <c r="B100" s="68"/>
+      <c r="C100" s="53"/>
+      <c r="D100" s="53"/>
+      <c r="E100" s="53"/>
+      <c r="F100" s="53"/>
+      <c r="G100" s="43" t="s">
         <v>159</v>
       </c>
-      <c r="H100" s="53" t="s">
+      <c r="H100" s="43" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A101" s="53" t="s">
+      <c r="A101" s="43" t="s">
         <v>128</v>
       </c>
-      <c r="B101" s="53" t="s">
+      <c r="B101" s="43" t="s">
         <v>127</v>
       </c>
-      <c r="C101" s="27">
+      <c r="C101" s="22">
         <v>10</v>
       </c>
-      <c r="D101" s="55" t="s">
+      <c r="D101" s="44" t="s">
         <v>135</v>
       </c>
-      <c r="E101" s="57" t="s">
+      <c r="E101" s="83" t="s">
         <v>101</v>
       </c>
-      <c r="F101" s="55" t="s">
+      <c r="F101" s="44" t="s">
         <v>135</v>
       </c>
-      <c r="G101" s="14">
+      <c r="G101" s="48">
         <f>10-0.003</f>
         <v>9.9969999999999999</v>
       </c>
-      <c r="H101" s="58">
+      <c r="H101" s="41">
         <f>10+0.003</f>
         <v>10.003</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A102" s="53" t="s">
+      <c r="A102" s="43" t="s">
         <v>127</v>
       </c>
-      <c r="B102" s="53" t="s">
+      <c r="B102" s="43" t="s">
         <v>133</v>
       </c>
-      <c r="C102" s="27">
+      <c r="C102" s="22">
         <v>300</v>
       </c>
-      <c r="D102" s="55" t="s">
+      <c r="D102" s="44" t="s">
         <v>136</v>
       </c>
-      <c r="E102" s="57" t="s">
+      <c r="E102" s="83" t="s">
         <v>102</v>
       </c>
-      <c r="F102" s="55" t="s">
+      <c r="F102" s="44" t="s">
         <v>136</v>
       </c>
-      <c r="G102" s="15">
+      <c r="G102" s="45">
         <f>300-0.36</f>
         <v>299.64</v>
       </c>
-      <c r="H102" s="53">
+      <c r="H102" s="43">
         <f>300+0.36</f>
         <v>300.36</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A103" s="16"/>
-      <c r="B103" s="16"/>
-      <c r="C103" s="16"/>
-      <c r="D103" s="18"/>
-      <c r="E103" s="19"/>
-      <c r="F103" s="21"/>
+      <c r="A103" s="11"/>
+      <c r="B103" s="11"/>
+      <c r="C103" s="11"/>
+      <c r="D103" s="13"/>
+      <c r="E103" s="14"/>
+      <c r="F103" s="16"/>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A104" s="6" t="s">
+      <c r="A104" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="B104" s="16"/>
-      <c r="C104" s="16"/>
-      <c r="D104" s="18"/>
-      <c r="E104" s="19"/>
-      <c r="F104" s="21"/>
-    </row>
-    <row r="105" spans="1:8" s="7" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="6" t="s">
+      <c r="B104" s="11"/>
+      <c r="C104" s="11"/>
+      <c r="D104" s="13"/>
+      <c r="E104" s="14"/>
+      <c r="F104" s="16"/>
+    </row>
+    <row r="105" spans="1:8" s="5" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A105" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="B105" s="23"/>
-      <c r="C105" s="23"/>
-      <c r="D105" s="24"/>
-      <c r="E105" s="25"/>
-      <c r="F105" s="26"/>
-      <c r="G105" s="6"/>
-      <c r="H105" s="6"/>
+      <c r="B105" s="18"/>
+      <c r="C105" s="18"/>
+      <c r="D105" s="19"/>
+      <c r="E105" s="20"/>
+      <c r="F105" s="21"/>
     </row>
     <row r="106" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="60" t="s">
+      <c r="A106" s="53" t="s">
         <v>126</v>
       </c>
-      <c r="B106" s="60" t="s">
+      <c r="B106" s="53" t="s">
         <v>134</v>
       </c>
-      <c r="C106" s="60"/>
-      <c r="D106" s="60" t="s">
+      <c r="C106" s="53"/>
+      <c r="D106" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="E106" s="60"/>
-      <c r="F106" s="60" t="s">
+      <c r="E106" s="53"/>
+      <c r="F106" s="53" t="s">
         <v>158</v>
       </c>
-      <c r="G106" s="60"/>
+      <c r="G106" s="53"/>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A107" s="60"/>
-      <c r="B107" s="60"/>
-      <c r="C107" s="60"/>
-      <c r="D107" s="60"/>
-      <c r="E107" s="60"/>
-      <c r="F107" s="53" t="s">
+      <c r="A107" s="53"/>
+      <c r="B107" s="53"/>
+      <c r="C107" s="53"/>
+      <c r="D107" s="53"/>
+      <c r="E107" s="53"/>
+      <c r="F107" s="43" t="s">
         <v>159</v>
       </c>
-      <c r="G107" s="53" t="s">
+      <c r="G107" s="43" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A108" s="27" t="s">
+      <c r="A108" s="22" t="s">
         <v>137</v>
       </c>
-      <c r="B108" s="27">
+      <c r="B108" s="22">
         <v>100</v>
       </c>
-      <c r="C108" s="55" t="s">
+      <c r="C108" s="44" t="s">
         <v>146</v>
       </c>
-      <c r="D108" s="57" t="s">
+      <c r="D108" s="83" t="s">
         <v>103</v>
       </c>
-      <c r="E108" s="55" t="s">
+      <c r="E108" s="44" t="s">
         <v>146</v>
       </c>
-      <c r="F108" s="14">
+      <c r="F108" s="48">
         <f>100-0.021</f>
         <v>99.978999999999999</v>
       </c>
-      <c r="G108" s="14">
+      <c r="G108" s="48">
         <f>100+0.021</f>
         <v>100.021</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A109" s="27" t="s">
+      <c r="A109" s="22" t="s">
         <v>138</v>
       </c>
-      <c r="B109" s="27">
+      <c r="B109" s="22">
         <v>1</v>
       </c>
-      <c r="C109" s="61" t="s">
+      <c r="C109" s="64" t="s">
         <v>147</v>
       </c>
-      <c r="D109" s="57" t="s">
+      <c r="D109" s="83" t="s">
         <v>104</v>
       </c>
-      <c r="E109" s="61" t="s">
+      <c r="E109" s="64" t="s">
         <v>147</v>
       </c>
-      <c r="F109" s="50">
+      <c r="F109" s="40">
         <f>1-0.00015</f>
         <v>0.99985000000000002</v>
       </c>
-      <c r="G109" s="50">
+      <c r="G109" s="40">
         <f>1+0.00015</f>
         <v>1.0001500000000001</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A110" s="27" t="s">
+      <c r="A110" s="22" t="s">
         <v>139</v>
       </c>
-      <c r="B110" s="27">
+      <c r="B110" s="22">
         <v>10</v>
       </c>
-      <c r="C110" s="61"/>
-      <c r="D110" s="57" t="s">
+      <c r="C110" s="64"/>
+      <c r="D110" s="83" t="s">
         <v>105</v>
       </c>
-      <c r="E110" s="61"/>
-      <c r="F110" s="13">
+      <c r="E110" s="64"/>
+      <c r="F110" s="47">
         <f>10-0.0015</f>
         <v>9.9984999999999999</v>
       </c>
-      <c r="G110" s="13">
+      <c r="G110" s="47">
         <f>10+0.0015</f>
         <v>10.0015</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A111" s="27" t="s">
+      <c r="A111" s="22" t="s">
         <v>140</v>
       </c>
-      <c r="B111" s="27">
+      <c r="B111" s="22">
         <v>100</v>
       </c>
-      <c r="C111" s="61"/>
-      <c r="D111" s="57" t="s">
+      <c r="C111" s="64"/>
+      <c r="D111" s="83" t="s">
         <v>106</v>
       </c>
-      <c r="E111" s="61"/>
-      <c r="F111" s="14">
+      <c r="E111" s="64"/>
+      <c r="F111" s="48">
         <f>100-0.015</f>
         <v>99.984999999999999</v>
       </c>
-      <c r="G111" s="14">
+      <c r="G111" s="48">
         <f>100+0.015</f>
         <v>100.015</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A112" s="28"/>
-      <c r="B112" s="28"/>
-      <c r="C112" s="29"/>
-      <c r="D112" s="30"/>
-      <c r="E112" s="31"/>
-      <c r="F112" s="21"/>
-    </row>
-    <row r="113" spans="1:8" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A113" s="33" t="s">
+      <c r="A112" s="23"/>
+      <c r="B112" s="23"/>
+      <c r="C112" s="24"/>
+      <c r="D112" s="25"/>
+      <c r="E112" s="26"/>
+      <c r="F112" s="16"/>
+    </row>
+    <row r="113" spans="1:8" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A113" s="28" t="s">
         <v>122</v>
       </c>
-      <c r="B113" s="23"/>
-      <c r="C113" s="23"/>
-      <c r="D113" s="24"/>
-      <c r="E113" s="25"/>
-      <c r="F113" s="26"/>
-      <c r="G113" s="6"/>
-      <c r="H113" s="6"/>
+      <c r="B113" s="18"/>
+      <c r="C113" s="18"/>
+      <c r="D113" s="19"/>
+      <c r="E113" s="20"/>
+      <c r="F113" s="21"/>
     </row>
     <row r="114" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="60" t="s">
+      <c r="A114" s="53" t="s">
         <v>126</v>
       </c>
-      <c r="B114" s="60" t="s">
+      <c r="B114" s="53" t="s">
         <v>134</v>
       </c>
-      <c r="C114" s="60"/>
-      <c r="D114" s="60" t="s">
+      <c r="C114" s="53"/>
+      <c r="D114" s="53" t="s">
         <v>144</v>
       </c>
-      <c r="E114" s="60"/>
-      <c r="F114" s="60" t="s">
+      <c r="E114" s="53"/>
+      <c r="F114" s="53" t="s">
         <v>158</v>
       </c>
-      <c r="G114" s="60"/>
+      <c r="G114" s="53"/>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A115" s="60"/>
-      <c r="B115" s="60"/>
-      <c r="C115" s="60"/>
-      <c r="D115" s="60"/>
-      <c r="E115" s="60"/>
-      <c r="F115" s="53" t="s">
+      <c r="A115" s="53"/>
+      <c r="B115" s="53"/>
+      <c r="C115" s="53"/>
+      <c r="D115" s="53"/>
+      <c r="E115" s="53"/>
+      <c r="F115" s="43" t="s">
         <v>159</v>
       </c>
-      <c r="G115" s="53" t="s">
+      <c r="G115" s="43" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A116" s="27" t="s">
+      <c r="A116" s="22" t="s">
         <v>141</v>
       </c>
-      <c r="B116" s="27">
+      <c r="B116" s="22">
         <v>1</v>
       </c>
-      <c r="C116" s="61" t="s">
+      <c r="C116" s="64" t="s">
         <v>145</v>
       </c>
-      <c r="D116" s="57" t="s">
+      <c r="D116" s="83" t="s">
         <v>107</v>
       </c>
-      <c r="E116" s="61" t="s">
+      <c r="E116" s="64" t="s">
         <v>145</v>
       </c>
-      <c r="F116" s="50">
+      <c r="F116" s="40">
         <f>1-0.00015</f>
         <v>0.99985000000000002</v>
       </c>
-      <c r="G116" s="50">
+      <c r="G116" s="40">
         <f>1+0.00015</f>
         <v>1.0001500000000001</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A117" s="27" t="s">
+      <c r="A117" s="22" t="s">
         <v>142</v>
       </c>
-      <c r="B117" s="27">
+      <c r="B117" s="22">
         <v>10</v>
       </c>
-      <c r="C117" s="61"/>
-      <c r="D117" s="57" t="s">
+      <c r="C117" s="64"/>
+      <c r="D117" s="83" t="s">
         <v>108</v>
       </c>
-      <c r="E117" s="61"/>
-      <c r="F117" s="13">
+      <c r="E117" s="64"/>
+      <c r="F117" s="47">
         <f>10-0.0041</f>
         <v>9.9959000000000007</v>
       </c>
-      <c r="G117" s="13">
+      <c r="G117" s="47">
         <f>10+0.0041</f>
         <v>10.004099999999999</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A118" s="27" t="s">
+      <c r="A118" s="22" t="s">
         <v>143</v>
       </c>
-      <c r="B118" s="27">
+      <c r="B118" s="22">
         <v>100</v>
       </c>
-      <c r="C118" s="61"/>
-      <c r="D118" s="57" t="s">
+      <c r="C118" s="64"/>
+      <c r="D118" s="83" t="s">
         <v>109</v>
       </c>
-      <c r="E118" s="61"/>
-      <c r="F118" s="14">
+      <c r="E118" s="64"/>
+      <c r="F118" s="48">
         <f>100-0.081</f>
         <v>99.918999999999997</v>
       </c>
-      <c r="G118" s="14">
+      <c r="G118" s="48">
         <f>100+0.081</f>
         <v>100.081</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A119" s="32"/>
-      <c r="B119" s="34"/>
-      <c r="C119" s="12"/>
-      <c r="D119" s="12"/>
-      <c r="E119" s="12"/>
-      <c r="F119" s="21"/>
+      <c r="A119" s="27"/>
+      <c r="B119" s="29"/>
+      <c r="C119" s="10"/>
+      <c r="D119" s="10"/>
+      <c r="E119" s="10"/>
+      <c r="F119" s="16"/>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A120" s="80" t="s">
+      <c r="A120" s="50" t="s">
         <v>161</v>
       </c>
-      <c r="B120" s="80"/>
-      <c r="C120" s="59" t="s">
+      <c r="B120" s="50"/>
+      <c r="C120" s="42" t="s">
         <v>162</v>
       </c>
-      <c r="D120" s="12"/>
-      <c r="E120" s="12"/>
-      <c r="F120" s="21"/>
+      <c r="D120" s="10"/>
+      <c r="E120" s="10"/>
+      <c r="F120" s="16"/>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A121" s="80" t="s">
+      <c r="A121" s="50" t="s">
         <v>163</v>
       </c>
-      <c r="B121" s="80"/>
-      <c r="C121" s="35"/>
-      <c r="D121" s="36" t="s">
+      <c r="B121" s="50"/>
+      <c r="C121" s="30"/>
+      <c r="D121" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="E121" s="90" t="s">
+      <c r="E121" s="85" t="s">
         <v>47</v>
       </c>
-      <c r="F121" s="91"/>
-      <c r="G121" s="12" t="s">
+      <c r="F121" s="51"/>
+      <c r="G121" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="H121" s="37"/>
+      <c r="H121" s="32"/>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A122" s="80" t="s">
+      <c r="A122" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="B122" s="80"/>
-      <c r="C122" s="81" t="s">
+      <c r="B122" s="50"/>
+      <c r="C122" s="86" t="s">
         <v>48</v>
       </c>
-      <c r="D122" s="81"/>
+      <c r="D122" s="86"/>
     </row>
   </sheetData>
   <mergeCells count="141">
+    <mergeCell ref="A114:A115"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="A80:A81"/>
+    <mergeCell ref="C109:C111"/>
+    <mergeCell ref="E109:E111"/>
+    <mergeCell ref="C73:C75"/>
+    <mergeCell ref="E73:E75"/>
+    <mergeCell ref="H82:H83"/>
+    <mergeCell ref="G82:G83"/>
+    <mergeCell ref="H84:H85"/>
+    <mergeCell ref="G84:G85"/>
+    <mergeCell ref="H88:H89"/>
+    <mergeCell ref="G88:G89"/>
+    <mergeCell ref="D106:E107"/>
+    <mergeCell ref="B70:C71"/>
+    <mergeCell ref="D70:E71"/>
+    <mergeCell ref="C76:C77"/>
+    <mergeCell ref="E76:E77"/>
+    <mergeCell ref="H90:H92"/>
+    <mergeCell ref="G90:G92"/>
+    <mergeCell ref="H95:H96"/>
+    <mergeCell ref="G95:G96"/>
+    <mergeCell ref="H93:H94"/>
+    <mergeCell ref="G93:G94"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="A5:H5"/>
+    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A7:H7"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A120:B120"/>
+    <mergeCell ref="A122:B122"/>
+    <mergeCell ref="C122:D122"/>
+    <mergeCell ref="C116:C118"/>
+    <mergeCell ref="E116:E118"/>
+    <mergeCell ref="A82:A83"/>
+    <mergeCell ref="B82:B83"/>
+    <mergeCell ref="C82:C83"/>
+    <mergeCell ref="F82:F83"/>
+    <mergeCell ref="A84:A85"/>
+    <mergeCell ref="B84:B85"/>
+    <mergeCell ref="C84:C85"/>
+    <mergeCell ref="F84:F85"/>
+    <mergeCell ref="A86:A89"/>
+    <mergeCell ref="D86:D88"/>
+    <mergeCell ref="C87:C89"/>
+    <mergeCell ref="C99:D100"/>
+    <mergeCell ref="E99:F100"/>
+    <mergeCell ref="B114:C115"/>
+    <mergeCell ref="D114:E115"/>
+    <mergeCell ref="A99:A100"/>
+    <mergeCell ref="A106:A107"/>
+    <mergeCell ref="B99:B100"/>
+    <mergeCell ref="B106:C107"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="B31:C32"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="C35:C43"/>
+    <mergeCell ref="D31:E32"/>
+    <mergeCell ref="E35:E43"/>
+    <mergeCell ref="A37:A39"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="A51:A53"/>
+    <mergeCell ref="B51:B53"/>
+    <mergeCell ref="C51:C53"/>
+    <mergeCell ref="F51:F53"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="G46:H46"/>
+    <mergeCell ref="B46:C47"/>
+    <mergeCell ref="E46:F47"/>
+    <mergeCell ref="A48:A50"/>
+    <mergeCell ref="B48:B50"/>
+    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="D80:D81"/>
+    <mergeCell ref="A70:A71"/>
+    <mergeCell ref="A95:A96"/>
+    <mergeCell ref="B95:B96"/>
+    <mergeCell ref="C95:C96"/>
+    <mergeCell ref="F95:F96"/>
+    <mergeCell ref="A65:A67"/>
+    <mergeCell ref="C65:C67"/>
+    <mergeCell ref="F70:G70"/>
+    <mergeCell ref="G80:H80"/>
+    <mergeCell ref="A93:A94"/>
+    <mergeCell ref="B93:B94"/>
+    <mergeCell ref="C93:C94"/>
+    <mergeCell ref="F93:F94"/>
+    <mergeCell ref="F87:F89"/>
     <mergeCell ref="A121:B121"/>
     <mergeCell ref="E121:F121"/>
     <mergeCell ref="C48:C50"/>
@@ -3502,123 +3575,6 @@
     <mergeCell ref="B80:C81"/>
     <mergeCell ref="E80:F81"/>
     <mergeCell ref="F65:F67"/>
-    <mergeCell ref="D80:D81"/>
-    <mergeCell ref="A70:A71"/>
-    <mergeCell ref="A95:A96"/>
-    <mergeCell ref="B95:B96"/>
-    <mergeCell ref="C95:C96"/>
-    <mergeCell ref="F95:F96"/>
-    <mergeCell ref="A65:A67"/>
-    <mergeCell ref="C65:C67"/>
-    <mergeCell ref="F70:G70"/>
-    <mergeCell ref="G80:H80"/>
-    <mergeCell ref="A93:A94"/>
-    <mergeCell ref="B93:B94"/>
-    <mergeCell ref="C93:C94"/>
-    <mergeCell ref="F93:F94"/>
-    <mergeCell ref="F87:F89"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="A51:A53"/>
-    <mergeCell ref="B51:B53"/>
-    <mergeCell ref="C51:C53"/>
-    <mergeCell ref="F51:F53"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="G46:H46"/>
-    <mergeCell ref="B46:C47"/>
-    <mergeCell ref="E46:F47"/>
-    <mergeCell ref="A48:A50"/>
-    <mergeCell ref="B48:B50"/>
-    <mergeCell ref="D46:D47"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="B31:C32"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="C35:C43"/>
-    <mergeCell ref="D31:E32"/>
-    <mergeCell ref="E35:E43"/>
-    <mergeCell ref="A37:A39"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="A120:B120"/>
-    <mergeCell ref="A122:B122"/>
-    <mergeCell ref="C122:D122"/>
-    <mergeCell ref="C116:C118"/>
-    <mergeCell ref="E116:E118"/>
-    <mergeCell ref="A82:A83"/>
-    <mergeCell ref="B82:B83"/>
-    <mergeCell ref="C82:C83"/>
-    <mergeCell ref="F82:F83"/>
-    <mergeCell ref="A84:A85"/>
-    <mergeCell ref="B84:B85"/>
-    <mergeCell ref="C84:C85"/>
-    <mergeCell ref="F84:F85"/>
-    <mergeCell ref="A86:A89"/>
-    <mergeCell ref="D86:D88"/>
-    <mergeCell ref="C87:C89"/>
-    <mergeCell ref="C99:D100"/>
-    <mergeCell ref="E99:F100"/>
-    <mergeCell ref="B114:C115"/>
-    <mergeCell ref="D114:E115"/>
-    <mergeCell ref="A99:A100"/>
-    <mergeCell ref="A106:A107"/>
-    <mergeCell ref="B99:B100"/>
-    <mergeCell ref="B106:C107"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="A5:H5"/>
-    <mergeCell ref="A4:H4"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A7:H7"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="A114:A115"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="A80:A81"/>
-    <mergeCell ref="C109:C111"/>
-    <mergeCell ref="E109:E111"/>
-    <mergeCell ref="C73:C75"/>
-    <mergeCell ref="E73:E75"/>
-    <mergeCell ref="H82:H83"/>
-    <mergeCell ref="G82:G83"/>
-    <mergeCell ref="H84:H85"/>
-    <mergeCell ref="G84:G85"/>
-    <mergeCell ref="H88:H89"/>
-    <mergeCell ref="G88:G89"/>
-    <mergeCell ref="D106:E107"/>
-    <mergeCell ref="B70:C71"/>
-    <mergeCell ref="D70:E71"/>
-    <mergeCell ref="C76:C77"/>
-    <mergeCell ref="E76:E77"/>
-    <mergeCell ref="H90:H92"/>
-    <mergeCell ref="G90:G92"/>
-    <mergeCell ref="H95:H96"/>
-    <mergeCell ref="G95:G96"/>
-    <mergeCell ref="H93:H94"/>
-    <mergeCell ref="G93:G94"/>
   </mergeCells>
   <pageMargins left="0.78740157480314965" right="0.39370078740157483" top="0.39370078740157483" bottom="0.59614583333333337" header="0.39370078740157483" footer="0.39370078740157483"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
